--- a/scripts/materials_convert.xlsx
+++ b/scripts/materials_convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="144" windowWidth="12420" windowHeight="4248" activeTab="4"/>
+    <workbookView xWindow="288" yWindow="144" windowWidth="12420" windowHeight="4248" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="l3p" sheetId="4" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="321">
   <si>
     <t>lg_black</t>
   </si>
@@ -1090,6 +1090,18 @@
   <si>
     <t>lg_undefined, or replace with #60</t>
   </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Light_Orange_Brown</t>
+  </si>
+  <si>
+    <t>Fabuland_Red</t>
+  </si>
+  <si>
+    <t>Fabuland_Orange</t>
+  </si>
 </sst>
 </file>
 
@@ -1154,12 +1166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1461,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F140" sqref="F140"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5369,19 +5382,19 @@
         <v>313</v>
       </c>
       <c r="B131" s="4" t="str">
-        <f t="shared" ref="B131:B163" si="8">"#ifdef (L3Texture"&amp;$A131&amp;") #ifndef (MJHTex"&amp;$A131&amp;") #declare MJHTex"&amp;$A131&amp;" = L3Texture"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="B131:B167" si="8">"#ifdef (L3Texture"&amp;$A131&amp;") #ifndef (MJHTex"&amp;$A131&amp;") #declare MJHTex"&amp;$A131&amp;" = L3Texture"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (L3Texture313) #ifndef (MJHTex313) #declare MJHTex313 = L3Texture313; #end #end</v>
       </c>
       <c r="C131" s="4" t="str">
-        <f t="shared" ref="C131:C163" si="9">"#ifdef (L3Texture"&amp;$A131&amp;"_slope) #ifndef (MJHTex"&amp;$A131&amp;"Slope) #declare MJHTex"&amp;$A131&amp;"Slope = L3Texture"&amp;$A131&amp;"_slope; #end #end"</f>
+        <f t="shared" ref="C131:C167" si="9">"#ifdef (L3Texture"&amp;$A131&amp;"_slope) #ifndef (MJHTex"&amp;$A131&amp;"Slope) #declare MJHTex"&amp;$A131&amp;"Slope = L3Texture"&amp;$A131&amp;"_slope; #end #end"</f>
         <v>#ifdef (L3Texture313_slope) #ifndef (MJHTex313Slope) #declare MJHTex313Slope = L3Texture313_slope; #end #end</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D163" si="10">"#ifdef (L3Color"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = L3Color"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="D131:D167" si="10">"#ifdef (L3Color"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = L3Color"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (L3Color313) #ifndef (MJHMat313) #declare MJHMat313 = L3Color313; #end #end</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E163" si="11">"#ifdef (L3Color"&amp;$A131&amp;"_slope) #ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = L3Color"&amp;$A131&amp;"_slope; #end #end"</f>
+        <f t="shared" ref="E131:E167" si="11">"#ifdef (L3Color"&amp;$A131&amp;"_slope) #ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = L3Color"&amp;$A131&amp;"_slope; #end #end"</f>
         <v>#ifdef (L3Color313_slope) #ifndef (MJHMat313Slope) #declare MJHMat313Slope = L3Color313_slope; #end #end</v>
       </c>
       <c r="F131" s="2" t="str">
@@ -5784,29 +5797,59 @@
 </v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B145" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#ifdef (L3Texture366) #ifndef (MJHTex366) #declare MJHTex366 = L3Texture366; #end #end</v>
+        <v>#ifdef (L3Texture353) #ifndef (MJHTex353) #declare MJHTex353 = L3Texture353; #end #end</v>
       </c>
       <c r="C145" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef (L3Texture366_slope) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = L3Texture366_slope; #end #end</v>
+        <v>#ifdef (L3Texture353_slope) #ifndef (MJHTex353Slope) #declare MJHTex353Slope = L3Texture353_slope; #end #end</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>#ifdef (L3Color366) #ifndef (MJHMat366) #declare MJHMat366 = L3Color366; #end #end</v>
+        <v>#ifdef (L3Color353) #ifndef (MJHMat353) #declare MJHMat353 = L3Color353; #end #end</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef (L3Color366_slope) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = L3Color366_slope; #end #end</v>
+        <v>#ifdef (L3Color353_slope) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = L3Color353_slope; #end #end</v>
       </c>
       <c r="F145" s="2" t="str">
         <f>"// row "&amp;(ROW($A145)-1)&amp;" - "&amp;codes!$B145&amp;CHAR(10)&amp;$B145&amp;CHAR(10)&amp;$C145&amp;CHAR(10)&amp;$D145&amp;CHAR(10)&amp;$E145&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 144 - Earth_Orange
+        <v xml:space="preserve">// row 144 - Coral
+#ifdef (L3Texture353) #ifndef (MJHTex353) #declare MJHTex353 = L3Texture353; #end #end
+#ifdef (L3Texture353_slope) #ifndef (MJHTex353Slope) #declare MJHTex353Slope = L3Texture353_slope; #end #end
+#ifdef (L3Color353) #ifndef (MJHMat353) #declare MJHMat353 = L3Color353; #end #end
+#ifdef (L3Color353_slope) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = L3Color353_slope; #end #end
+</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>366</v>
+      </c>
+      <c r="B146" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef (L3Texture366) #ifndef (MJHTex366) #declare MJHTex366 = L3Texture366; #end #end</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef (L3Texture366_slope) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = L3Texture366_slope; #end #end</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifdef (L3Color366) #ifndef (MJHMat366) #declare MJHMat366 = L3Color366; #end #end</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef (L3Color366_slope) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = L3Color366_slope; #end #end</v>
+      </c>
+      <c r="F146" s="2" t="str">
+        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 145 - Earth_Orange
 #ifdef (L3Texture366) #ifndef (MJHTex366) #declare MJHTex366 = L3Texture366; #end #end
 #ifdef (L3Texture366_slope) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = L3Texture366_slope; #end #end
 #ifdef (L3Color366) #ifndef (MJHMat366) #declare MJHMat366 = L3Color366; #end #end
@@ -5814,29 +5857,29 @@
 </v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
         <v>373</v>
       </c>
-      <c r="B146" s="4" t="str">
+      <c r="B147" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture373) #ifndef (MJHTex373) #declare MJHTex373 = L3Texture373; #end #end</v>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C147" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture373_slope) #ifndef (MJHTex373Slope) #declare MJHTex373Slope = L3Texture373_slope; #end #end</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D147" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color373) #ifndef (MJHMat373) #declare MJHMat373 = L3Color373; #end #end</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E147" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color373_slope) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = L3Color373_slope; #end #end</v>
       </c>
-      <c r="F146" s="2" t="str">
-        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 145 - Sand_Purple
+      <c r="F147" s="2" t="str">
+        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 146 - Sand_Purple
 #ifdef (L3Texture373) #ifndef (MJHTex373) #declare MJHTex373 = L3Texture373; #end #end
 #ifdef (L3Texture373_slope) #ifndef (MJHTex373Slope) #declare MJHTex373Slope = L3Texture373_slope; #end #end
 #ifdef (L3Color373) #ifndef (MJHMat373) #declare MJHMat373 = L3Color373; #end #end
@@ -5844,29 +5887,29 @@
 </v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
         <v>375</v>
       </c>
-      <c r="B147" s="4" t="str">
+      <c r="B148" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture375) #ifndef (MJHTex375) #declare MJHTex375 = L3Texture375; #end #end</v>
       </c>
-      <c r="C147" s="4" t="str">
+      <c r="C148" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture375_slope) #ifndef (MJHTex375Slope) #declare MJHTex375Slope = L3Texture375_slope; #end #end</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D148" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color375) #ifndef (MJHMat375) #declare MJHMat375 = L3Color375; #end #end</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E148" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color375_slope) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = L3Color375_slope; #end #end</v>
       </c>
-      <c r="F147" s="2" t="str">
-        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 146 - Rubber_Light_Grey
+      <c r="F148" s="2" t="str">
+        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 147 - Rubber_Light_Grey
 #ifdef (L3Texture375) #ifndef (MJHTex375) #declare MJHTex375 = L3Texture375; #end #end
 #ifdef (L3Texture375_slope) #ifndef (MJHTex375Slope) #declare MJHTex375Slope = L3Texture375_slope; #end #end
 #ifdef (L3Color375) #ifndef (MJHMat375) #declare MJHMat375 = L3Color375; #end #end
@@ -5874,29 +5917,29 @@
 </v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
         <v>378</v>
       </c>
-      <c r="B148" s="4" t="str">
+      <c r="B149" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture378) #ifndef (MJHTex378) #declare MJHTex378 = L3Texture378; #end #end</v>
       </c>
-      <c r="C148" s="4" t="str">
+      <c r="C149" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture378_slope) #ifndef (MJHTex378Slope) #declare MJHTex378Slope = L3Texture378_slope; #end #end</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D149" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color378) #ifndef (MJHMat378) #declare MJHMat378 = L3Color378; #end #end</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E149" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color378_slope) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = L3Color378_slope; #end #end</v>
       </c>
-      <c r="F148" s="2" t="str">
-        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 147 - Sand_Green
+      <c r="F149" s="2" t="str">
+        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 148 - Sand_Green
 #ifdef (L3Texture378) #ifndef (MJHTex378) #declare MJHTex378 = L3Texture378; #end #end
 #ifdef (L3Texture378_slope) #ifndef (MJHTex378Slope) #declare MJHTex378Slope = L3Texture378_slope; #end #end
 #ifdef (L3Color378) #ifndef (MJHMat378) #declare MJHMat378 = L3Color378; #end #end
@@ -5904,29 +5947,29 @@
 </v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
         <v>379</v>
       </c>
-      <c r="B149" s="4" t="str">
+      <c r="B150" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture379) #ifndef (MJHTex379) #declare MJHTex379 = L3Texture379; #end #end</v>
       </c>
-      <c r="C149" s="4" t="str">
+      <c r="C150" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture379_slope) #ifndef (MJHTex379Slope) #declare MJHTex379Slope = L3Texture379_slope; #end #end</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D150" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color379) #ifndef (MJHMat379) #declare MJHMat379 = L3Color379; #end #end</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E150" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color379_slope) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = L3Color379_slope; #end #end</v>
       </c>
-      <c r="F149" s="2" t="str">
-        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 148 - Sand_Blue
+      <c r="F150" s="2" t="str">
+        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 149 - Sand_Blue
 #ifdef (L3Texture379) #ifndef (MJHTex379) #declare MJHTex379 = L3Texture379; #end #end
 #ifdef (L3Texture379_slope) #ifndef (MJHTex379Slope) #declare MJHTex379Slope = L3Texture379_slope; #end #end
 #ifdef (L3Color379) #ifndef (MJHMat379) #declare MJHMat379 = L3Color379; #end #end
@@ -5934,29 +5977,29 @@
 </v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
         <v>383</v>
       </c>
-      <c r="B150" s="4" t="str">
+      <c r="B151" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture383) #ifndef (MJHTex383) #declare MJHTex383 = L3Texture383; #end #end</v>
       </c>
-      <c r="C150" s="4" t="str">
+      <c r="C151" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture383_slope) #ifndef (MJHTex383Slope) #declare MJHTex383Slope = L3Texture383_slope; #end #end</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D151" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color383) #ifndef (MJHMat383) #declare MJHMat383 = L3Color383; #end #end</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E151" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color383_slope) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = L3Color383_slope; #end #end</v>
       </c>
-      <c r="F150" s="2" t="str">
-        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 149 - Chrome_Silver
+      <c r="F151" s="2" t="str">
+        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 150 - Chrome_Silver
 #ifdef (L3Texture383) #ifndef (MJHTex383) #declare MJHTex383 = L3Texture383; #end #end
 #ifdef (L3Texture383_slope) #ifndef (MJHTex383Slope) #declare MJHTex383Slope = L3Texture383_slope; #end #end
 #ifdef (L3Color383) #ifndef (MJHMat383) #declare MJHMat383 = L3Color383; #end #end
@@ -5964,29 +6007,29 @@
 </v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
         <v>406</v>
       </c>
-      <c r="B151" s="4" t="str">
+      <c r="B152" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture406) #ifndef (MJHTex406) #declare MJHTex406 = L3Texture406; #end #end</v>
       </c>
-      <c r="C151" s="4" t="str">
+      <c r="C152" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture406_slope) #ifndef (MJHTex406Slope) #declare MJHTex406Slope = L3Texture406_slope; #end #end</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D152" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color406) #ifndef (MJHMat406) #declare MJHMat406 = L3Color406; #end #end</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E152" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color406_slope) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = L3Color406_slope; #end #end</v>
       </c>
-      <c r="F151" s="2" t="str">
-        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 150 - Rubber_Dark_Blue
+      <c r="F152" s="2" t="str">
+        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 151 - Rubber_Dark_Blue
 #ifdef (L3Texture406) #ifndef (MJHTex406) #declare MJHTex406 = L3Texture406; #end #end
 #ifdef (L3Texture406_slope) #ifndef (MJHTex406Slope) #declare MJHTex406Slope = L3Texture406_slope; #end #end
 #ifdef (L3Color406) #ifndef (MJHMat406) #declare MJHMat406 = L3Color406; #end #end
@@ -5994,29 +6037,29 @@
 </v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
         <v>449</v>
       </c>
-      <c r="B152" s="4" t="str">
+      <c r="B153" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture449) #ifndef (MJHTex449) #declare MJHTex449 = L3Texture449; #end #end</v>
       </c>
-      <c r="C152" s="4" t="str">
+      <c r="C153" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture449_slope) #ifndef (MJHTex449Slope) #declare MJHTex449Slope = L3Texture449_slope; #end #end</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D153" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color449) #ifndef (MJHMat449) #declare MJHMat449 = L3Color449; #end #end</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E153" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color449_slope) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = L3Color449_slope; #end #end</v>
       </c>
-      <c r="F152" s="2" t="str">
-        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 151 - Rubber_Purple
+      <c r="F153" s="2" t="str">
+        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 152 - Rubber_Purple
 #ifdef (L3Texture449) #ifndef (MJHTex449) #declare MJHTex449 = L3Texture449; #end #end
 #ifdef (L3Texture449_slope) #ifndef (MJHTex449Slope) #declare MJHTex449Slope = L3Texture449_slope; #end #end
 #ifdef (L3Color449) #ifndef (MJHMat449) #declare MJHMat449 = L3Color449; #end #end
@@ -6024,29 +6067,29 @@
 </v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
         <v>450</v>
       </c>
-      <c r="B153" s="4" t="str">
+      <c r="B154" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture450) #ifndef (MJHTex450) #declare MJHTex450 = L3Texture450; #end #end</v>
       </c>
-      <c r="C153" s="4" t="str">
+      <c r="C154" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture450_slope) #ifndef (MJHTex450Slope) #declare MJHTex450Slope = L3Texture450_slope; #end #end</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D154" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color450) #ifndef (MJHMat450) #declare MJHMat450 = L3Color450; #end #end</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E154" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color450_slope) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = L3Color450_slope; #end #end</v>
       </c>
-      <c r="F153" s="2" t="str">
-        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 152 - Fabuland_Brown
+      <c r="F154" s="2" t="str">
+        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 153 - Fabuland_Brown
 #ifdef (L3Texture450) #ifndef (MJHTex450) #declare MJHTex450 = L3Texture450; #end #end
 #ifdef (L3Texture450_slope) #ifndef (MJHTex450Slope) #declare MJHTex450Slope = L3Texture450_slope; #end #end
 #ifdef (L3Color450) #ifndef (MJHMat450) #declare MJHMat450 = L3Color450; #end #end
@@ -6054,29 +6097,29 @@
 </v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
         <v>462</v>
       </c>
-      <c r="B154" s="4" t="str">
+      <c r="B155" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture462) #ifndef (MJHTex462) #declare MJHTex462 = L3Texture462; #end #end</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C155" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture462_slope) #ifndef (MJHTex462Slope) #declare MJHTex462Slope = L3Texture462_slope; #end #end</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D155" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color462) #ifndef (MJHMat462) #declare MJHMat462 = L3Color462; #end #end</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E155" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color462_slope) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = L3Color462_slope; #end #end</v>
       </c>
-      <c r="F154" s="2" t="str">
-        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 153 - Medium_Orange
+      <c r="F155" s="2" t="str">
+        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 154 - Medium_Orange
 #ifdef (L3Texture462) #ifndef (MJHTex462) #declare MJHTex462 = L3Texture462; #end #end
 #ifdef (L3Texture462_slope) #ifndef (MJHTex462Slope) #declare MJHTex462Slope = L3Texture462_slope; #end #end
 #ifdef (L3Color462) #ifndef (MJHMat462) #declare MJHMat462 = L3Color462; #end #end
@@ -6084,29 +6127,29 @@
 </v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
         <v>484</v>
       </c>
-      <c r="B155" s="4" t="str">
+      <c r="B156" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture484) #ifndef (MJHTex484) #declare MJHTex484 = L3Texture484; #end #end</v>
       </c>
-      <c r="C155" s="4" t="str">
+      <c r="C156" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture484_slope) #ifndef (MJHTex484Slope) #declare MJHTex484Slope = L3Texture484_slope; #end #end</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D156" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color484) #ifndef (MJHMat484) #declare MJHMat484 = L3Color484; #end #end</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E156" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color484_slope) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = L3Color484_slope; #end #end</v>
       </c>
-      <c r="F155" s="2" t="str">
-        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 154 - Dark_Orange
+      <c r="F156" s="2" t="str">
+        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 155 - Dark_Orange
 #ifdef (L3Texture484) #ifndef (MJHTex484) #declare MJHTex484 = L3Texture484; #end #end
 #ifdef (L3Texture484_slope) #ifndef (MJHTex484Slope) #declare MJHTex484Slope = L3Texture484_slope; #end #end
 #ifdef (L3Color484) #ifndef (MJHMat484) #declare MJHMat484 = L3Color484; #end #end
@@ -6114,29 +6157,29 @@
 </v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
         <v>490</v>
       </c>
-      <c r="B156" s="4" t="str">
+      <c r="B157" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture490) #ifndef (MJHTex490) #declare MJHTex490 = L3Texture490; #end #end</v>
       </c>
-      <c r="C156" s="4" t="str">
+      <c r="C157" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture490_slope) #ifndef (MJHTex490Slope) #declare MJHTex490Slope = L3Texture490_slope; #end #end</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D157" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color490) #ifndef (MJHMat490) #declare MJHMat490 = L3Color490; #end #end</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E157" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color490_slope) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = L3Color490_slope; #end #end</v>
       </c>
-      <c r="F156" s="2" t="str">
-        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 155 - Rubber_Lime
+      <c r="F157" s="2" t="str">
+        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 156 - Rubber_Lime
 #ifdef (L3Texture490) #ifndef (MJHTex490) #declare MJHTex490 = L3Texture490; #end #end
 #ifdef (L3Texture490_slope) #ifndef (MJHTex490Slope) #declare MJHTex490Slope = L3Texture490_slope; #end #end
 #ifdef (L3Color490) #ifndef (MJHMat490) #declare MJHMat490 = L3Color490; #end #end
@@ -6144,29 +6187,29 @@
 </v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
         <v>493</v>
       </c>
-      <c r="B157" s="4" t="str">
+      <c r="B158" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture493) #ifndef (MJHTex493) #declare MJHTex493 = L3Texture493; #end #end</v>
       </c>
-      <c r="C157" s="4" t="str">
+      <c r="C158" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture493_slope) #ifndef (MJHTex493Slope) #declare MJHTex493Slope = L3Texture493_slope; #end #end</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D158" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color493) #ifndef (MJHMat493) #declare MJHMat493 = L3Color493; #end #end</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E158" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color493_slope) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = L3Color493_slope; #end #end</v>
       </c>
-      <c r="F157" s="2" t="str">
-        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 156 - Magnet
+      <c r="F158" s="2" t="str">
+        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 157 - Magnet
 #ifdef (L3Texture493) #ifndef (MJHTex493) #declare MJHTex493 = L3Texture493; #end #end
 #ifdef (L3Texture493_slope) #ifndef (MJHTex493Slope) #declare MJHTex493Slope = L3Texture493_slope; #end #end
 #ifdef (L3Color493) #ifndef (MJHMat493) #declare MJHMat493 = L3Color493; #end #end
@@ -6174,29 +6217,29 @@
 </v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
         <v>494</v>
       </c>
-      <c r="B158" s="4" t="str">
+      <c r="B159" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture494) #ifndef (MJHTex494) #declare MJHTex494 = L3Texture494; #end #end</v>
       </c>
-      <c r="C158" s="4" t="str">
+      <c r="C159" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture494_slope) #ifndef (MJHTex494Slope) #declare MJHTex494Slope = L3Texture494_slope; #end #end</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D159" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color494) #ifndef (MJHMat494) #declare MJHMat494 = L3Color494; #end #end</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E159" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color494_slope) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = L3Color494_slope; #end #end</v>
       </c>
-      <c r="F158" s="2" t="str">
-        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 157 - Electric_Contact_Alloy
+      <c r="F159" s="2" t="str">
+        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 158 - Electric_Contact_Alloy
 #ifdef (L3Texture494) #ifndef (MJHTex494) #declare MJHTex494 = L3Texture494; #end #end
 #ifdef (L3Texture494_slope) #ifndef (MJHTex494Slope) #declare MJHTex494Slope = L3Texture494_slope; #end #end
 #ifdef (L3Color494) #ifndef (MJHMat494) #declare MJHMat494 = L3Color494; #end #end
@@ -6204,29 +6247,29 @@
 </v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
         <v>495</v>
       </c>
-      <c r="B159" s="4" t="str">
+      <c r="B160" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture495) #ifndef (MJHTex495) #declare MJHTex495 = L3Texture495; #end #end</v>
       </c>
-      <c r="C159" s="4" t="str">
+      <c r="C160" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture495_slope) #ifndef (MJHTex495Slope) #declare MJHTex495Slope = L3Texture495_slope; #end #end</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D160" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color495) #ifndef (MJHMat495) #declare MJHMat495 = L3Color495; #end #end</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E160" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color495_slope) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = L3Color495_slope; #end #end</v>
       </c>
-      <c r="F159" s="2" t="str">
-        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 158 - Electric_Contact_Copper
+      <c r="F160" s="2" t="str">
+        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 159 - Electric_Contact_Copper
 #ifdef (L3Texture495) #ifndef (MJHTex495) #declare MJHTex495 = L3Texture495; #end #end
 #ifdef (L3Texture495_slope) #ifndef (MJHTex495Slope) #declare MJHTex495Slope = L3Texture495_slope; #end #end
 #ifdef (L3Color495) #ifndef (MJHMat495) #declare MJHMat495 = L3Color495; #end #end
@@ -6234,29 +6277,29 @@
 </v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
         <v>496</v>
       </c>
-      <c r="B160" s="4" t="str">
+      <c r="B161" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture496) #ifndef (MJHTex496) #declare MJHTex496 = L3Texture496; #end #end</v>
       </c>
-      <c r="C160" s="4" t="str">
+      <c r="C161" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture496_slope) #ifndef (MJHTex496Slope) #declare MJHTex496Slope = L3Texture496_slope; #end #end</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D161" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color496) #ifndef (MJHMat496) #declare MJHMat496 = L3Color496; #end #end</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E161" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color496_slope) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = L3Color496_slope; #end #end</v>
       </c>
-      <c r="F160" s="2" t="str">
-        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 159 - Rubber_Light_Bluish_Grey
+      <c r="F161" s="2" t="str">
+        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 160 - Rubber_Light_Bluish_Grey
 #ifdef (L3Texture496) #ifndef (MJHTex496) #declare MJHTex496 = L3Texture496; #end #end
 #ifdef (L3Texture496_slope) #ifndef (MJHTex496Slope) #declare MJHTex496Slope = L3Texture496_slope; #end #end
 #ifdef (L3Color496) #ifndef (MJHMat496) #declare MJHMat496 = L3Color496; #end #end
@@ -6264,29 +6307,29 @@
 </v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
         <v>503</v>
       </c>
-      <c r="B161" s="4" t="str">
+      <c r="B162" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture503) #ifndef (MJHTex503) #declare MJHTex503 = L3Texture503; #end #end</v>
       </c>
-      <c r="C161" s="4" t="str">
+      <c r="C162" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture503_slope) #ifndef (MJHTex503Slope) #declare MJHTex503Slope = L3Texture503_slope; #end #end</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D162" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color503) #ifndef (MJHMat503) #declare MJHMat503 = L3Color503; #end #end</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E162" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color503_slope) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = L3Color503_slope; #end #end</v>
       </c>
-      <c r="F161" s="2" t="str">
-        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 160 - Very_Light_Grey
+      <c r="F162" s="2" t="str">
+        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 161 - Very_Light_Grey
 #ifdef (L3Texture503) #ifndef (MJHTex503) #declare MJHTex503 = L3Texture503; #end #end
 #ifdef (L3Texture503_slope) #ifndef (MJHTex503Slope) #declare MJHTex503Slope = L3Texture503_slope; #end #end
 #ifdef (L3Color503) #ifndef (MJHMat503) #declare MJHMat503 = L3Color503; #end #end
@@ -6294,29 +6337,29 @@
 </v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
         <v>504</v>
       </c>
-      <c r="B162" s="4" t="str">
+      <c r="B163" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture504) #ifndef (MJHTex504) #declare MJHTex504 = L3Texture504; #end #end</v>
       </c>
-      <c r="C162" s="4" t="str">
+      <c r="C163" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture504_slope) #ifndef (MJHTex504Slope) #declare MJHTex504Slope = L3Texture504_slope; #end #end</v>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D163" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color504) #ifndef (MJHMat504) #declare MJHMat504 = L3Color504; #end #end</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E163" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color504_slope) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = L3Color504_slope; #end #end</v>
       </c>
-      <c r="F162" s="2" t="str">
-        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 161 - Rubber_Flat_Silver
+      <c r="F163" s="2" t="str">
+        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 162 - Rubber_Flat_Silver
 #ifdef (L3Texture504) #ifndef (MJHTex504) #declare MJHTex504 = L3Texture504; #end #end
 #ifdef (L3Texture504_slope) #ifndef (MJHTex504Slope) #declare MJHTex504Slope = L3Texture504_slope; #end #end
 #ifdef (L3Color504) #ifndef (MJHMat504) #declare MJHMat504 = L3Color504; #end #end
@@ -6324,29 +6367,119 @@
 </v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
+    <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>507</v>
+      </c>
+      <c r="B164" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef (L3Texture507) #ifndef (MJHTex507) #declare MJHTex507 = L3Texture507; #end #end</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef (L3Texture507_slope) #ifndef (MJHTex507Slope) #declare MJHTex507Slope = L3Texture507_slope; #end #end</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifdef (L3Color507) #ifndef (MJHMat507) #declare MJHMat507 = L3Color507; #end #end</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef (L3Color507_slope) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = L3Color507_slope; #end #end</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f>"// row "&amp;(ROW($A164)-1)&amp;" - "&amp;codes!$B164&amp;CHAR(10)&amp;$B164&amp;CHAR(10)&amp;$C164&amp;CHAR(10)&amp;$D164&amp;CHAR(10)&amp;$E164&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 163 - Light_Orange_Brown
+#ifdef (L3Texture507) #ifndef (MJHTex507) #declare MJHTex507 = L3Texture507; #end #end
+#ifdef (L3Texture507_slope) #ifndef (MJHTex507Slope) #declare MJHTex507Slope = L3Texture507_slope; #end #end
+#ifdef (L3Color507) #ifndef (MJHMat507) #declare MJHMat507 = L3Color507; #end #end
+#ifdef (L3Color507_slope) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = L3Color507_slope; #end #end
+</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>508</v>
+      </c>
+      <c r="B165" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef (L3Texture508) #ifndef (MJHTex508) #declare MJHTex508 = L3Texture508; #end #end</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef (L3Texture508_slope) #ifndef (MJHTex508Slope) #declare MJHTex508Slope = L3Texture508_slope; #end #end</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifdef (L3Color508) #ifndef (MJHMat508) #declare MJHMat508 = L3Color508; #end #end</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef (L3Color508_slope) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = L3Color508_slope; #end #end</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f>"// row "&amp;(ROW($A165)-1)&amp;" - "&amp;codes!$B165&amp;CHAR(10)&amp;$B165&amp;CHAR(10)&amp;$C165&amp;CHAR(10)&amp;$D165&amp;CHAR(10)&amp;$E165&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 164 - Fabuland_Red
+#ifdef (L3Texture508) #ifndef (MJHTex508) #declare MJHTex508 = L3Texture508; #end #end
+#ifdef (L3Texture508_slope) #ifndef (MJHTex508Slope) #declare MJHTex508Slope = L3Texture508_slope; #end #end
+#ifdef (L3Color508) #ifndef (MJHMat508) #declare MJHMat508 = L3Color508; #end #end
+#ifdef (L3Color508_slope) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = L3Color508_slope; #end #end
+</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>509</v>
+      </c>
+      <c r="B166" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef (L3Texture509) #ifndef (MJHTex509) #declare MJHTex509 = L3Texture509; #end #end</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef (L3Texture509_slope) #ifndef (MJHTex509Slope) #declare MJHTex509Slope = L3Texture509_slope; #end #end</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifdef (L3Color509) #ifndef (MJHMat509) #declare MJHMat509 = L3Color509; #end #end</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef (L3Color509_slope) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = L3Color509_slope; #end #end</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f>"// row "&amp;(ROW($A166)-1)&amp;" - "&amp;codes!$B166&amp;CHAR(10)&amp;$B166&amp;CHAR(10)&amp;$C166&amp;CHAR(10)&amp;$D166&amp;CHAR(10)&amp;$E166&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 165 - Fabuland_Orange
+#ifdef (L3Texture509) #ifndef (MJHTex509) #declare MJHTex509 = L3Texture509; #end #end
+#ifdef (L3Texture509_slope) #ifndef (MJHTex509Slope) #declare MJHTex509Slope = L3Texture509_slope; #end #end
+#ifdef (L3Color509) #ifndef (MJHMat509) #declare MJHMat509 = L3Color509; #end #end
+#ifdef (L3Color509_slope) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = L3Color509_slope; #end #end
+</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
         <v>511</v>
       </c>
-      <c r="B163" s="4" t="str">
+      <c r="B167" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (L3Texture511) #ifndef (MJHTex511) #declare MJHTex511 = L3Texture511; #end #end</v>
       </c>
-      <c r="C163" s="4" t="str">
+      <c r="C167" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (L3Texture511_slope) #ifndef (MJHTex511Slope) #declare MJHTex511Slope = L3Texture511_slope; #end #end</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D167" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (L3Color511) #ifndef (MJHMat511) #declare MJHMat511 = L3Color511; #end #end</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E167" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (L3Color511_slope) #ifndef (MJHMat511Slope) #declare MJHMat511Slope = L3Color511_slope; #end #end</v>
       </c>
-      <c r="F163" s="2" t="str">
-        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 162 - Rubber_White
+      <c r="F167" s="2" t="str">
+        <f>"// row "&amp;(ROW($A167)-1)&amp;" - "&amp;codes!$B167&amp;CHAR(10)&amp;$B167&amp;CHAR(10)&amp;$C167&amp;CHAR(10)&amp;$D167&amp;CHAR(10)&amp;$E167&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 166 - Rubber_White
 #ifdef (L3Texture511) #ifndef (MJHTex511) #declare MJHTex511 = L3Texture511; #end #end
 #ifdef (L3Texture511_slope) #ifndef (MJHTex511Slope) #declare MJHTex511Slope = L3Texture511_slope; #end #end
 #ifdef (L3Color511) #ifndef (MJHMat511) #declare MJHMat511 = L3Color511; #end #end
@@ -6361,11 +6494,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10273,19 +10406,19 @@
         <v>313</v>
       </c>
       <c r="B131" s="4" t="str">
-        <f t="shared" ref="B131:B163" si="8">"#ifdef (ldTex"&amp;$A131&amp;") #ifndef (MJHTex"&amp;$A131&amp;") #declare MJHTex"&amp;$A131&amp;" = ldTex"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="B131:B167" si="8">"#ifdef (ldTex"&amp;$A131&amp;") #ifndef (MJHTex"&amp;$A131&amp;") #declare MJHTex"&amp;$A131&amp;" = ldTex"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (ldTex313) #ifndef (MJHTex313) #declare MJHTex313 = ldTex313; #end #end</v>
       </c>
       <c r="C131" s="4" t="str">
-        <f t="shared" ref="C131:C163" si="9">"#ifdef (ldTex"&amp;$A131&amp;") #ifndef (MJHTex"&amp;$A131&amp;"Slope) #declare MJHTex"&amp;$A131&amp;"Slope = ldTex"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="C131:C167" si="9">"#ifdef (ldTex"&amp;$A131&amp;") #ifndef (MJHTex"&amp;$A131&amp;"Slope) #declare MJHTex"&amp;$A131&amp;"Slope = ldTex"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (ldTex313) #ifndef (MJHTex313Slope) #declare MJHTex313Slope = ldTex313; #end #end</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D163" si="10">"#ifdef (ldMat"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = ldMat"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="D131:D167" si="10">"#ifdef (ldMat"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = ldMat"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (ldMat313) #ifndef (MJHMat313) #declare MJHMat313 = ldMat313; #end #end</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E163" si="11">"#ifdef (ldMat"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = ldMat"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="E131:E167" si="11">"#ifdef (ldMat"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = ldMat"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (ldMat313) #ifndef (MJHMat313Slope) #declare MJHMat313Slope = ldMat313; #end #end</v>
       </c>
       <c r="F131" s="2" t="str">
@@ -10688,29 +10821,59 @@
 </v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B145" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#ifdef (ldTex366) #ifndef (MJHTex366) #declare MJHTex366 = ldTex366; #end #end</v>
+        <v>#ifdef (ldTex353) #ifndef (MJHTex353) #declare MJHTex353 = ldTex353; #end #end</v>
       </c>
       <c r="C145" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef (ldTex366) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = ldTex366; #end #end</v>
+        <v>#ifdef (ldTex353) #ifndef (MJHTex353Slope) #declare MJHTex353Slope = ldTex353; #end #end</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>#ifdef (ldMat366) #ifndef (MJHMat366) #declare MJHMat366 = ldMat366; #end #end</v>
+        <v>#ifdef (ldMat353) #ifndef (MJHMat353) #declare MJHMat353 = ldMat353; #end #end</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef (ldMat366) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = ldMat366; #end #end</v>
+        <v>#ifdef (ldMat353) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = ldMat353; #end #end</v>
       </c>
       <c r="F145" s="2" t="str">
         <f>"// row "&amp;(ROW($A145)-1)&amp;" - "&amp;codes!$B145&amp;CHAR(10)&amp;$B145&amp;CHAR(10)&amp;$C145&amp;CHAR(10)&amp;$D145&amp;CHAR(10)&amp;$E145&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 144 - Earth_Orange
+        <v xml:space="preserve">// row 144 - Coral
+#ifdef (ldTex353) #ifndef (MJHTex353) #declare MJHTex353 = ldTex353; #end #end
+#ifdef (ldTex353) #ifndef (MJHTex353Slope) #declare MJHTex353Slope = ldTex353; #end #end
+#ifdef (ldMat353) #ifndef (MJHMat353) #declare MJHMat353 = ldMat353; #end #end
+#ifdef (ldMat353) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = ldMat353; #end #end
+</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>366</v>
+      </c>
+      <c r="B146" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef (ldTex366) #ifndef (MJHTex366) #declare MJHTex366 = ldTex366; #end #end</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef (ldTex366) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = ldTex366; #end #end</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifdef (ldMat366) #ifndef (MJHMat366) #declare MJHMat366 = ldMat366; #end #end</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef (ldMat366) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = ldMat366; #end #end</v>
+      </c>
+      <c r="F146" s="2" t="str">
+        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 145 - Earth_Orange
 #ifdef (ldTex366) #ifndef (MJHTex366) #declare MJHTex366 = ldTex366; #end #end
 #ifdef (ldTex366) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = ldTex366; #end #end
 #ifdef (ldMat366) #ifndef (MJHMat366) #declare MJHMat366 = ldMat366; #end #end
@@ -10718,29 +10881,29 @@
 </v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
         <v>373</v>
       </c>
-      <c r="B146" s="4" t="str">
+      <c r="B147" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex373) #ifndef (MJHTex373) #declare MJHTex373 = ldTex373; #end #end</v>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C147" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex373) #ifndef (MJHTex373Slope) #declare MJHTex373Slope = ldTex373; #end #end</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D147" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat373) #ifndef (MJHMat373) #declare MJHMat373 = ldMat373; #end #end</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E147" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat373) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = ldMat373; #end #end</v>
       </c>
-      <c r="F146" s="2" t="str">
-        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 145 - Sand_Purple
+      <c r="F147" s="2" t="str">
+        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 146 - Sand_Purple
 #ifdef (ldTex373) #ifndef (MJHTex373) #declare MJHTex373 = ldTex373; #end #end
 #ifdef (ldTex373) #ifndef (MJHTex373Slope) #declare MJHTex373Slope = ldTex373; #end #end
 #ifdef (ldMat373) #ifndef (MJHMat373) #declare MJHMat373 = ldMat373; #end #end
@@ -10748,29 +10911,29 @@
 </v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
         <v>375</v>
       </c>
-      <c r="B147" s="4" t="str">
+      <c r="B148" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex375) #ifndef (MJHTex375) #declare MJHTex375 = ldTex375; #end #end</v>
       </c>
-      <c r="C147" s="4" t="str">
+      <c r="C148" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex375) #ifndef (MJHTex375Slope) #declare MJHTex375Slope = ldTex375; #end #end</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D148" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat375) #ifndef (MJHMat375) #declare MJHMat375 = ldMat375; #end #end</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E148" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat375) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = ldMat375; #end #end</v>
       </c>
-      <c r="F147" s="2" t="str">
-        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 146 - Rubber_Light_Grey
+      <c r="F148" s="2" t="str">
+        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 147 - Rubber_Light_Grey
 #ifdef (ldTex375) #ifndef (MJHTex375) #declare MJHTex375 = ldTex375; #end #end
 #ifdef (ldTex375) #ifndef (MJHTex375Slope) #declare MJHTex375Slope = ldTex375; #end #end
 #ifdef (ldMat375) #ifndef (MJHMat375) #declare MJHMat375 = ldMat375; #end #end
@@ -10778,29 +10941,29 @@
 </v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
         <v>378</v>
       </c>
-      <c r="B148" s="4" t="str">
+      <c r="B149" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex378) #ifndef (MJHTex378) #declare MJHTex378 = ldTex378; #end #end</v>
       </c>
-      <c r="C148" s="4" t="str">
+      <c r="C149" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex378) #ifndef (MJHTex378Slope) #declare MJHTex378Slope = ldTex378; #end #end</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D149" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat378) #ifndef (MJHMat378) #declare MJHMat378 = ldMat378; #end #end</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E149" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat378) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = ldMat378; #end #end</v>
       </c>
-      <c r="F148" s="2" t="str">
-        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 147 - Sand_Green
+      <c r="F149" s="2" t="str">
+        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 148 - Sand_Green
 #ifdef (ldTex378) #ifndef (MJHTex378) #declare MJHTex378 = ldTex378; #end #end
 #ifdef (ldTex378) #ifndef (MJHTex378Slope) #declare MJHTex378Slope = ldTex378; #end #end
 #ifdef (ldMat378) #ifndef (MJHMat378) #declare MJHMat378 = ldMat378; #end #end
@@ -10808,29 +10971,29 @@
 </v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
         <v>379</v>
       </c>
-      <c r="B149" s="4" t="str">
+      <c r="B150" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex379) #ifndef (MJHTex379) #declare MJHTex379 = ldTex379; #end #end</v>
       </c>
-      <c r="C149" s="4" t="str">
+      <c r="C150" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex379) #ifndef (MJHTex379Slope) #declare MJHTex379Slope = ldTex379; #end #end</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D150" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat379) #ifndef (MJHMat379) #declare MJHMat379 = ldMat379; #end #end</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E150" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat379) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = ldMat379; #end #end</v>
       </c>
-      <c r="F149" s="2" t="str">
-        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 148 - Sand_Blue
+      <c r="F150" s="2" t="str">
+        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 149 - Sand_Blue
 #ifdef (ldTex379) #ifndef (MJHTex379) #declare MJHTex379 = ldTex379; #end #end
 #ifdef (ldTex379) #ifndef (MJHTex379Slope) #declare MJHTex379Slope = ldTex379; #end #end
 #ifdef (ldMat379) #ifndef (MJHMat379) #declare MJHMat379 = ldMat379; #end #end
@@ -10838,29 +11001,29 @@
 </v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
         <v>383</v>
       </c>
-      <c r="B150" s="4" t="str">
+      <c r="B151" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex383) #ifndef (MJHTex383) #declare MJHTex383 = ldTex383; #end #end</v>
       </c>
-      <c r="C150" s="4" t="str">
+      <c r="C151" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex383) #ifndef (MJHTex383Slope) #declare MJHTex383Slope = ldTex383; #end #end</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D151" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat383) #ifndef (MJHMat383) #declare MJHMat383 = ldMat383; #end #end</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E151" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat383) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = ldMat383; #end #end</v>
       </c>
-      <c r="F150" s="2" t="str">
-        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 149 - Chrome_Silver
+      <c r="F151" s="2" t="str">
+        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 150 - Chrome_Silver
 #ifdef (ldTex383) #ifndef (MJHTex383) #declare MJHTex383 = ldTex383; #end #end
 #ifdef (ldTex383) #ifndef (MJHTex383Slope) #declare MJHTex383Slope = ldTex383; #end #end
 #ifdef (ldMat383) #ifndef (MJHMat383) #declare MJHMat383 = ldMat383; #end #end
@@ -10868,29 +11031,29 @@
 </v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
         <v>406</v>
       </c>
-      <c r="B151" s="4" t="str">
+      <c r="B152" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex406) #ifndef (MJHTex406) #declare MJHTex406 = ldTex406; #end #end</v>
       </c>
-      <c r="C151" s="4" t="str">
+      <c r="C152" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex406) #ifndef (MJHTex406Slope) #declare MJHTex406Slope = ldTex406; #end #end</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D152" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat406) #ifndef (MJHMat406) #declare MJHMat406 = ldMat406; #end #end</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E152" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat406) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = ldMat406; #end #end</v>
       </c>
-      <c r="F151" s="2" t="str">
-        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 150 - Rubber_Dark_Blue
+      <c r="F152" s="2" t="str">
+        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 151 - Rubber_Dark_Blue
 #ifdef (ldTex406) #ifndef (MJHTex406) #declare MJHTex406 = ldTex406; #end #end
 #ifdef (ldTex406) #ifndef (MJHTex406Slope) #declare MJHTex406Slope = ldTex406; #end #end
 #ifdef (ldMat406) #ifndef (MJHMat406) #declare MJHMat406 = ldMat406; #end #end
@@ -10898,29 +11061,29 @@
 </v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
         <v>449</v>
       </c>
-      <c r="B152" s="4" t="str">
+      <c r="B153" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex449) #ifndef (MJHTex449) #declare MJHTex449 = ldTex449; #end #end</v>
       </c>
-      <c r="C152" s="4" t="str">
+      <c r="C153" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex449) #ifndef (MJHTex449Slope) #declare MJHTex449Slope = ldTex449; #end #end</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D153" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat449) #ifndef (MJHMat449) #declare MJHMat449 = ldMat449; #end #end</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E153" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat449) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = ldMat449; #end #end</v>
       </c>
-      <c r="F152" s="2" t="str">
-        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 151 - Rubber_Purple
+      <c r="F153" s="2" t="str">
+        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 152 - Rubber_Purple
 #ifdef (ldTex449) #ifndef (MJHTex449) #declare MJHTex449 = ldTex449; #end #end
 #ifdef (ldTex449) #ifndef (MJHTex449Slope) #declare MJHTex449Slope = ldTex449; #end #end
 #ifdef (ldMat449) #ifndef (MJHMat449) #declare MJHMat449 = ldMat449; #end #end
@@ -10928,29 +11091,29 @@
 </v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
         <v>450</v>
       </c>
-      <c r="B153" s="4" t="str">
+      <c r="B154" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex450) #ifndef (MJHTex450) #declare MJHTex450 = ldTex450; #end #end</v>
       </c>
-      <c r="C153" s="4" t="str">
+      <c r="C154" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex450) #ifndef (MJHTex450Slope) #declare MJHTex450Slope = ldTex450; #end #end</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D154" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat450) #ifndef (MJHMat450) #declare MJHMat450 = ldMat450; #end #end</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E154" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat450) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = ldMat450; #end #end</v>
       </c>
-      <c r="F153" s="2" t="str">
-        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 152 - Fabuland_Brown
+      <c r="F154" s="2" t="str">
+        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 153 - Fabuland_Brown
 #ifdef (ldTex450) #ifndef (MJHTex450) #declare MJHTex450 = ldTex450; #end #end
 #ifdef (ldTex450) #ifndef (MJHTex450Slope) #declare MJHTex450Slope = ldTex450; #end #end
 #ifdef (ldMat450) #ifndef (MJHMat450) #declare MJHMat450 = ldMat450; #end #end
@@ -10958,29 +11121,29 @@
 </v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
         <v>462</v>
       </c>
-      <c r="B154" s="4" t="str">
+      <c r="B155" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex462) #ifndef (MJHTex462) #declare MJHTex462 = ldTex462; #end #end</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C155" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex462) #ifndef (MJHTex462Slope) #declare MJHTex462Slope = ldTex462; #end #end</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D155" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat462) #ifndef (MJHMat462) #declare MJHMat462 = ldMat462; #end #end</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E155" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat462) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = ldMat462; #end #end</v>
       </c>
-      <c r="F154" s="2" t="str">
-        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 153 - Medium_Orange
+      <c r="F155" s="2" t="str">
+        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 154 - Medium_Orange
 #ifdef (ldTex462) #ifndef (MJHTex462) #declare MJHTex462 = ldTex462; #end #end
 #ifdef (ldTex462) #ifndef (MJHTex462Slope) #declare MJHTex462Slope = ldTex462; #end #end
 #ifdef (ldMat462) #ifndef (MJHMat462) #declare MJHMat462 = ldMat462; #end #end
@@ -10988,29 +11151,29 @@
 </v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
         <v>484</v>
       </c>
-      <c r="B155" s="4" t="str">
+      <c r="B156" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex484) #ifndef (MJHTex484) #declare MJHTex484 = ldTex484; #end #end</v>
       </c>
-      <c r="C155" s="4" t="str">
+      <c r="C156" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex484) #ifndef (MJHTex484Slope) #declare MJHTex484Slope = ldTex484; #end #end</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D156" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat484) #ifndef (MJHMat484) #declare MJHMat484 = ldMat484; #end #end</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E156" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat484) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = ldMat484; #end #end</v>
       </c>
-      <c r="F155" s="2" t="str">
-        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 154 - Dark_Orange
+      <c r="F156" s="2" t="str">
+        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 155 - Dark_Orange
 #ifdef (ldTex484) #ifndef (MJHTex484) #declare MJHTex484 = ldTex484; #end #end
 #ifdef (ldTex484) #ifndef (MJHTex484Slope) #declare MJHTex484Slope = ldTex484; #end #end
 #ifdef (ldMat484) #ifndef (MJHMat484) #declare MJHMat484 = ldMat484; #end #end
@@ -11018,29 +11181,29 @@
 </v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
         <v>490</v>
       </c>
-      <c r="B156" s="4" t="str">
+      <c r="B157" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex490) #ifndef (MJHTex490) #declare MJHTex490 = ldTex490; #end #end</v>
       </c>
-      <c r="C156" s="4" t="str">
+      <c r="C157" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex490) #ifndef (MJHTex490Slope) #declare MJHTex490Slope = ldTex490; #end #end</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D157" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat490) #ifndef (MJHMat490) #declare MJHMat490 = ldMat490; #end #end</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E157" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat490) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = ldMat490; #end #end</v>
       </c>
-      <c r="F156" s="2" t="str">
-        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 155 - Rubber_Lime
+      <c r="F157" s="2" t="str">
+        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 156 - Rubber_Lime
 #ifdef (ldTex490) #ifndef (MJHTex490) #declare MJHTex490 = ldTex490; #end #end
 #ifdef (ldTex490) #ifndef (MJHTex490Slope) #declare MJHTex490Slope = ldTex490; #end #end
 #ifdef (ldMat490) #ifndef (MJHMat490) #declare MJHMat490 = ldMat490; #end #end
@@ -11048,29 +11211,29 @@
 </v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
         <v>493</v>
       </c>
-      <c r="B157" s="4" t="str">
+      <c r="B158" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex493) #ifndef (MJHTex493) #declare MJHTex493 = ldTex493; #end #end</v>
       </c>
-      <c r="C157" s="4" t="str">
+      <c r="C158" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex493) #ifndef (MJHTex493Slope) #declare MJHTex493Slope = ldTex493; #end #end</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D158" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat493) #ifndef (MJHMat493) #declare MJHMat493 = ldMat493; #end #end</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E158" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat493) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = ldMat493; #end #end</v>
       </c>
-      <c r="F157" s="2" t="str">
-        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 156 - Magnet
+      <c r="F158" s="2" t="str">
+        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 157 - Magnet
 #ifdef (ldTex493) #ifndef (MJHTex493) #declare MJHTex493 = ldTex493; #end #end
 #ifdef (ldTex493) #ifndef (MJHTex493Slope) #declare MJHTex493Slope = ldTex493; #end #end
 #ifdef (ldMat493) #ifndef (MJHMat493) #declare MJHMat493 = ldMat493; #end #end
@@ -11078,29 +11241,29 @@
 </v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
         <v>494</v>
       </c>
-      <c r="B158" s="4" t="str">
+      <c r="B159" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex494) #ifndef (MJHTex494) #declare MJHTex494 = ldTex494; #end #end</v>
       </c>
-      <c r="C158" s="4" t="str">
+      <c r="C159" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex494) #ifndef (MJHTex494Slope) #declare MJHTex494Slope = ldTex494; #end #end</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D159" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat494) #ifndef (MJHMat494) #declare MJHMat494 = ldMat494; #end #end</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E159" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat494) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = ldMat494; #end #end</v>
       </c>
-      <c r="F158" s="2" t="str">
-        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 157 - Electric_Contact_Alloy
+      <c r="F159" s="2" t="str">
+        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 158 - Electric_Contact_Alloy
 #ifdef (ldTex494) #ifndef (MJHTex494) #declare MJHTex494 = ldTex494; #end #end
 #ifdef (ldTex494) #ifndef (MJHTex494Slope) #declare MJHTex494Slope = ldTex494; #end #end
 #ifdef (ldMat494) #ifndef (MJHMat494) #declare MJHMat494 = ldMat494; #end #end
@@ -11108,29 +11271,29 @@
 </v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
         <v>495</v>
       </c>
-      <c r="B159" s="4" t="str">
+      <c r="B160" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex495) #ifndef (MJHTex495) #declare MJHTex495 = ldTex495; #end #end</v>
       </c>
-      <c r="C159" s="4" t="str">
+      <c r="C160" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex495) #ifndef (MJHTex495Slope) #declare MJHTex495Slope = ldTex495; #end #end</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D160" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat495) #ifndef (MJHMat495) #declare MJHMat495 = ldMat495; #end #end</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E160" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat495) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = ldMat495; #end #end</v>
       </c>
-      <c r="F159" s="2" t="str">
-        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 158 - Electric_Contact_Copper
+      <c r="F160" s="2" t="str">
+        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 159 - Electric_Contact_Copper
 #ifdef (ldTex495) #ifndef (MJHTex495) #declare MJHTex495 = ldTex495; #end #end
 #ifdef (ldTex495) #ifndef (MJHTex495Slope) #declare MJHTex495Slope = ldTex495; #end #end
 #ifdef (ldMat495) #ifndef (MJHMat495) #declare MJHMat495 = ldMat495; #end #end
@@ -11138,29 +11301,29 @@
 </v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
         <v>496</v>
       </c>
-      <c r="B160" s="4" t="str">
+      <c r="B161" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex496) #ifndef (MJHTex496) #declare MJHTex496 = ldTex496; #end #end</v>
       </c>
-      <c r="C160" s="4" t="str">
+      <c r="C161" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex496) #ifndef (MJHTex496Slope) #declare MJHTex496Slope = ldTex496; #end #end</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D161" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat496) #ifndef (MJHMat496) #declare MJHMat496 = ldMat496; #end #end</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E161" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat496) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = ldMat496; #end #end</v>
       </c>
-      <c r="F160" s="2" t="str">
-        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 159 - Rubber_Light_Bluish_Grey
+      <c r="F161" s="2" t="str">
+        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 160 - Rubber_Light_Bluish_Grey
 #ifdef (ldTex496) #ifndef (MJHTex496) #declare MJHTex496 = ldTex496; #end #end
 #ifdef (ldTex496) #ifndef (MJHTex496Slope) #declare MJHTex496Slope = ldTex496; #end #end
 #ifdef (ldMat496) #ifndef (MJHMat496) #declare MJHMat496 = ldMat496; #end #end
@@ -11168,29 +11331,29 @@
 </v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
         <v>503</v>
       </c>
-      <c r="B161" s="4" t="str">
+      <c r="B162" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex503) #ifndef (MJHTex503) #declare MJHTex503 = ldTex503; #end #end</v>
       </c>
-      <c r="C161" s="4" t="str">
+      <c r="C162" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex503) #ifndef (MJHTex503Slope) #declare MJHTex503Slope = ldTex503; #end #end</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D162" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat503) #ifndef (MJHMat503) #declare MJHMat503 = ldMat503; #end #end</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E162" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat503) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = ldMat503; #end #end</v>
       </c>
-      <c r="F161" s="2" t="str">
-        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 160 - Very_Light_Grey
+      <c r="F162" s="2" t="str">
+        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 161 - Very_Light_Grey
 #ifdef (ldTex503) #ifndef (MJHTex503) #declare MJHTex503 = ldTex503; #end #end
 #ifdef (ldTex503) #ifndef (MJHTex503Slope) #declare MJHTex503Slope = ldTex503; #end #end
 #ifdef (ldMat503) #ifndef (MJHMat503) #declare MJHMat503 = ldMat503; #end #end
@@ -11198,29 +11361,29 @@
 </v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
         <v>504</v>
       </c>
-      <c r="B162" s="4" t="str">
+      <c r="B163" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex504) #ifndef (MJHTex504) #declare MJHTex504 = ldTex504; #end #end</v>
       </c>
-      <c r="C162" s="4" t="str">
+      <c r="C163" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex504) #ifndef (MJHTex504Slope) #declare MJHTex504Slope = ldTex504; #end #end</v>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D163" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat504) #ifndef (MJHMat504) #declare MJHMat504 = ldMat504; #end #end</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E163" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat504) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = ldMat504; #end #end</v>
       </c>
-      <c r="F162" s="2" t="str">
-        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 161 - Rubber_Flat_Silver
+      <c r="F163" s="2" t="str">
+        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 162 - Rubber_Flat_Silver
 #ifdef (ldTex504) #ifndef (MJHTex504) #declare MJHTex504 = ldTex504; #end #end
 #ifdef (ldTex504) #ifndef (MJHTex504Slope) #declare MJHTex504Slope = ldTex504; #end #end
 #ifdef (ldMat504) #ifndef (MJHMat504) #declare MJHMat504 = ldMat504; #end #end
@@ -11228,29 +11391,119 @@
 </v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
+    <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>507</v>
+      </c>
+      <c r="B164" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef (ldTex507) #ifndef (MJHTex507) #declare MJHTex507 = ldTex507; #end #end</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef (ldTex507) #ifndef (MJHTex507Slope) #declare MJHTex507Slope = ldTex507; #end #end</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifdef (ldMat507) #ifndef (MJHMat507) #declare MJHMat507 = ldMat507; #end #end</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef (ldMat507) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = ldMat507; #end #end</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f>"// row "&amp;(ROW($A164)-1)&amp;" - "&amp;codes!$B164&amp;CHAR(10)&amp;$B164&amp;CHAR(10)&amp;$C164&amp;CHAR(10)&amp;$D164&amp;CHAR(10)&amp;$E164&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 163 - Light_Orange_Brown
+#ifdef (ldTex507) #ifndef (MJHTex507) #declare MJHTex507 = ldTex507; #end #end
+#ifdef (ldTex507) #ifndef (MJHTex507Slope) #declare MJHTex507Slope = ldTex507; #end #end
+#ifdef (ldMat507) #ifndef (MJHMat507) #declare MJHMat507 = ldMat507; #end #end
+#ifdef (ldMat507) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = ldMat507; #end #end
+</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>508</v>
+      </c>
+      <c r="B165" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef (ldTex508) #ifndef (MJHTex508) #declare MJHTex508 = ldTex508; #end #end</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef (ldTex508) #ifndef (MJHTex508Slope) #declare MJHTex508Slope = ldTex508; #end #end</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifdef (ldMat508) #ifndef (MJHMat508) #declare MJHMat508 = ldMat508; #end #end</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef (ldMat508) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = ldMat508; #end #end</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f>"// row "&amp;(ROW($A165)-1)&amp;" - "&amp;codes!$B165&amp;CHAR(10)&amp;$B165&amp;CHAR(10)&amp;$C165&amp;CHAR(10)&amp;$D165&amp;CHAR(10)&amp;$E165&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 164 - Fabuland_Red
+#ifdef (ldTex508) #ifndef (MJHTex508) #declare MJHTex508 = ldTex508; #end #end
+#ifdef (ldTex508) #ifndef (MJHTex508Slope) #declare MJHTex508Slope = ldTex508; #end #end
+#ifdef (ldMat508) #ifndef (MJHMat508) #declare MJHMat508 = ldMat508; #end #end
+#ifdef (ldMat508) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = ldMat508; #end #end
+</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>509</v>
+      </c>
+      <c r="B166" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef (ldTex509) #ifndef (MJHTex509) #declare MJHTex509 = ldTex509; #end #end</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifdef (ldTex509) #ifndef (MJHTex509Slope) #declare MJHTex509Slope = ldTex509; #end #end</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifdef (ldMat509) #ifndef (MJHMat509) #declare MJHMat509 = ldMat509; #end #end</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef (ldMat509) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = ldMat509; #end #end</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f>"// row "&amp;(ROW($A166)-1)&amp;" - "&amp;codes!$B166&amp;CHAR(10)&amp;$B166&amp;CHAR(10)&amp;$C166&amp;CHAR(10)&amp;$D166&amp;CHAR(10)&amp;$E166&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 165 - Fabuland_Orange
+#ifdef (ldTex509) #ifndef (MJHTex509) #declare MJHTex509 = ldTex509; #end #end
+#ifdef (ldTex509) #ifndef (MJHTex509Slope) #declare MJHTex509Slope = ldTex509; #end #end
+#ifdef (ldMat509) #ifndef (MJHMat509) #declare MJHMat509 = ldMat509; #end #end
+#ifdef (ldMat509) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = ldMat509; #end #end
+</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
         <v>511</v>
       </c>
-      <c r="B163" s="4" t="str">
+      <c r="B167" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifdef (ldTex511) #ifndef (MJHTex511) #declare MJHTex511 = ldTex511; #end #end</v>
       </c>
-      <c r="C163" s="4" t="str">
+      <c r="C167" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifdef (ldTex511) #ifndef (MJHTex511Slope) #declare MJHTex511Slope = ldTex511; #end #end</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D167" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef (ldMat511) #ifndef (MJHMat511) #declare MJHMat511 = ldMat511; #end #end</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E167" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifdef (ldMat511) #ifndef (MJHMat511Slope) #declare MJHMat511Slope = ldMat511; #end #end</v>
       </c>
-      <c r="F163" s="2" t="str">
-        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 162 - Rubber_White
+      <c r="F167" s="2" t="str">
+        <f>"// row "&amp;(ROW($A167)-1)&amp;" - "&amp;codes!$B167&amp;CHAR(10)&amp;$B167&amp;CHAR(10)&amp;$C167&amp;CHAR(10)&amp;$D167&amp;CHAR(10)&amp;$E167&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 166 - Rubber_White
 #ifdef (ldTex511) #ifndef (MJHTex511) #declare MJHTex511 = ldTex511; #end #end
 #ifdef (ldTex511) #ifndef (MJHTex511Slope) #declare MJHTex511Slope = ldTex511; #end #end
 #ifdef (ldMat511) #ifndef (MJHMat511) #declare MJHMat511 = ldMat511; #end #end
@@ -11266,11 +11519,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13888,11 +14141,11 @@
         <v>313</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D163" si="4">"#ifdef (LDXColor"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = LDXColor"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="D131:D167" si="4">"#ifdef (LDXColor"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = LDXColor"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (LDXColor313) #ifndef (MJHMat313) #declare MJHMat313 = LDXColor313; #end #end</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E163" si="5">"#ifdef (LDXColor"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = LDXColor"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="E131:E167" si="5">"#ifdef (LDXColor"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = LDXColor"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (LDXColor313) #ifndef (MJHMat313Slope) #declare MJHMat313Slope = LDXColor313; #end #end</v>
       </c>
       <c r="F131" s="2" t="str">
@@ -14165,379 +14418,459 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor366) #ifndef (MJHMat366) #declare MJHMat366 = LDXColor366; #end #end</v>
+        <v>#ifdef (LDXColor353) #ifndef (MJHMat353) #declare MJHMat353 = LDXColor353; #end #end</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor366) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = LDXColor366; #end #end</v>
+        <v>#ifdef (LDXColor353) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = LDXColor353; #end #end</v>
       </c>
       <c r="F145" s="2" t="str">
         <f>"// row "&amp;(ROW($A145)-1)&amp;" - "&amp;codes!$B145&amp;CHAR(10)&amp;$D145&amp;CHAR(10)&amp;$E145&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 144 - Earth_Orange
+        <v xml:space="preserve">// row 144 - Coral
+#ifdef (LDXColor353) #ifndef (MJHMat353) #declare MJHMat353 = LDXColor353; #end #end
+#ifdef (LDXColor353) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = LDXColor353; #end #end
+</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>366</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>#ifdef (LDXColor366) #ifndef (MJHMat366) #declare MJHMat366 = LDXColor366; #end #end</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>#ifdef (LDXColor366) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = LDXColor366; #end #end</v>
+      </c>
+      <c r="F146" s="2" t="str">
+        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 145 - Earth_Orange
 #ifdef (LDXColor366) #ifndef (MJHMat366) #declare MJHMat366 = LDXColor366; #end #end
 #ifdef (LDXColor366) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = LDXColor366; #end #end
 </v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
         <v>373</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D147" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor373) #ifndef (MJHMat373) #declare MJHMat373 = LDXColor373; #end #end</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E147" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor373) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = LDXColor373; #end #end</v>
       </c>
-      <c r="F146" s="2" t="str">
-        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 145 - Sand_Purple
+      <c r="F147" s="2" t="str">
+        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 146 - Sand_Purple
 #ifdef (LDXColor373) #ifndef (MJHMat373) #declare MJHMat373 = LDXColor373; #end #end
 #ifdef (LDXColor373) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = LDXColor373; #end #end
 </v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
         <v>375</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D148" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor375) #ifndef (MJHMat375) #declare MJHMat375 = LDXColor375; #end #end</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E148" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor375) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = LDXColor375; #end #end</v>
       </c>
-      <c r="F147" s="2" t="str">
-        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 146 - Rubber_Light_Grey
+      <c r="F148" s="2" t="str">
+        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 147 - Rubber_Light_Grey
 #ifdef (LDXColor375) #ifndef (MJHMat375) #declare MJHMat375 = LDXColor375; #end #end
 #ifdef (LDXColor375) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = LDXColor375; #end #end
 </v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
         <v>378</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D149" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor378) #ifndef (MJHMat378) #declare MJHMat378 = LDXColor378; #end #end</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E149" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor378) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = LDXColor378; #end #end</v>
       </c>
-      <c r="F148" s="2" t="str">
-        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 147 - Sand_Green
+      <c r="F149" s="2" t="str">
+        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 148 - Sand_Green
 #ifdef (LDXColor378) #ifndef (MJHMat378) #declare MJHMat378 = LDXColor378; #end #end
 #ifdef (LDXColor378) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = LDXColor378; #end #end
 </v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
         <v>379</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D150" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor379) #ifndef (MJHMat379) #declare MJHMat379 = LDXColor379; #end #end</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E150" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor379) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = LDXColor379; #end #end</v>
       </c>
-      <c r="F149" s="2" t="str">
-        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 148 - Sand_Blue
+      <c r="F150" s="2" t="str">
+        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 149 - Sand_Blue
 #ifdef (LDXColor379) #ifndef (MJHMat379) #declare MJHMat379 = LDXColor379; #end #end
 #ifdef (LDXColor379) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = LDXColor379; #end #end
 </v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
         <v>383</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D151" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor383) #ifndef (MJHMat383) #declare MJHMat383 = LDXColor383; #end #end</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E151" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor383) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = LDXColor383; #end #end</v>
       </c>
-      <c r="F150" s="2" t="str">
-        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 149 - Chrome_Silver
+      <c r="F151" s="2" t="str">
+        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 150 - Chrome_Silver
 #ifdef (LDXColor383) #ifndef (MJHMat383) #declare MJHMat383 = LDXColor383; #end #end
 #ifdef (LDXColor383) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = LDXColor383; #end #end
 </v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
         <v>406</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D152" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor406) #ifndef (MJHMat406) #declare MJHMat406 = LDXColor406; #end #end</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E152" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor406) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = LDXColor406; #end #end</v>
       </c>
-      <c r="F151" s="2" t="str">
-        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 150 - Rubber_Dark_Blue
+      <c r="F152" s="2" t="str">
+        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 151 - Rubber_Dark_Blue
 #ifdef (LDXColor406) #ifndef (MJHMat406) #declare MJHMat406 = LDXColor406; #end #end
 #ifdef (LDXColor406) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = LDXColor406; #end #end
 </v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
         <v>449</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D153" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor449) #ifndef (MJHMat449) #declare MJHMat449 = LDXColor449; #end #end</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E153" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor449) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = LDXColor449; #end #end</v>
       </c>
-      <c r="F152" s="2" t="str">
-        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 151 - Rubber_Purple
+      <c r="F153" s="2" t="str">
+        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 152 - Rubber_Purple
 #ifdef (LDXColor449) #ifndef (MJHMat449) #declare MJHMat449 = LDXColor449; #end #end
 #ifdef (LDXColor449) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = LDXColor449; #end #end
 </v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
         <v>450</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D154" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor450) #ifndef (MJHMat450) #declare MJHMat450 = LDXColor450; #end #end</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E154" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor450) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = LDXColor450; #end #end</v>
       </c>
-      <c r="F153" s="2" t="str">
-        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 152 - Fabuland_Brown
+      <c r="F154" s="2" t="str">
+        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 153 - Fabuland_Brown
 #ifdef (LDXColor450) #ifndef (MJHMat450) #declare MJHMat450 = LDXColor450; #end #end
 #ifdef (LDXColor450) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = LDXColor450; #end #end
 </v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
         <v>462</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D155" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor462) #ifndef (MJHMat462) #declare MJHMat462 = LDXColor462; #end #end</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E155" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor462) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = LDXColor462; #end #end</v>
       </c>
-      <c r="F154" s="2" t="str">
-        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 153 - Medium_Orange
+      <c r="F155" s="2" t="str">
+        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 154 - Medium_Orange
 #ifdef (LDXColor462) #ifndef (MJHMat462) #declare MJHMat462 = LDXColor462; #end #end
 #ifdef (LDXColor462) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = LDXColor462; #end #end
 </v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
         <v>484</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D156" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor484) #ifndef (MJHMat484) #declare MJHMat484 = LDXColor484; #end #end</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E156" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor484) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = LDXColor484; #end #end</v>
       </c>
-      <c r="F155" s="2" t="str">
-        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 154 - Dark_Orange
+      <c r="F156" s="2" t="str">
+        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 155 - Dark_Orange
 #ifdef (LDXColor484) #ifndef (MJHMat484) #declare MJHMat484 = LDXColor484; #end #end
 #ifdef (LDXColor484) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = LDXColor484; #end #end
 </v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
         <v>490</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D157" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor490) #ifndef (MJHMat490) #declare MJHMat490 = LDXColor490; #end #end</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E157" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor490) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = LDXColor490; #end #end</v>
       </c>
-      <c r="F156" s="2" t="str">
-        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 155 - Rubber_Lime
+      <c r="F157" s="2" t="str">
+        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 156 - Rubber_Lime
 #ifdef (LDXColor490) #ifndef (MJHMat490) #declare MJHMat490 = LDXColor490; #end #end
 #ifdef (LDXColor490) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = LDXColor490; #end #end
 </v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
         <v>493</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D158" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor493) #ifndef (MJHMat493) #declare MJHMat493 = LDXColor493; #end #end</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E158" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor493) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = LDXColor493; #end #end</v>
       </c>
-      <c r="F157" s="2" t="str">
-        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 156 - Magnet
+      <c r="F158" s="2" t="str">
+        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 157 - Magnet
 #ifdef (LDXColor493) #ifndef (MJHMat493) #declare MJHMat493 = LDXColor493; #end #end
 #ifdef (LDXColor493) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = LDXColor493; #end #end
 </v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
         <v>494</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D159" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor494) #ifndef (MJHMat494) #declare MJHMat494 = LDXColor494; #end #end</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E159" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor494) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = LDXColor494; #end #end</v>
       </c>
-      <c r="F158" s="2" t="str">
-        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 157 - Electric_Contact_Alloy
+      <c r="F159" s="2" t="str">
+        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 158 - Electric_Contact_Alloy
 #ifdef (LDXColor494) #ifndef (MJHMat494) #declare MJHMat494 = LDXColor494; #end #end
 #ifdef (LDXColor494) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = LDXColor494; #end #end
 </v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
         <v>495</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D160" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor495) #ifndef (MJHMat495) #declare MJHMat495 = LDXColor495; #end #end</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E160" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor495) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = LDXColor495; #end #end</v>
       </c>
-      <c r="F159" s="2" t="str">
-        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 158 - Electric_Contact_Copper
+      <c r="F160" s="2" t="str">
+        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 159 - Electric_Contact_Copper
 #ifdef (LDXColor495) #ifndef (MJHMat495) #declare MJHMat495 = LDXColor495; #end #end
 #ifdef (LDXColor495) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = LDXColor495; #end #end
 </v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
         <v>496</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D161" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor496) #ifndef (MJHMat496) #declare MJHMat496 = LDXColor496; #end #end</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E161" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor496) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = LDXColor496; #end #end</v>
       </c>
-      <c r="F160" s="2" t="str">
-        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 159 - Rubber_Light_Bluish_Grey
+      <c r="F161" s="2" t="str">
+        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 160 - Rubber_Light_Bluish_Grey
 #ifdef (LDXColor496) #ifndef (MJHMat496) #declare MJHMat496 = LDXColor496; #end #end
 #ifdef (LDXColor496) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = LDXColor496; #end #end
 </v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
         <v>503</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D162" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor503) #ifndef (MJHMat503) #declare MJHMat503 = LDXColor503; #end #end</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E162" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor503) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = LDXColor503; #end #end</v>
       </c>
-      <c r="F161" s="2" t="str">
-        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 160 - Very_Light_Grey
+      <c r="F162" s="2" t="str">
+        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 161 - Very_Light_Grey
 #ifdef (LDXColor503) #ifndef (MJHMat503) #declare MJHMat503 = LDXColor503; #end #end
 #ifdef (LDXColor503) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = LDXColor503; #end #end
 </v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
         <v>504</v>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D163" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor504) #ifndef (MJHMat504) #declare MJHMat504 = LDXColor504; #end #end</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E163" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor504) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = LDXColor504; #end #end</v>
       </c>
-      <c r="F162" s="2" t="str">
-        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 161 - Rubber_Flat_Silver
+      <c r="F163" s="2" t="str">
+        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 162 - Rubber_Flat_Silver
 #ifdef (LDXColor504) #ifndef (MJHMat504) #declare MJHMat504 = LDXColor504; #end #end
 #ifdef (LDXColor504) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = LDXColor504; #end #end
 </v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>507</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>#ifdef (LDXColor507) #ifndef (MJHMat507) #declare MJHMat507 = LDXColor507; #end #end</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>#ifdef (LDXColor507) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = LDXColor507; #end #end</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f>"// row "&amp;(ROW($A164)-1)&amp;" - "&amp;codes!$B164&amp;CHAR(10)&amp;$D164&amp;CHAR(10)&amp;$E164&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 163 - Light_Orange_Brown
+#ifdef (LDXColor507) #ifndef (MJHMat507) #declare MJHMat507 = LDXColor507; #end #end
+#ifdef (LDXColor507) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = LDXColor507; #end #end
+</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>508</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>#ifdef (LDXColor508) #ifndef (MJHMat508) #declare MJHMat508 = LDXColor508; #end #end</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>#ifdef (LDXColor508) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = LDXColor508; #end #end</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f>"// row "&amp;(ROW($A165)-1)&amp;" - "&amp;codes!$B165&amp;CHAR(10)&amp;$D165&amp;CHAR(10)&amp;$E165&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 164 - Fabuland_Red
+#ifdef (LDXColor508) #ifndef (MJHMat508) #declare MJHMat508 = LDXColor508; #end #end
+#ifdef (LDXColor508) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = LDXColor508; #end #end
+</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>509</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>#ifdef (LDXColor509) #ifndef (MJHMat509) #declare MJHMat509 = LDXColor509; #end #end</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>#ifdef (LDXColor509) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = LDXColor509; #end #end</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f>"// row "&amp;(ROW($A166)-1)&amp;" - "&amp;codes!$B166&amp;CHAR(10)&amp;$D166&amp;CHAR(10)&amp;$E166&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 165 - Fabuland_Orange
+#ifdef (LDXColor509) #ifndef (MJHMat509) #declare MJHMat509 = LDXColor509; #end #end
+#ifdef (LDXColor509) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = LDXColor509; #end #end
+</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
         <v>511</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D167" s="4" t="str">
         <f t="shared" si="4"/>
         <v>#ifdef (LDXColor511) #ifndef (MJHMat511) #declare MJHMat511 = LDXColor511; #end #end</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E167" s="4" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef (LDXColor511) #ifndef (MJHMat511Slope) #declare MJHMat511Slope = LDXColor511; #end #end</v>
       </c>
-      <c r="F163" s="2" t="str">
-        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 162 - Rubber_White
+      <c r="F167" s="2" t="str">
+        <f>"// row "&amp;(ROW($A167)-1)&amp;" - "&amp;codes!$B167&amp;CHAR(10)&amp;$D167&amp;CHAR(10)&amp;$E167&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 166 - Rubber_White
 #ifdef (LDXColor511) #ifndef (MJHMat511) #declare MJHMat511 = LDXColor511; #end #end
 #ifdef (LDXColor511) #ifndef (MJHMat511Slope) #declare MJHMat511Slope = LDXColor511; #end #end
 </v>
@@ -14551,11 +14884,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17429,11 +17762,11 @@
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D163" si="4">"#ifdef (LDXColor"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = LDXColor"&amp;$A131&amp;"; #end #end"</f>
+        <f t="shared" ref="D131:D167" si="4">"#ifdef (LDXColor"&amp;$A131&amp;") #ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = LDXColor"&amp;$A131&amp;"; #end #end"</f>
         <v>#ifdef (LDXColor313) #ifndef (MJHMat313) #declare MJHMat313 = LDXColor313; #end #end</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E163" si="5">"#ifdef (LDXColor"&amp;$A131&amp;"_slope) #ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = LDXColor"&amp;$A131&amp;"_slope; #end #end"</f>
+        <f t="shared" ref="E131:E167" si="5">"#ifdef (LDXColor"&amp;$A131&amp;"_slope) #ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = LDXColor"&amp;$A131&amp;"_slope; #end #end"</f>
         <v>#ifdef (LDXColor313_slope) #ifndef (MJHMat313Slope) #declare MJHMat313Slope = LDXColor313_slope; #end #end</v>
       </c>
       <c r="F131" s="2" t="str">
@@ -17730,419 +18063,499 @@
 </v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>366</v>
-      </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+        <v>353</v>
+      </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor366) #ifndef (MJHMat366) #declare MJHMat366 = LDXColor366; #end #end</v>
+        <v>#ifdef (LDXColor353) #ifndef (MJHMat353) #declare MJHMat353 = LDXColor353; #end #end</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor366_slope) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = LDXColor366_slope; #end #end</v>
+        <v>#ifdef (LDXColor353_slope) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = LDXColor353_slope; #end #end</v>
       </c>
       <c r="F145" s="2" t="str">
         <f>"// row "&amp;(ROW($A145)-1)&amp;" - "&amp;codes!$B145&amp;CHAR(10)&amp;$D145&amp;CHAR(10)&amp;$E145&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 144 - Earth_Orange
-#ifdef (LDXColor366) #ifndef (MJHMat366) #declare MJHMat366 = LDXColor366; #end #end
-#ifdef (LDXColor366_slope) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = LDXColor366_slope; #end #end
+        <v xml:space="preserve">// row 144 - Coral
+#ifdef (LDXColor353) #ifndef (MJHMat353) #declare MJHMat353 = LDXColor353; #end #end
+#ifdef (LDXColor353_slope) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = LDXColor353_slope; #end #end
 </v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor373) #ifndef (MJHMat373) #declare MJHMat373 = LDXColor373; #end #end</v>
+        <v>#ifdef (LDXColor366) #ifndef (MJHMat366) #declare MJHMat366 = LDXColor366; #end #end</v>
       </c>
       <c r="E146" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor373_slope) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = LDXColor373_slope; #end #end</v>
+        <v>#ifdef (LDXColor366_slope) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = LDXColor366_slope; #end #end</v>
       </c>
       <c r="F146" s="2" t="str">
         <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 145 - Sand_Purple
-#ifdef (LDXColor373) #ifndef (MJHMat373) #declare MJHMat373 = LDXColor373; #end #end
-#ifdef (LDXColor373_slope) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = LDXColor373_slope; #end #end
+        <v xml:space="preserve">// row 145 - Earth_Orange
+#ifdef (LDXColor366) #ifndef (MJHMat366) #declare MJHMat366 = LDXColor366; #end #end
+#ifdef (LDXColor366_slope) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = LDXColor366_slope; #end #end
 </v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor375) #ifndef (MJHMat375) #declare MJHMat375 = LDXColor375; #end #end</v>
+        <v>#ifdef (LDXColor373) #ifndef (MJHMat373) #declare MJHMat373 = LDXColor373; #end #end</v>
       </c>
       <c r="E147" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor375_slope) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = LDXColor375_slope; #end #end</v>
+        <v>#ifdef (LDXColor373_slope) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = LDXColor373_slope; #end #end</v>
       </c>
       <c r="F147" s="2" t="str">
         <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 146 - Rubber_Light_Grey
-#ifdef (LDXColor375) #ifndef (MJHMat375) #declare MJHMat375 = LDXColor375; #end #end
-#ifdef (LDXColor375_slope) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = LDXColor375_slope; #end #end
+        <v xml:space="preserve">// row 146 - Sand_Purple
+#ifdef (LDXColor373) #ifndef (MJHMat373) #declare MJHMat373 = LDXColor373; #end #end
+#ifdef (LDXColor373_slope) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = LDXColor373_slope; #end #end
 </v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor378) #ifndef (MJHMat378) #declare MJHMat378 = LDXColor378; #end #end</v>
+        <v>#ifdef (LDXColor375) #ifndef (MJHMat375) #declare MJHMat375 = LDXColor375; #end #end</v>
       </c>
       <c r="E148" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor378_slope) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = LDXColor378_slope; #end #end</v>
+        <v>#ifdef (LDXColor375_slope) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = LDXColor375_slope; #end #end</v>
       </c>
       <c r="F148" s="2" t="str">
         <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 147 - Sand_Green
-#ifdef (LDXColor378) #ifndef (MJHMat378) #declare MJHMat378 = LDXColor378; #end #end
-#ifdef (LDXColor378_slope) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = LDXColor378_slope; #end #end
+        <v xml:space="preserve">// row 147 - Rubber_Light_Grey
+#ifdef (LDXColor375) #ifndef (MJHMat375) #declare MJHMat375 = LDXColor375; #end #end
+#ifdef (LDXColor375_slope) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = LDXColor375_slope; #end #end
 </v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor379) #ifndef (MJHMat379) #declare MJHMat379 = LDXColor379; #end #end</v>
+        <v>#ifdef (LDXColor378) #ifndef (MJHMat378) #declare MJHMat378 = LDXColor378; #end #end</v>
       </c>
       <c r="E149" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor379_slope) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = LDXColor379_slope; #end #end</v>
+        <v>#ifdef (LDXColor378_slope) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = LDXColor378_slope; #end #end</v>
       </c>
       <c r="F149" s="2" t="str">
         <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 148 - Sand_Blue
-#ifdef (LDXColor379) #ifndef (MJHMat379) #declare MJHMat379 = LDXColor379; #end #end
-#ifdef (LDXColor379_slope) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = LDXColor379_slope; #end #end
+        <v xml:space="preserve">// row 148 - Sand_Green
+#ifdef (LDXColor378) #ifndef (MJHMat378) #declare MJHMat378 = LDXColor378; #end #end
+#ifdef (LDXColor378_slope) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = LDXColor378_slope; #end #end
 </v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor383) #ifndef (MJHMat383) #declare MJHMat383 = LDXColor383; #end #end</v>
+        <v>#ifdef (LDXColor379) #ifndef (MJHMat379) #declare MJHMat379 = LDXColor379; #end #end</v>
       </c>
       <c r="E150" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor383_slope) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = LDXColor383_slope; #end #end</v>
+        <v>#ifdef (LDXColor379_slope) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = LDXColor379_slope; #end #end</v>
       </c>
       <c r="F150" s="2" t="str">
         <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 149 - Chrome_Silver
-#ifdef (LDXColor383) #ifndef (MJHMat383) #declare MJHMat383 = LDXColor383; #end #end
-#ifdef (LDXColor383_slope) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = LDXColor383_slope; #end #end
+        <v xml:space="preserve">// row 149 - Sand_Blue
+#ifdef (LDXColor379) #ifndef (MJHMat379) #declare MJHMat379 = LDXColor379; #end #end
+#ifdef (LDXColor379_slope) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = LDXColor379_slope; #end #end
 </v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor406) #ifndef (MJHMat406) #declare MJHMat406 = LDXColor406; #end #end</v>
+        <v>#ifdef (LDXColor383) #ifndef (MJHMat383) #declare MJHMat383 = LDXColor383; #end #end</v>
       </c>
       <c r="E151" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor406_slope) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = LDXColor406_slope; #end #end</v>
+        <v>#ifdef (LDXColor383_slope) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = LDXColor383_slope; #end #end</v>
       </c>
       <c r="F151" s="2" t="str">
         <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 150 - Rubber_Dark_Blue
-#ifdef (LDXColor406) #ifndef (MJHMat406) #declare MJHMat406 = LDXColor406; #end #end
-#ifdef (LDXColor406_slope) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = LDXColor406_slope; #end #end
+        <v xml:space="preserve">// row 150 - Chrome_Silver
+#ifdef (LDXColor383) #ifndef (MJHMat383) #declare MJHMat383 = LDXColor383; #end #end
+#ifdef (LDXColor383_slope) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = LDXColor383_slope; #end #end
 </v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor449) #ifndef (MJHMat449) #declare MJHMat449 = LDXColor449; #end #end</v>
+        <v>#ifdef (LDXColor406) #ifndef (MJHMat406) #declare MJHMat406 = LDXColor406; #end #end</v>
       </c>
       <c r="E152" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor449_slope) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = LDXColor449_slope; #end #end</v>
+        <v>#ifdef (LDXColor406_slope) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = LDXColor406_slope; #end #end</v>
       </c>
       <c r="F152" s="2" t="str">
         <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 151 - Rubber_Purple
-#ifdef (LDXColor449) #ifndef (MJHMat449) #declare MJHMat449 = LDXColor449; #end #end
-#ifdef (LDXColor449_slope) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = LDXColor449_slope; #end #end
+        <v xml:space="preserve">// row 151 - Rubber_Dark_Blue
+#ifdef (LDXColor406) #ifndef (MJHMat406) #declare MJHMat406 = LDXColor406; #end #end
+#ifdef (LDXColor406_slope) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = LDXColor406_slope; #end #end
 </v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor450) #ifndef (MJHMat450) #declare MJHMat450 = LDXColor450; #end #end</v>
+        <v>#ifdef (LDXColor449) #ifndef (MJHMat449) #declare MJHMat449 = LDXColor449; #end #end</v>
       </c>
       <c r="E153" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor450_slope) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = LDXColor450_slope; #end #end</v>
+        <v>#ifdef (LDXColor449_slope) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = LDXColor449_slope; #end #end</v>
       </c>
       <c r="F153" s="2" t="str">
         <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 152 - Fabuland_Brown
-#ifdef (LDXColor450) #ifndef (MJHMat450) #declare MJHMat450 = LDXColor450; #end #end
-#ifdef (LDXColor450_slope) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = LDXColor450_slope; #end #end
+        <v xml:space="preserve">// row 152 - Rubber_Purple
+#ifdef (LDXColor449) #ifndef (MJHMat449) #declare MJHMat449 = LDXColor449; #end #end
+#ifdef (LDXColor449_slope) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = LDXColor449_slope; #end #end
 </v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor462) #ifndef (MJHMat462) #declare MJHMat462 = LDXColor462; #end #end</v>
+        <v>#ifdef (LDXColor450) #ifndef (MJHMat450) #declare MJHMat450 = LDXColor450; #end #end</v>
       </c>
       <c r="E154" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor462_slope) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = LDXColor462_slope; #end #end</v>
+        <v>#ifdef (LDXColor450_slope) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = LDXColor450_slope; #end #end</v>
       </c>
       <c r="F154" s="2" t="str">
         <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 153 - Medium_Orange
-#ifdef (LDXColor462) #ifndef (MJHMat462) #declare MJHMat462 = LDXColor462; #end #end
-#ifdef (LDXColor462_slope) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = LDXColor462_slope; #end #end
+        <v xml:space="preserve">// row 153 - Fabuland_Brown
+#ifdef (LDXColor450) #ifndef (MJHMat450) #declare MJHMat450 = LDXColor450; #end #end
+#ifdef (LDXColor450_slope) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = LDXColor450_slope; #end #end
 </v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor484) #ifndef (MJHMat484) #declare MJHMat484 = LDXColor484; #end #end</v>
+        <v>#ifdef (LDXColor462) #ifndef (MJHMat462) #declare MJHMat462 = LDXColor462; #end #end</v>
       </c>
       <c r="E155" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor484_slope) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = LDXColor484_slope; #end #end</v>
+        <v>#ifdef (LDXColor462_slope) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = LDXColor462_slope; #end #end</v>
       </c>
       <c r="F155" s="2" t="str">
         <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 154 - Dark_Orange
-#ifdef (LDXColor484) #ifndef (MJHMat484) #declare MJHMat484 = LDXColor484; #end #end
-#ifdef (LDXColor484_slope) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = LDXColor484_slope; #end #end
+        <v xml:space="preserve">// row 154 - Medium_Orange
+#ifdef (LDXColor462) #ifndef (MJHMat462) #declare MJHMat462 = LDXColor462; #end #end
+#ifdef (LDXColor462_slope) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = LDXColor462_slope; #end #end
 </v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor490) #ifndef (MJHMat490) #declare MJHMat490 = LDXColor490; #end #end</v>
+        <v>#ifdef (LDXColor484) #ifndef (MJHMat484) #declare MJHMat484 = LDXColor484; #end #end</v>
       </c>
       <c r="E156" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor490_slope) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = LDXColor490_slope; #end #end</v>
+        <v>#ifdef (LDXColor484_slope) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = LDXColor484_slope; #end #end</v>
       </c>
       <c r="F156" s="2" t="str">
         <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 155 - Rubber_Lime
-#ifdef (LDXColor490) #ifndef (MJHMat490) #declare MJHMat490 = LDXColor490; #end #end
-#ifdef (LDXColor490_slope) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = LDXColor490_slope; #end #end
+        <v xml:space="preserve">// row 155 - Dark_Orange
+#ifdef (LDXColor484) #ifndef (MJHMat484) #declare MJHMat484 = LDXColor484; #end #end
+#ifdef (LDXColor484_slope) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = LDXColor484_slope; #end #end
 </v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor493) #ifndef (MJHMat493) #declare MJHMat493 = LDXColor493; #end #end</v>
+        <v>#ifdef (LDXColor490) #ifndef (MJHMat490) #declare MJHMat490 = LDXColor490; #end #end</v>
       </c>
       <c r="E157" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor493_slope) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = LDXColor493_slope; #end #end</v>
+        <v>#ifdef (LDXColor490_slope) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = LDXColor490_slope; #end #end</v>
       </c>
       <c r="F157" s="2" t="str">
         <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 156 - Magnet
-#ifdef (LDXColor493) #ifndef (MJHMat493) #declare MJHMat493 = LDXColor493; #end #end
-#ifdef (LDXColor493_slope) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = LDXColor493_slope; #end #end
+        <v xml:space="preserve">// row 156 - Rubber_Lime
+#ifdef (LDXColor490) #ifndef (MJHMat490) #declare MJHMat490 = LDXColor490; #end #end
+#ifdef (LDXColor490_slope) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = LDXColor490_slope; #end #end
 </v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor494) #ifndef (MJHMat494) #declare MJHMat494 = LDXColor494; #end #end</v>
+        <v>#ifdef (LDXColor493) #ifndef (MJHMat493) #declare MJHMat493 = LDXColor493; #end #end</v>
       </c>
       <c r="E158" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor494_slope) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = LDXColor494_slope; #end #end</v>
+        <v>#ifdef (LDXColor493_slope) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = LDXColor493_slope; #end #end</v>
       </c>
       <c r="F158" s="2" t="str">
         <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 157 - Electric_Contact_Alloy
-#ifdef (LDXColor494) #ifndef (MJHMat494) #declare MJHMat494 = LDXColor494; #end #end
-#ifdef (LDXColor494_slope) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = LDXColor494_slope; #end #end
+        <v xml:space="preserve">// row 157 - Magnet
+#ifdef (LDXColor493) #ifndef (MJHMat493) #declare MJHMat493 = LDXColor493; #end #end
+#ifdef (LDXColor493_slope) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = LDXColor493_slope; #end #end
 </v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor495) #ifndef (MJHMat495) #declare MJHMat495 = LDXColor495; #end #end</v>
+        <v>#ifdef (LDXColor494) #ifndef (MJHMat494) #declare MJHMat494 = LDXColor494; #end #end</v>
       </c>
       <c r="E159" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor495_slope) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = LDXColor495_slope; #end #end</v>
+        <v>#ifdef (LDXColor494_slope) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = LDXColor494_slope; #end #end</v>
       </c>
       <c r="F159" s="2" t="str">
         <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 158 - Electric_Contact_Copper
-#ifdef (LDXColor495) #ifndef (MJHMat495) #declare MJHMat495 = LDXColor495; #end #end
-#ifdef (LDXColor495_slope) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = LDXColor495_slope; #end #end
+        <v xml:space="preserve">// row 158 - Electric_Contact_Alloy
+#ifdef (LDXColor494) #ifndef (MJHMat494) #declare MJHMat494 = LDXColor494; #end #end
+#ifdef (LDXColor494_slope) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = LDXColor494_slope; #end #end
 </v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor496) #ifndef (MJHMat496) #declare MJHMat496 = LDXColor496; #end #end</v>
+        <v>#ifdef (LDXColor495) #ifndef (MJHMat495) #declare MJHMat495 = LDXColor495; #end #end</v>
       </c>
       <c r="E160" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor496_slope) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = LDXColor496_slope; #end #end</v>
+        <v>#ifdef (LDXColor495_slope) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = LDXColor495_slope; #end #end</v>
       </c>
       <c r="F160" s="2" t="str">
         <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 159 - Rubber_Light_Bluish_Grey
-#ifdef (LDXColor496) #ifndef (MJHMat496) #declare MJHMat496 = LDXColor496; #end #end
-#ifdef (LDXColor496_slope) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = LDXColor496_slope; #end #end
+        <v xml:space="preserve">// row 159 - Electric_Contact_Copper
+#ifdef (LDXColor495) #ifndef (MJHMat495) #declare MJHMat495 = LDXColor495; #end #end
+#ifdef (LDXColor495_slope) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = LDXColor495_slope; #end #end
 </v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor503) #ifndef (MJHMat503) #declare MJHMat503 = LDXColor503; #end #end</v>
+        <v>#ifdef (LDXColor496) #ifndef (MJHMat496) #declare MJHMat496 = LDXColor496; #end #end</v>
       </c>
       <c r="E161" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor503_slope) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = LDXColor503_slope; #end #end</v>
+        <v>#ifdef (LDXColor496_slope) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = LDXColor496_slope; #end #end</v>
       </c>
       <c r="F161" s="2" t="str">
         <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 160 - Very_Light_Grey
-#ifdef (LDXColor503) #ifndef (MJHMat503) #declare MJHMat503 = LDXColor503; #end #end
-#ifdef (LDXColor503_slope) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = LDXColor503_slope; #end #end
+        <v xml:space="preserve">// row 160 - Rubber_Light_Bluish_Grey
+#ifdef (LDXColor496) #ifndef (MJHMat496) #declare MJHMat496 = LDXColor496; #end #end
+#ifdef (LDXColor496_slope) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = LDXColor496_slope; #end #end
 </v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor504) #ifndef (MJHMat504) #declare MJHMat504 = LDXColor504; #end #end</v>
+        <v>#ifdef (LDXColor503) #ifndef (MJHMat503) #declare MJHMat503 = LDXColor503; #end #end</v>
       </c>
       <c r="E162" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor504_slope) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = LDXColor504_slope; #end #end</v>
+        <v>#ifdef (LDXColor503_slope) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = LDXColor503_slope; #end #end</v>
       </c>
       <c r="F162" s="2" t="str">
         <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 161 - Rubber_Flat_Silver
-#ifdef (LDXColor504) #ifndef (MJHMat504) #declare MJHMat504 = LDXColor504; #end #end
-#ifdef (LDXColor504_slope) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = LDXColor504_slope; #end #end
+        <v xml:space="preserve">// row 161 - Very_Light_Grey
+#ifdef (LDXColor503) #ifndef (MJHMat503) #declare MJHMat503 = LDXColor503; #end #end
+#ifdef (LDXColor503_slope) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = LDXColor503_slope; #end #end
 </v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>#ifdef (LDXColor511) #ifndef (MJHMat511) #declare MJHMat511 = LDXColor511; #end #end</v>
+        <v>#ifdef (LDXColor504) #ifndef (MJHMat504) #declare MJHMat504 = LDXColor504; #end #end</v>
       </c>
       <c r="E163" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>#ifdef (LDXColor511_slope) #ifndef (MJHMat511Slope) #declare MJHMat511Slope = LDXColor511_slope; #end #end</v>
+        <v>#ifdef (LDXColor504_slope) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = LDXColor504_slope; #end #end</v>
       </c>
       <c r="F163" s="2" t="str">
         <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 162 - Rubber_White
+        <v xml:space="preserve">// row 162 - Rubber_Flat_Silver
+#ifdef (LDXColor504) #ifndef (MJHMat504) #declare MJHMat504 = LDXColor504; #end #end
+#ifdef (LDXColor504_slope) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = LDXColor504_slope; #end #end
+</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>507</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>#ifdef (LDXColor507) #ifndef (MJHMat507) #declare MJHMat507 = LDXColor507; #end #end</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>#ifdef (LDXColor507_slope) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = LDXColor507_slope; #end #end</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f>"// row "&amp;(ROW($A164)-1)&amp;" - "&amp;codes!$B164&amp;CHAR(10)&amp;$D164&amp;CHAR(10)&amp;$E164&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 163 - Light_Orange_Brown
+#ifdef (LDXColor507) #ifndef (MJHMat507) #declare MJHMat507 = LDXColor507; #end #end
+#ifdef (LDXColor507_slope) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = LDXColor507_slope; #end #end
+</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>508</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>#ifdef (LDXColor508) #ifndef (MJHMat508) #declare MJHMat508 = LDXColor508; #end #end</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>#ifdef (LDXColor508_slope) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = LDXColor508_slope; #end #end</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f>"// row "&amp;(ROW($A165)-1)&amp;" - "&amp;codes!$B165&amp;CHAR(10)&amp;$D165&amp;CHAR(10)&amp;$E165&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 164 - Fabuland_Red
+#ifdef (LDXColor508) #ifndef (MJHMat508) #declare MJHMat508 = LDXColor508; #end #end
+#ifdef (LDXColor508_slope) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = LDXColor508_slope; #end #end
+</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>509</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>#ifdef (LDXColor509) #ifndef (MJHMat509) #declare MJHMat509 = LDXColor509; #end #end</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>#ifdef (LDXColor509_slope) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = LDXColor509_slope; #end #end</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f>"// row "&amp;(ROW($A166)-1)&amp;" - "&amp;codes!$B166&amp;CHAR(10)&amp;$D166&amp;CHAR(10)&amp;$E166&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 165 - Fabuland_Orange
+#ifdef (LDXColor509) #ifndef (MJHMat509) #declare MJHMat509 = LDXColor509; #end #end
+#ifdef (LDXColor509_slope) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = LDXColor509_slope; #end #end
+</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>511</v>
+      </c>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>#ifdef (LDXColor511) #ifndef (MJHMat511) #declare MJHMat511 = LDXColor511; #end #end</v>
+      </c>
+      <c r="E167" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>#ifdef (LDXColor511_slope) #ifndef (MJHMat511Slope) #declare MJHMat511Slope = LDXColor511_slope; #end #end</v>
+      </c>
+      <c r="F167" s="2" t="str">
+        <f>"// row "&amp;(ROW($A167)-1)&amp;" - "&amp;codes!$B167&amp;CHAR(10)&amp;$D167&amp;CHAR(10)&amp;$E167&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 166 - Rubber_White
 #ifdef (LDXColor511) #ifndef (MJHMat511) #declare MJHMat511 = LDXColor511; #end #end
 #ifdef (LDXColor511_slope) #ifndef (MJHMat511Slope) #declare MJHMat511Slope = LDXColor511_slope; #end #end
 </v>
@@ -18156,11 +18569,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F163"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22483,29 +22896,59 @@
 </v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B145" s="4" t="str">
         <f>"#ifdef ("&amp;codes!$C145&amp;") #ifndef (MJHTex"&amp;$A145&amp;") #declare MJHTex"&amp;$A145&amp;" = texture { "&amp;codes!$C145&amp;" } #end #end"</f>
-        <v>#ifdef (lg_earth_orange) #ifndef (MJHTex366) #declare MJHTex366 = texture { lg_earth_orange } #end #end</v>
+        <v>#ifdef (lg_undefined) #ifndef (MJHTex353) #declare MJHTex353 = texture { lg_undefined } #end #end</v>
       </c>
       <c r="C145" s="4" t="str">
         <f>"#ifdef ("&amp;codes!$C145&amp;") #ifndef (MJHTex"&amp;$A145&amp;"Slope) #declare MJHTex"&amp;$A145&amp;"Slope = texture { "&amp;codes!$C145&amp;" normal { lg_slope_normal } } #end #end"</f>
-        <v>#ifdef (lg_earth_orange) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = texture { lg_earth_orange normal { lg_slope_normal } } #end #end</v>
+        <v>#ifdef (lg_undefined) #ifndef (MJHTex353Slope) #declare MJHTex353Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end</v>
       </c>
       <c r="D145" s="4" t="str">
         <f>"#ifdef ("&amp;codes!$C145&amp;") #ifndef (MJHMat"&amp;$A145&amp;") #declare MJHMat"&amp;$A145&amp;" = material { texture { MJHTex"&amp;$A145&amp;" } interior { lg_ior } } #end #end"</f>
-        <v>#ifdef (lg_earth_orange) #ifndef (MJHMat366) #declare MJHMat366 = material { texture { MJHTex366 } interior { lg_ior } } #end #end</v>
+        <v>#ifdef (lg_undefined) #ifndef (MJHMat353) #declare MJHMat353 = material { texture { MJHTex353 } interior { lg_ior } } #end #end</v>
       </c>
       <c r="E145" s="4" t="str">
         <f>"#ifdef ("&amp;codes!$C145&amp;") #ifndef (MJHMat"&amp;$A145&amp;"Slope) #declare MJHMat"&amp;$A145&amp;"Slope = material { texture { MJHTex"&amp;$A145&amp;"Slope } interior { lg_ior } } #end #end"</f>
-        <v>#ifdef (lg_earth_orange) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = material { texture { MJHTex366Slope } interior { lg_ior } } #end #end</v>
+        <v>#ifdef (lg_undefined) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = material { texture { MJHTex353Slope } interior { lg_ior } } #end #end</v>
       </c>
       <c r="F145" s="2" t="str">
         <f>"// row "&amp;(ROW($A145)-1)&amp;" - "&amp;codes!$B145&amp;CHAR(10)&amp;$B145&amp;CHAR(10)&amp;$C145&amp;CHAR(10)&amp;$D145&amp;CHAR(10)&amp;$E145&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 144 - Earth_Orange
+        <v xml:space="preserve">// row 144 - Coral
+#ifdef (lg_undefined) #ifndef (MJHTex353) #declare MJHTex353 = texture { lg_undefined } #end #end
+#ifdef (lg_undefined) #ifndef (MJHTex353Slope) #declare MJHTex353Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end
+#ifdef (lg_undefined) #ifndef (MJHMat353) #declare MJHMat353 = material { texture { MJHTex353 } interior { lg_ior } } #end #end
+#ifdef (lg_undefined) #ifndef (MJHMat353Slope) #declare MJHMat353Slope = material { texture { MJHTex353Slope } interior { lg_ior } } #end #end
+</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>366</v>
+      </c>
+      <c r="B146" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C146&amp;") #ifndef (MJHTex"&amp;$A146&amp;") #declare MJHTex"&amp;$A146&amp;" = texture { "&amp;codes!$C146&amp;" } #end #end"</f>
+        <v>#ifdef (lg_earth_orange) #ifndef (MJHTex366) #declare MJHTex366 = texture { lg_earth_orange } #end #end</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C146&amp;") #ifndef (MJHTex"&amp;$A146&amp;"Slope) #declare MJHTex"&amp;$A146&amp;"Slope = texture { "&amp;codes!$C146&amp;" normal { lg_slope_normal } } #end #end"</f>
+        <v>#ifdef (lg_earth_orange) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = texture { lg_earth_orange normal { lg_slope_normal } } #end #end</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C146&amp;") #ifndef (MJHMat"&amp;$A146&amp;") #declare MJHMat"&amp;$A146&amp;" = material { texture { MJHTex"&amp;$A146&amp;" } interior { lg_ior } } #end #end"</f>
+        <v>#ifdef (lg_earth_orange) #ifndef (MJHMat366) #declare MJHMat366 = material { texture { MJHTex366 } interior { lg_ior } } #end #end</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C146&amp;") #ifndef (MJHMat"&amp;$A146&amp;"Slope) #declare MJHMat"&amp;$A146&amp;"Slope = material { texture { MJHTex"&amp;$A146&amp;"Slope } interior { lg_ior } } #end #end"</f>
+        <v>#ifdef (lg_earth_orange) #ifndef (MJHMat366Slope) #declare MJHMat366Slope = material { texture { MJHTex366Slope } interior { lg_ior } } #end #end</v>
+      </c>
+      <c r="F146" s="2" t="str">
+        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 145 - Earth_Orange
 #ifdef (lg_earth_orange) #ifndef (MJHTex366) #declare MJHTex366 = texture { lg_earth_orange } #end #end
 #ifdef (lg_earth_orange) #ifndef (MJHTex366Slope) #declare MJHTex366Slope = texture { lg_earth_orange normal { lg_slope_normal } } #end #end
 #ifdef (lg_earth_orange) #ifndef (MJHMat366) #declare MJHMat366 = material { texture { MJHTex366 } interior { lg_ior } } #end #end
@@ -22513,29 +22956,29 @@
 </v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
         <v>373</v>
       </c>
-      <c r="B146" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C146&amp;") #ifndef (MJHTex"&amp;$A146&amp;") #declare MJHTex"&amp;$A146&amp;" = texture { "&amp;codes!$C146&amp;" } #end #end"</f>
+      <c r="B147" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C147&amp;") #ifndef (MJHTex"&amp;$A147&amp;") #declare MJHTex"&amp;$A147&amp;" = texture { "&amp;codes!$C147&amp;" } #end #end"</f>
         <v>#ifdef (lg_sand_purple) #ifndef (MJHTex373) #declare MJHTex373 = texture { lg_sand_purple } #end #end</v>
       </c>
-      <c r="C146" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C146&amp;") #ifndef (MJHTex"&amp;$A146&amp;"Slope) #declare MJHTex"&amp;$A146&amp;"Slope = texture { "&amp;codes!$C146&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C147" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C147&amp;") #ifndef (MJHTex"&amp;$A147&amp;"Slope) #declare MJHTex"&amp;$A147&amp;"Slope = texture { "&amp;codes!$C147&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_sand_purple) #ifndef (MJHTex373Slope) #declare MJHTex373Slope = texture { lg_sand_purple normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D146" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C146&amp;") #ifndef (MJHMat"&amp;$A146&amp;") #declare MJHMat"&amp;$A146&amp;" = material { texture { MJHTex"&amp;$A146&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D147" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C147&amp;") #ifndef (MJHMat"&amp;$A147&amp;") #declare MJHMat"&amp;$A147&amp;" = material { texture { MJHTex"&amp;$A147&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_sand_purple) #ifndef (MJHMat373) #declare MJHMat373 = material { texture { MJHTex373 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E146" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C146&amp;") #ifndef (MJHMat"&amp;$A146&amp;"Slope) #declare MJHMat"&amp;$A146&amp;"Slope = material { texture { MJHTex"&amp;$A146&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E147" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C147&amp;") #ifndef (MJHMat"&amp;$A147&amp;"Slope) #declare MJHMat"&amp;$A147&amp;"Slope = material { texture { MJHTex"&amp;$A147&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_sand_purple) #ifndef (MJHMat373Slope) #declare MJHMat373Slope = material { texture { MJHTex373Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F146" s="2" t="str">
-        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 145 - Sand_Purple
+      <c r="F147" s="2" t="str">
+        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 146 - Sand_Purple
 #ifdef (lg_sand_purple) #ifndef (MJHTex373) #declare MJHTex373 = texture { lg_sand_purple } #end #end
 #ifdef (lg_sand_purple) #ifndef (MJHTex373Slope) #declare MJHTex373Slope = texture { lg_sand_purple normal { lg_slope_normal } } #end #end
 #ifdef (lg_sand_purple) #ifndef (MJHMat373) #declare MJHMat373 = material { texture { MJHTex373 } interior { lg_ior } } #end #end
@@ -22543,29 +22986,29 @@
 </v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
         <v>375</v>
       </c>
-      <c r="B147" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C147&amp;") #ifndef (MJHTex"&amp;$A147&amp;") #declare MJHTex"&amp;$A147&amp;" = texture { "&amp;codes!$C147&amp;" } #end #end"</f>
+      <c r="B148" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C148&amp;") #ifndef (MJHTex"&amp;$A148&amp;") #declare MJHTex"&amp;$A148&amp;" = texture { "&amp;codes!$C148&amp;" } #end #end"</f>
         <v>#ifdef (lg_rubber_light_gray) #ifndef (MJHTex375) #declare MJHTex375 = texture { lg_rubber_light_gray } #end #end</v>
       </c>
-      <c r="C147" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C147&amp;") #ifndef (MJHTex"&amp;$A147&amp;"Slope) #declare MJHTex"&amp;$A147&amp;"Slope = texture { "&amp;codes!$C147&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C148" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C148&amp;") #ifndef (MJHTex"&amp;$A148&amp;"Slope) #declare MJHTex"&amp;$A148&amp;"Slope = texture { "&amp;codes!$C148&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_rubber_light_gray) #ifndef (MJHTex375Slope) #declare MJHTex375Slope = texture { lg_rubber_light_gray normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D147" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C147&amp;") #ifndef (MJHMat"&amp;$A147&amp;") #declare MJHMat"&amp;$A147&amp;" = material { texture { MJHTex"&amp;$A147&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D148" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C148&amp;") #ifndef (MJHMat"&amp;$A148&amp;") #declare MJHMat"&amp;$A148&amp;" = material { texture { MJHTex"&amp;$A148&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_light_gray) #ifndef (MJHMat375) #declare MJHMat375 = material { texture { MJHTex375 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E147" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C147&amp;") #ifndef (MJHMat"&amp;$A147&amp;"Slope) #declare MJHMat"&amp;$A147&amp;"Slope = material { texture { MJHTex"&amp;$A147&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E148" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C148&amp;") #ifndef (MJHMat"&amp;$A148&amp;"Slope) #declare MJHMat"&amp;$A148&amp;"Slope = material { texture { MJHTex"&amp;$A148&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_light_gray) #ifndef (MJHMat375Slope) #declare MJHMat375Slope = material { texture { MJHTex375Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F147" s="2" t="str">
-        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 146 - Rubber_Light_Grey
+      <c r="F148" s="2" t="str">
+        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 147 - Rubber_Light_Grey
 #ifdef (lg_rubber_light_gray) #ifndef (MJHTex375) #declare MJHTex375 = texture { lg_rubber_light_gray } #end #end
 #ifdef (lg_rubber_light_gray) #ifndef (MJHTex375Slope) #declare MJHTex375Slope = texture { lg_rubber_light_gray normal { lg_slope_normal } } #end #end
 #ifdef (lg_rubber_light_gray) #ifndef (MJHMat375) #declare MJHMat375 = material { texture { MJHTex375 } interior { lg_ior } } #end #end
@@ -22573,29 +23016,29 @@
 </v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
         <v>378</v>
       </c>
-      <c r="B148" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C148&amp;") #ifndef (MJHTex"&amp;$A148&amp;") #declare MJHTex"&amp;$A148&amp;" = texture { "&amp;codes!$C148&amp;" } #end #end"</f>
+      <c r="B149" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C149&amp;") #ifndef (MJHTex"&amp;$A149&amp;") #declare MJHTex"&amp;$A149&amp;" = texture { "&amp;codes!$C149&amp;" } #end #end"</f>
         <v>#ifdef (lg_sand_green) #ifndef (MJHTex378) #declare MJHTex378 = texture { lg_sand_green } #end #end</v>
       </c>
-      <c r="C148" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C148&amp;") #ifndef (MJHTex"&amp;$A148&amp;"Slope) #declare MJHTex"&amp;$A148&amp;"Slope = texture { "&amp;codes!$C148&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C149" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C149&amp;") #ifndef (MJHTex"&amp;$A149&amp;"Slope) #declare MJHTex"&amp;$A149&amp;"Slope = texture { "&amp;codes!$C149&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_sand_green) #ifndef (MJHTex378Slope) #declare MJHTex378Slope = texture { lg_sand_green normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D148" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C148&amp;") #ifndef (MJHMat"&amp;$A148&amp;") #declare MJHMat"&amp;$A148&amp;" = material { texture { MJHTex"&amp;$A148&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D149" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C149&amp;") #ifndef (MJHMat"&amp;$A149&amp;") #declare MJHMat"&amp;$A149&amp;" = material { texture { MJHTex"&amp;$A149&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_sand_green) #ifndef (MJHMat378) #declare MJHMat378 = material { texture { MJHTex378 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E148" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C148&amp;") #ifndef (MJHMat"&amp;$A148&amp;"Slope) #declare MJHMat"&amp;$A148&amp;"Slope = material { texture { MJHTex"&amp;$A148&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E149" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C149&amp;") #ifndef (MJHMat"&amp;$A149&amp;"Slope) #declare MJHMat"&amp;$A149&amp;"Slope = material { texture { MJHTex"&amp;$A149&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_sand_green) #ifndef (MJHMat378Slope) #declare MJHMat378Slope = material { texture { MJHTex378Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F148" s="2" t="str">
-        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 147 - Sand_Green
+      <c r="F149" s="2" t="str">
+        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 148 - Sand_Green
 #ifdef (lg_sand_green) #ifndef (MJHTex378) #declare MJHTex378 = texture { lg_sand_green } #end #end
 #ifdef (lg_sand_green) #ifndef (MJHTex378Slope) #declare MJHTex378Slope = texture { lg_sand_green normal { lg_slope_normal } } #end #end
 #ifdef (lg_sand_green) #ifndef (MJHMat378) #declare MJHMat378 = material { texture { MJHTex378 } interior { lg_ior } } #end #end
@@ -22603,29 +23046,29 @@
 </v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
         <v>379</v>
       </c>
-      <c r="B149" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C149&amp;") #ifndef (MJHTex"&amp;$A149&amp;") #declare MJHTex"&amp;$A149&amp;" = texture { "&amp;codes!$C149&amp;" } #end #end"</f>
+      <c r="B150" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C150&amp;") #ifndef (MJHTex"&amp;$A150&amp;") #declare MJHTex"&amp;$A150&amp;" = texture { "&amp;codes!$C150&amp;" } #end #end"</f>
         <v>#ifdef (lg_sand_blue) #ifndef (MJHTex379) #declare MJHTex379 = texture { lg_sand_blue } #end #end</v>
       </c>
-      <c r="C149" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C149&amp;") #ifndef (MJHTex"&amp;$A149&amp;"Slope) #declare MJHTex"&amp;$A149&amp;"Slope = texture { "&amp;codes!$C149&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C150" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C150&amp;") #ifndef (MJHTex"&amp;$A150&amp;"Slope) #declare MJHTex"&amp;$A150&amp;"Slope = texture { "&amp;codes!$C150&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_sand_blue) #ifndef (MJHTex379Slope) #declare MJHTex379Slope = texture { lg_sand_blue normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D149" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C149&amp;") #ifndef (MJHMat"&amp;$A149&amp;") #declare MJHMat"&amp;$A149&amp;" = material { texture { MJHTex"&amp;$A149&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D150" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C150&amp;") #ifndef (MJHMat"&amp;$A150&amp;") #declare MJHMat"&amp;$A150&amp;" = material { texture { MJHTex"&amp;$A150&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_sand_blue) #ifndef (MJHMat379) #declare MJHMat379 = material { texture { MJHTex379 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E149" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C149&amp;") #ifndef (MJHMat"&amp;$A149&amp;"Slope) #declare MJHMat"&amp;$A149&amp;"Slope = material { texture { MJHTex"&amp;$A149&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E150" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C150&amp;") #ifndef (MJHMat"&amp;$A150&amp;"Slope) #declare MJHMat"&amp;$A150&amp;"Slope = material { texture { MJHTex"&amp;$A150&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_sand_blue) #ifndef (MJHMat379Slope) #declare MJHMat379Slope = material { texture { MJHTex379Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F149" s="2" t="str">
-        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 148 - Sand_Blue
+      <c r="F150" s="2" t="str">
+        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 149 - Sand_Blue
 #ifdef (lg_sand_blue) #ifndef (MJHTex379) #declare MJHTex379 = texture { lg_sand_blue } #end #end
 #ifdef (lg_sand_blue) #ifndef (MJHTex379Slope) #declare MJHTex379Slope = texture { lg_sand_blue normal { lg_slope_normal } } #end #end
 #ifdef (lg_sand_blue) #ifndef (MJHMat379) #declare MJHMat379 = material { texture { MJHTex379 } interior { lg_ior } } #end #end
@@ -22633,29 +23076,29 @@
 </v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
         <v>383</v>
       </c>
-      <c r="B150" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C150&amp;") #ifndef (MJHTex"&amp;$A150&amp;") #declare MJHTex"&amp;$A150&amp;" = texture { "&amp;codes!$C150&amp;" } #end #end"</f>
+      <c r="B151" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C151&amp;") #ifndef (MJHTex"&amp;$A151&amp;") #declare MJHTex"&amp;$A151&amp;" = texture { "&amp;codes!$C151&amp;" } #end #end"</f>
         <v>#ifdef (lg_chrome) #ifndef (MJHTex383) #declare MJHTex383 = texture { lg_chrome } #end #end</v>
       </c>
-      <c r="C150" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C150&amp;") #ifndef (MJHTex"&amp;$A150&amp;"Slope) #declare MJHTex"&amp;$A150&amp;"Slope = texture { "&amp;codes!$C150&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C151" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C151&amp;") #ifndef (MJHTex"&amp;$A151&amp;"Slope) #declare MJHTex"&amp;$A151&amp;"Slope = texture { "&amp;codes!$C151&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_chrome) #ifndef (MJHTex383Slope) #declare MJHTex383Slope = texture { lg_chrome normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D150" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C150&amp;") #ifndef (MJHMat"&amp;$A150&amp;") #declare MJHMat"&amp;$A150&amp;" = material { texture { MJHTex"&amp;$A150&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D151" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C151&amp;") #ifndef (MJHMat"&amp;$A151&amp;") #declare MJHMat"&amp;$A151&amp;" = material { texture { MJHTex"&amp;$A151&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_chrome) #ifndef (MJHMat383) #declare MJHMat383 = material { texture { MJHTex383 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E150" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C150&amp;") #ifndef (MJHMat"&amp;$A150&amp;"Slope) #declare MJHMat"&amp;$A150&amp;"Slope = material { texture { MJHTex"&amp;$A150&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E151" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C151&amp;") #ifndef (MJHMat"&amp;$A151&amp;"Slope) #declare MJHMat"&amp;$A151&amp;"Slope = material { texture { MJHTex"&amp;$A151&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_chrome) #ifndef (MJHMat383Slope) #declare MJHMat383Slope = material { texture { MJHTex383Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F150" s="2" t="str">
-        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 149 - Chrome_Silver
+      <c r="F151" s="2" t="str">
+        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 150 - Chrome_Silver
 #ifdef (lg_chrome) #ifndef (MJHTex383) #declare MJHTex383 = texture { lg_chrome } #end #end
 #ifdef (lg_chrome) #ifndef (MJHTex383Slope) #declare MJHTex383Slope = texture { lg_chrome normal { lg_slope_normal } } #end #end
 #ifdef (lg_chrome) #ifndef (MJHMat383) #declare MJHMat383 = material { texture { MJHTex383 } interior { lg_ior } } #end #end
@@ -22663,29 +23106,29 @@
 </v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
         <v>406</v>
       </c>
-      <c r="B151" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C151&amp;") #ifndef (MJHTex"&amp;$A151&amp;") #declare MJHTex"&amp;$A151&amp;" = texture { "&amp;codes!$C151&amp;" } #end #end"</f>
+      <c r="B152" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C152&amp;") #ifndef (MJHTex"&amp;$A152&amp;") #declare MJHTex"&amp;$A152&amp;" = texture { "&amp;codes!$C152&amp;" } #end #end"</f>
         <v>#ifdef (lg_rubber_dark_blue) #ifndef (MJHTex406) #declare MJHTex406 = texture { lg_rubber_dark_blue } #end #end</v>
       </c>
-      <c r="C151" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C151&amp;") #ifndef (MJHTex"&amp;$A151&amp;"Slope) #declare MJHTex"&amp;$A151&amp;"Slope = texture { "&amp;codes!$C151&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C152" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C152&amp;") #ifndef (MJHTex"&amp;$A152&amp;"Slope) #declare MJHTex"&amp;$A152&amp;"Slope = texture { "&amp;codes!$C152&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_rubber_dark_blue) #ifndef (MJHTex406Slope) #declare MJHTex406Slope = texture { lg_rubber_dark_blue normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D151" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C151&amp;") #ifndef (MJHMat"&amp;$A151&amp;") #declare MJHMat"&amp;$A151&amp;" = material { texture { MJHTex"&amp;$A151&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D152" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C152&amp;") #ifndef (MJHMat"&amp;$A152&amp;") #declare MJHMat"&amp;$A152&amp;" = material { texture { MJHTex"&amp;$A152&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_dark_blue) #ifndef (MJHMat406) #declare MJHMat406 = material { texture { MJHTex406 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E151" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C151&amp;") #ifndef (MJHMat"&amp;$A151&amp;"Slope) #declare MJHMat"&amp;$A151&amp;"Slope = material { texture { MJHTex"&amp;$A151&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E152" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C152&amp;") #ifndef (MJHMat"&amp;$A152&amp;"Slope) #declare MJHMat"&amp;$A152&amp;"Slope = material { texture { MJHTex"&amp;$A152&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_dark_blue) #ifndef (MJHMat406Slope) #declare MJHMat406Slope = material { texture { MJHTex406Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F151" s="2" t="str">
-        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 150 - Rubber_Dark_Blue
+      <c r="F152" s="2" t="str">
+        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 151 - Rubber_Dark_Blue
 #ifdef (lg_rubber_dark_blue) #ifndef (MJHTex406) #declare MJHTex406 = texture { lg_rubber_dark_blue } #end #end
 #ifdef (lg_rubber_dark_blue) #ifndef (MJHTex406Slope) #declare MJHTex406Slope = texture { lg_rubber_dark_blue normal { lg_slope_normal } } #end #end
 #ifdef (lg_rubber_dark_blue) #ifndef (MJHMat406) #declare MJHMat406 = material { texture { MJHTex406 } interior { lg_ior } } #end #end
@@ -22693,29 +23136,29 @@
 </v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
         <v>449</v>
       </c>
-      <c r="B152" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C152&amp;") #ifndef (MJHTex"&amp;$A152&amp;") #declare MJHTex"&amp;$A152&amp;" = texture { "&amp;codes!$C152&amp;" } #end #end"</f>
+      <c r="B153" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C153&amp;") #ifndef (MJHTex"&amp;$A153&amp;") #declare MJHTex"&amp;$A153&amp;" = texture { "&amp;codes!$C153&amp;" } #end #end"</f>
         <v>#ifdef (lg_rubber_purple) #ifndef (MJHTex449) #declare MJHTex449 = texture { lg_rubber_purple } #end #end</v>
       </c>
-      <c r="C152" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C152&amp;") #ifndef (MJHTex"&amp;$A152&amp;"Slope) #declare MJHTex"&amp;$A152&amp;"Slope = texture { "&amp;codes!$C152&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C153" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C153&amp;") #ifndef (MJHTex"&amp;$A153&amp;"Slope) #declare MJHTex"&amp;$A153&amp;"Slope = texture { "&amp;codes!$C153&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_rubber_purple) #ifndef (MJHTex449Slope) #declare MJHTex449Slope = texture { lg_rubber_purple normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D152" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C152&amp;") #ifndef (MJHMat"&amp;$A152&amp;") #declare MJHMat"&amp;$A152&amp;" = material { texture { MJHTex"&amp;$A152&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D153" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C153&amp;") #ifndef (MJHMat"&amp;$A153&amp;") #declare MJHMat"&amp;$A153&amp;" = material { texture { MJHTex"&amp;$A153&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_purple) #ifndef (MJHMat449) #declare MJHMat449 = material { texture { MJHTex449 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E152" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C152&amp;") #ifndef (MJHMat"&amp;$A152&amp;"Slope) #declare MJHMat"&amp;$A152&amp;"Slope = material { texture { MJHTex"&amp;$A152&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E153" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C153&amp;") #ifndef (MJHMat"&amp;$A153&amp;"Slope) #declare MJHMat"&amp;$A153&amp;"Slope = material { texture { MJHTex"&amp;$A153&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_purple) #ifndef (MJHMat449Slope) #declare MJHMat449Slope = material { texture { MJHTex449Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F152" s="2" t="str">
-        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 151 - Rubber_Purple
+      <c r="F153" s="2" t="str">
+        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 152 - Rubber_Purple
 #ifdef (lg_rubber_purple) #ifndef (MJHTex449) #declare MJHTex449 = texture { lg_rubber_purple } #end #end
 #ifdef (lg_rubber_purple) #ifndef (MJHTex449Slope) #declare MJHTex449Slope = texture { lg_rubber_purple normal { lg_slope_normal } } #end #end
 #ifdef (lg_rubber_purple) #ifndef (MJHMat449) #declare MJHMat449 = material { texture { MJHTex449 } interior { lg_ior } } #end #end
@@ -22723,29 +23166,29 @@
 </v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
         <v>450</v>
       </c>
-      <c r="B153" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C153&amp;") #ifndef (MJHTex"&amp;$A153&amp;") #declare MJHTex"&amp;$A153&amp;" = texture { "&amp;codes!$C153&amp;" } #end #end"</f>
+      <c r="B154" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C154&amp;") #ifndef (MJHTex"&amp;$A154&amp;") #declare MJHTex"&amp;$A154&amp;" = texture { "&amp;codes!$C154&amp;" } #end #end"</f>
         <v>#ifdef (lg_fabuland_brown) #ifndef (MJHTex450) #declare MJHTex450 = texture { lg_fabuland_brown } #end #end</v>
       </c>
-      <c r="C153" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C153&amp;") #ifndef (MJHTex"&amp;$A153&amp;"Slope) #declare MJHTex"&amp;$A153&amp;"Slope = texture { "&amp;codes!$C153&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C154" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C154&amp;") #ifndef (MJHTex"&amp;$A154&amp;"Slope) #declare MJHTex"&amp;$A154&amp;"Slope = texture { "&amp;codes!$C154&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_fabuland_brown) #ifndef (MJHTex450Slope) #declare MJHTex450Slope = texture { lg_fabuland_brown normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D153" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C153&amp;") #ifndef (MJHMat"&amp;$A153&amp;") #declare MJHMat"&amp;$A153&amp;" = material { texture { MJHTex"&amp;$A153&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D154" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C154&amp;") #ifndef (MJHMat"&amp;$A154&amp;") #declare MJHMat"&amp;$A154&amp;" = material { texture { MJHTex"&amp;$A154&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_fabuland_brown) #ifndef (MJHMat450) #declare MJHMat450 = material { texture { MJHTex450 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E153" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C153&amp;") #ifndef (MJHMat"&amp;$A153&amp;"Slope) #declare MJHMat"&amp;$A153&amp;"Slope = material { texture { MJHTex"&amp;$A153&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E154" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C154&amp;") #ifndef (MJHMat"&amp;$A154&amp;"Slope) #declare MJHMat"&amp;$A154&amp;"Slope = material { texture { MJHTex"&amp;$A154&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_fabuland_brown) #ifndef (MJHMat450Slope) #declare MJHMat450Slope = material { texture { MJHTex450Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F153" s="2" t="str">
-        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 152 - Fabuland_Brown
+      <c r="F154" s="2" t="str">
+        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 153 - Fabuland_Brown
 #ifdef (lg_fabuland_brown) #ifndef (MJHTex450) #declare MJHTex450 = texture { lg_fabuland_brown } #end #end
 #ifdef (lg_fabuland_brown) #ifndef (MJHTex450Slope) #declare MJHTex450Slope = texture { lg_fabuland_brown normal { lg_slope_normal } } #end #end
 #ifdef (lg_fabuland_brown) #ifndef (MJHMat450) #declare MJHMat450 = material { texture { MJHTex450 } interior { lg_ior } } #end #end
@@ -22753,29 +23196,29 @@
 </v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
         <v>462</v>
       </c>
-      <c r="B154" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C154&amp;") #ifndef (MJHTex"&amp;$A154&amp;") #declare MJHTex"&amp;$A154&amp;" = texture { "&amp;codes!$C154&amp;" } #end #end"</f>
+      <c r="B155" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C155&amp;") #ifndef (MJHTex"&amp;$A155&amp;") #declare MJHTex"&amp;$A155&amp;" = texture { "&amp;codes!$C155&amp;" } #end #end"</f>
         <v>#ifdef (lg_light_orange) #ifndef (MJHTex462) #declare MJHTex462 = texture { lg_light_orange } #end #end</v>
       </c>
-      <c r="C154" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C154&amp;") #ifndef (MJHTex"&amp;$A154&amp;"Slope) #declare MJHTex"&amp;$A154&amp;"Slope = texture { "&amp;codes!$C154&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C155" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C155&amp;") #ifndef (MJHTex"&amp;$A155&amp;"Slope) #declare MJHTex"&amp;$A155&amp;"Slope = texture { "&amp;codes!$C155&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_light_orange) #ifndef (MJHTex462Slope) #declare MJHTex462Slope = texture { lg_light_orange normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D154" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C154&amp;") #ifndef (MJHMat"&amp;$A154&amp;") #declare MJHMat"&amp;$A154&amp;" = material { texture { MJHTex"&amp;$A154&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D155" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C155&amp;") #ifndef (MJHMat"&amp;$A155&amp;") #declare MJHMat"&amp;$A155&amp;" = material { texture { MJHTex"&amp;$A155&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_light_orange) #ifndef (MJHMat462) #declare MJHMat462 = material { texture { MJHTex462 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E154" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C154&amp;") #ifndef (MJHMat"&amp;$A154&amp;"Slope) #declare MJHMat"&amp;$A154&amp;"Slope = material { texture { MJHTex"&amp;$A154&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E155" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C155&amp;") #ifndef (MJHMat"&amp;$A155&amp;"Slope) #declare MJHMat"&amp;$A155&amp;"Slope = material { texture { MJHTex"&amp;$A155&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_light_orange) #ifndef (MJHMat462Slope) #declare MJHMat462Slope = material { texture { MJHTex462Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F154" s="2" t="str">
-        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 153 - Medium_Orange
+      <c r="F155" s="2" t="str">
+        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 154 - Medium_Orange
 #ifdef (lg_light_orange) #ifndef (MJHTex462) #declare MJHTex462 = texture { lg_light_orange } #end #end
 #ifdef (lg_light_orange) #ifndef (MJHTex462Slope) #declare MJHTex462Slope = texture { lg_light_orange normal { lg_slope_normal } } #end #end
 #ifdef (lg_light_orange) #ifndef (MJHMat462) #declare MJHMat462 = material { texture { MJHTex462 } interior { lg_ior } } #end #end
@@ -22783,29 +23226,29 @@
 </v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
         <v>484</v>
       </c>
-      <c r="B155" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C155&amp;") #ifndef (MJHTex"&amp;$A155&amp;") #declare MJHTex"&amp;$A155&amp;" = texture { "&amp;codes!$C155&amp;" } #end #end"</f>
+      <c r="B156" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C156&amp;") #ifndef (MJHTex"&amp;$A156&amp;") #declare MJHTex"&amp;$A156&amp;" = texture { "&amp;codes!$C156&amp;" } #end #end"</f>
         <v>#ifdef (lg_dark_orange) #ifndef (MJHTex484) #declare MJHTex484 = texture { lg_dark_orange } #end #end</v>
       </c>
-      <c r="C155" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C155&amp;") #ifndef (MJHTex"&amp;$A155&amp;"Slope) #declare MJHTex"&amp;$A155&amp;"Slope = texture { "&amp;codes!$C155&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C156" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C156&amp;") #ifndef (MJHTex"&amp;$A156&amp;"Slope) #declare MJHTex"&amp;$A156&amp;"Slope = texture { "&amp;codes!$C156&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_dark_orange) #ifndef (MJHTex484Slope) #declare MJHTex484Slope = texture { lg_dark_orange normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D155" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C155&amp;") #ifndef (MJHMat"&amp;$A155&amp;") #declare MJHMat"&amp;$A155&amp;" = material { texture { MJHTex"&amp;$A155&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D156" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C156&amp;") #ifndef (MJHMat"&amp;$A156&amp;") #declare MJHMat"&amp;$A156&amp;" = material { texture { MJHTex"&amp;$A156&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_dark_orange) #ifndef (MJHMat484) #declare MJHMat484 = material { texture { MJHTex484 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E155" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C155&amp;") #ifndef (MJHMat"&amp;$A155&amp;"Slope) #declare MJHMat"&amp;$A155&amp;"Slope = material { texture { MJHTex"&amp;$A155&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E156" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C156&amp;") #ifndef (MJHMat"&amp;$A156&amp;"Slope) #declare MJHMat"&amp;$A156&amp;"Slope = material { texture { MJHTex"&amp;$A156&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_dark_orange) #ifndef (MJHMat484Slope) #declare MJHMat484Slope = material { texture { MJHTex484Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F155" s="2" t="str">
-        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 154 - Dark_Orange
+      <c r="F156" s="2" t="str">
+        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 155 - Dark_Orange
 #ifdef (lg_dark_orange) #ifndef (MJHTex484) #declare MJHTex484 = texture { lg_dark_orange } #end #end
 #ifdef (lg_dark_orange) #ifndef (MJHTex484Slope) #declare MJHTex484Slope = texture { lg_dark_orange normal { lg_slope_normal } } #end #end
 #ifdef (lg_dark_orange) #ifndef (MJHMat484) #declare MJHMat484 = material { texture { MJHTex484 } interior { lg_ior } } #end #end
@@ -22813,29 +23256,29 @@
 </v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
         <v>490</v>
       </c>
-      <c r="B156" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C156&amp;") #ifndef (MJHTex"&amp;$A156&amp;") #declare MJHTex"&amp;$A156&amp;" = texture { "&amp;codes!$C156&amp;" } #end #end"</f>
+      <c r="B157" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C157&amp;") #ifndef (MJHTex"&amp;$A157&amp;") #declare MJHTex"&amp;$A157&amp;" = texture { "&amp;codes!$C157&amp;" } #end #end"</f>
         <v>#ifdef (lg_rubber_lime) #ifndef (MJHTex490) #declare MJHTex490 = texture { lg_rubber_lime } #end #end</v>
       </c>
-      <c r="C156" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C156&amp;") #ifndef (MJHTex"&amp;$A156&amp;"Slope) #declare MJHTex"&amp;$A156&amp;"Slope = texture { "&amp;codes!$C156&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C157" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C157&amp;") #ifndef (MJHTex"&amp;$A157&amp;"Slope) #declare MJHTex"&amp;$A157&amp;"Slope = texture { "&amp;codes!$C157&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_rubber_lime) #ifndef (MJHTex490Slope) #declare MJHTex490Slope = texture { lg_rubber_lime normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D156" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C156&amp;") #ifndef (MJHMat"&amp;$A156&amp;") #declare MJHMat"&amp;$A156&amp;" = material { texture { MJHTex"&amp;$A156&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D157" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C157&amp;") #ifndef (MJHMat"&amp;$A157&amp;") #declare MJHMat"&amp;$A157&amp;" = material { texture { MJHTex"&amp;$A157&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_lime) #ifndef (MJHMat490) #declare MJHMat490 = material { texture { MJHTex490 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E156" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C156&amp;") #ifndef (MJHMat"&amp;$A156&amp;"Slope) #declare MJHMat"&amp;$A156&amp;"Slope = material { texture { MJHTex"&amp;$A156&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E157" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C157&amp;") #ifndef (MJHMat"&amp;$A157&amp;"Slope) #declare MJHMat"&amp;$A157&amp;"Slope = material { texture { MJHTex"&amp;$A157&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_lime) #ifndef (MJHMat490Slope) #declare MJHMat490Slope = material { texture { MJHTex490Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F156" s="2" t="str">
-        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 155 - Rubber_Lime
+      <c r="F157" s="2" t="str">
+        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 156 - Rubber_Lime
 #ifdef (lg_rubber_lime) #ifndef (MJHTex490) #declare MJHTex490 = texture { lg_rubber_lime } #end #end
 #ifdef (lg_rubber_lime) #ifndef (MJHTex490Slope) #declare MJHTex490Slope = texture { lg_rubber_lime normal { lg_slope_normal } } #end #end
 #ifdef (lg_rubber_lime) #ifndef (MJHMat490) #declare MJHMat490 = material { texture { MJHTex490 } interior { lg_ior } } #end #end
@@ -22843,29 +23286,29 @@
 </v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
         <v>493</v>
       </c>
-      <c r="B157" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C157&amp;") #ifndef (MJHTex"&amp;$A157&amp;") #declare MJHTex"&amp;$A157&amp;" = texture { "&amp;codes!$C157&amp;" } #end #end"</f>
+      <c r="B158" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C158&amp;") #ifndef (MJHTex"&amp;$A158&amp;") #declare MJHTex"&amp;$A158&amp;" = texture { "&amp;codes!$C158&amp;" } #end #end"</f>
         <v>#ifdef (lg_magnet) #ifndef (MJHTex493) #declare MJHTex493 = texture { lg_magnet } #end #end</v>
       </c>
-      <c r="C157" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C157&amp;") #ifndef (MJHTex"&amp;$A157&amp;"Slope) #declare MJHTex"&amp;$A157&amp;"Slope = texture { "&amp;codes!$C157&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C158" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C158&amp;") #ifndef (MJHTex"&amp;$A158&amp;"Slope) #declare MJHTex"&amp;$A158&amp;"Slope = texture { "&amp;codes!$C158&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_magnet) #ifndef (MJHTex493Slope) #declare MJHTex493Slope = texture { lg_magnet normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D157" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C157&amp;") #ifndef (MJHMat"&amp;$A157&amp;") #declare MJHMat"&amp;$A157&amp;" = material { texture { MJHTex"&amp;$A157&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D158" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C158&amp;") #ifndef (MJHMat"&amp;$A158&amp;") #declare MJHMat"&amp;$A158&amp;" = material { texture { MJHTex"&amp;$A158&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_magnet) #ifndef (MJHMat493) #declare MJHMat493 = material { texture { MJHTex493 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E157" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C157&amp;") #ifndef (MJHMat"&amp;$A157&amp;"Slope) #declare MJHMat"&amp;$A157&amp;"Slope = material { texture { MJHTex"&amp;$A157&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E158" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C158&amp;") #ifndef (MJHMat"&amp;$A158&amp;"Slope) #declare MJHMat"&amp;$A158&amp;"Slope = material { texture { MJHTex"&amp;$A158&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_magnet) #ifndef (MJHMat493Slope) #declare MJHMat493Slope = material { texture { MJHTex493Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F157" s="2" t="str">
-        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 156 - Magnet
+      <c r="F158" s="2" t="str">
+        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 157 - Magnet
 #ifdef (lg_magnet) #ifndef (MJHTex493) #declare MJHTex493 = texture { lg_magnet } #end #end
 #ifdef (lg_magnet) #ifndef (MJHTex493Slope) #declare MJHTex493Slope = texture { lg_magnet normal { lg_slope_normal } } #end #end
 #ifdef (lg_magnet) #ifndef (MJHMat493) #declare MJHMat493 = material { texture { MJHTex493 } interior { lg_ior } } #end #end
@@ -22873,29 +23316,29 @@
 </v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
         <v>494</v>
       </c>
-      <c r="B158" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C158&amp;") #ifndef (MJHTex"&amp;$A158&amp;") #declare MJHTex"&amp;$A158&amp;" = texture { "&amp;codes!$C158&amp;" } #end #end"</f>
+      <c r="B159" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C159&amp;") #ifndef (MJHTex"&amp;$A159&amp;") #declare MJHTex"&amp;$A159&amp;" = texture { "&amp;codes!$C159&amp;" } #end #end"</f>
         <v>#ifdef (lg_electric_contact_alloy) #ifndef (MJHTex494) #declare MJHTex494 = texture { lg_electric_contact_alloy } #end #end</v>
       </c>
-      <c r="C158" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C158&amp;") #ifndef (MJHTex"&amp;$A158&amp;"Slope) #declare MJHTex"&amp;$A158&amp;"Slope = texture { "&amp;codes!$C158&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C159" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C159&amp;") #ifndef (MJHTex"&amp;$A159&amp;"Slope) #declare MJHTex"&amp;$A159&amp;"Slope = texture { "&amp;codes!$C159&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_electric_contact_alloy) #ifndef (MJHTex494Slope) #declare MJHTex494Slope = texture { lg_electric_contact_alloy normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D158" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C158&amp;") #ifndef (MJHMat"&amp;$A158&amp;") #declare MJHMat"&amp;$A158&amp;" = material { texture { MJHTex"&amp;$A158&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D159" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C159&amp;") #ifndef (MJHMat"&amp;$A159&amp;") #declare MJHMat"&amp;$A159&amp;" = material { texture { MJHTex"&amp;$A159&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_electric_contact_alloy) #ifndef (MJHMat494) #declare MJHMat494 = material { texture { MJHTex494 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E158" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C158&amp;") #ifndef (MJHMat"&amp;$A158&amp;"Slope) #declare MJHMat"&amp;$A158&amp;"Slope = material { texture { MJHTex"&amp;$A158&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E159" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C159&amp;") #ifndef (MJHMat"&amp;$A159&amp;"Slope) #declare MJHMat"&amp;$A159&amp;"Slope = material { texture { MJHTex"&amp;$A159&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_electric_contact_alloy) #ifndef (MJHMat494Slope) #declare MJHMat494Slope = material { texture { MJHTex494Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F158" s="2" t="str">
-        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 157 - Electric_Contact_Alloy
+      <c r="F159" s="2" t="str">
+        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 158 - Electric_Contact_Alloy
 #ifdef (lg_electric_contact_alloy) #ifndef (MJHTex494) #declare MJHTex494 = texture { lg_electric_contact_alloy } #end #end
 #ifdef (lg_electric_contact_alloy) #ifndef (MJHTex494Slope) #declare MJHTex494Slope = texture { lg_electric_contact_alloy normal { lg_slope_normal } } #end #end
 #ifdef (lg_electric_contact_alloy) #ifndef (MJHMat494) #declare MJHMat494 = material { texture { MJHTex494 } interior { lg_ior } } #end #end
@@ -22903,29 +23346,29 @@
 </v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
         <v>495</v>
       </c>
-      <c r="B159" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C159&amp;") #ifndef (MJHTex"&amp;$A159&amp;") #declare MJHTex"&amp;$A159&amp;" = texture { "&amp;codes!$C159&amp;" } #end #end"</f>
+      <c r="B160" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C160&amp;") #ifndef (MJHTex"&amp;$A160&amp;") #declare MJHTex"&amp;$A160&amp;" = texture { "&amp;codes!$C160&amp;" } #end #end"</f>
         <v>#ifdef (lg_undefined) #ifndef (MJHTex495) #declare MJHTex495 = texture { lg_undefined } #end #end</v>
       </c>
-      <c r="C159" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C159&amp;") #ifndef (MJHTex"&amp;$A159&amp;"Slope) #declare MJHTex"&amp;$A159&amp;"Slope = texture { "&amp;codes!$C159&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C160" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C160&amp;") #ifndef (MJHTex"&amp;$A160&amp;"Slope) #declare MJHTex"&amp;$A160&amp;"Slope = texture { "&amp;codes!$C160&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_undefined) #ifndef (MJHTex495Slope) #declare MJHTex495Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D159" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C159&amp;") #ifndef (MJHMat"&amp;$A159&amp;") #declare MJHMat"&amp;$A159&amp;" = material { texture { MJHTex"&amp;$A159&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D160" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C160&amp;") #ifndef (MJHMat"&amp;$A160&amp;") #declare MJHMat"&amp;$A160&amp;" = material { texture { MJHTex"&amp;$A160&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_undefined) #ifndef (MJHMat495) #declare MJHMat495 = material { texture { MJHTex495 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E159" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C159&amp;") #ifndef (MJHMat"&amp;$A159&amp;"Slope) #declare MJHMat"&amp;$A159&amp;"Slope = material { texture { MJHTex"&amp;$A159&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E160" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C160&amp;") #ifndef (MJHMat"&amp;$A160&amp;"Slope) #declare MJHMat"&amp;$A160&amp;"Slope = material { texture { MJHTex"&amp;$A160&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_undefined) #ifndef (MJHMat495Slope) #declare MJHMat495Slope = material { texture { MJHTex495Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F159" s="2" t="str">
-        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 158 - Electric_Contact_Copper
+      <c r="F160" s="2" t="str">
+        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 159 - Electric_Contact_Copper
 #ifdef (lg_undefined) #ifndef (MJHTex495) #declare MJHTex495 = texture { lg_undefined } #end #end
 #ifdef (lg_undefined) #ifndef (MJHTex495Slope) #declare MJHTex495Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end
 #ifdef (lg_undefined) #ifndef (MJHMat495) #declare MJHMat495 = material { texture { MJHTex495 } interior { lg_ior } } #end #end
@@ -22933,29 +23376,29 @@
 </v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
         <v>496</v>
       </c>
-      <c r="B160" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C160&amp;") #ifndef (MJHTex"&amp;$A160&amp;") #declare MJHTex"&amp;$A160&amp;" = texture { "&amp;codes!$C160&amp;" } #end #end"</f>
+      <c r="B161" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C161&amp;") #ifndef (MJHTex"&amp;$A161&amp;") #declare MJHTex"&amp;$A161&amp;" = texture { "&amp;codes!$C161&amp;" } #end #end"</f>
         <v>#ifdef (lg_rubber_light_bluish_gray) #ifndef (MJHTex496) #declare MJHTex496 = texture { lg_rubber_light_bluish_gray } #end #end</v>
       </c>
-      <c r="C160" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C160&amp;") #ifndef (MJHTex"&amp;$A160&amp;"Slope) #declare MJHTex"&amp;$A160&amp;"Slope = texture { "&amp;codes!$C160&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C161" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C161&amp;") #ifndef (MJHTex"&amp;$A161&amp;"Slope) #declare MJHTex"&amp;$A161&amp;"Slope = texture { "&amp;codes!$C161&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_rubber_light_bluish_gray) #ifndef (MJHTex496Slope) #declare MJHTex496Slope = texture { lg_rubber_light_bluish_gray normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D160" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C160&amp;") #ifndef (MJHMat"&amp;$A160&amp;") #declare MJHMat"&amp;$A160&amp;" = material { texture { MJHTex"&amp;$A160&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D161" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C161&amp;") #ifndef (MJHMat"&amp;$A161&amp;") #declare MJHMat"&amp;$A161&amp;" = material { texture { MJHTex"&amp;$A161&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_light_bluish_gray) #ifndef (MJHMat496) #declare MJHMat496 = material { texture { MJHTex496 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E160" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C160&amp;") #ifndef (MJHMat"&amp;$A160&amp;"Slope) #declare MJHMat"&amp;$A160&amp;"Slope = material { texture { MJHTex"&amp;$A160&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E161" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C161&amp;") #ifndef (MJHMat"&amp;$A161&amp;"Slope) #declare MJHMat"&amp;$A161&amp;"Slope = material { texture { MJHTex"&amp;$A161&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_light_bluish_gray) #ifndef (MJHMat496Slope) #declare MJHMat496Slope = material { texture { MJHTex496Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F160" s="2" t="str">
-        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 159 - Rubber_Light_Bluish_Grey
+      <c r="F161" s="2" t="str">
+        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 160 - Rubber_Light_Bluish_Grey
 #ifdef (lg_rubber_light_bluish_gray) #ifndef (MJHTex496) #declare MJHTex496 = texture { lg_rubber_light_bluish_gray } #end #end
 #ifdef (lg_rubber_light_bluish_gray) #ifndef (MJHTex496Slope) #declare MJHTex496Slope = texture { lg_rubber_light_bluish_gray normal { lg_slope_normal } } #end #end
 #ifdef (lg_rubber_light_bluish_gray) #ifndef (MJHMat496) #declare MJHMat496 = material { texture { MJHTex496 } interior { lg_ior } } #end #end
@@ -22963,29 +23406,29 @@
 </v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
         <v>503</v>
       </c>
-      <c r="B161" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C161&amp;") #ifndef (MJHTex"&amp;$A161&amp;") #declare MJHTex"&amp;$A161&amp;" = texture { "&amp;codes!$C161&amp;" } #end #end"</f>
+      <c r="B162" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C162&amp;") #ifndef (MJHTex"&amp;$A162&amp;") #declare MJHTex"&amp;$A162&amp;" = texture { "&amp;codes!$C162&amp;" } #end #end"</f>
         <v>#ifdef (lg_very_light_grey) #ifndef (MJHTex503) #declare MJHTex503 = texture { lg_very_light_grey } #end #end</v>
       </c>
-      <c r="C161" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C161&amp;") #ifndef (MJHTex"&amp;$A161&amp;"Slope) #declare MJHTex"&amp;$A161&amp;"Slope = texture { "&amp;codes!$C161&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C162" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C162&amp;") #ifndef (MJHTex"&amp;$A162&amp;"Slope) #declare MJHTex"&amp;$A162&amp;"Slope = texture { "&amp;codes!$C162&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_very_light_grey) #ifndef (MJHTex503Slope) #declare MJHTex503Slope = texture { lg_very_light_grey normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D161" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C161&amp;") #ifndef (MJHMat"&amp;$A161&amp;") #declare MJHMat"&amp;$A161&amp;" = material { texture { MJHTex"&amp;$A161&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D162" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C162&amp;") #ifndef (MJHMat"&amp;$A162&amp;") #declare MJHMat"&amp;$A162&amp;" = material { texture { MJHTex"&amp;$A162&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_very_light_grey) #ifndef (MJHMat503) #declare MJHMat503 = material { texture { MJHTex503 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E161" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C161&amp;") #ifndef (MJHMat"&amp;$A161&amp;"Slope) #declare MJHMat"&amp;$A161&amp;"Slope = material { texture { MJHTex"&amp;$A161&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E162" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C162&amp;") #ifndef (MJHMat"&amp;$A162&amp;"Slope) #declare MJHMat"&amp;$A162&amp;"Slope = material { texture { MJHTex"&amp;$A162&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_very_light_grey) #ifndef (MJHMat503Slope) #declare MJHMat503Slope = material { texture { MJHTex503Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F161" s="2" t="str">
-        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 160 - Very_Light_Grey
+      <c r="F162" s="2" t="str">
+        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 161 - Very_Light_Grey
 #ifdef (lg_very_light_grey) #ifndef (MJHTex503) #declare MJHTex503 = texture { lg_very_light_grey } #end #end
 #ifdef (lg_very_light_grey) #ifndef (MJHTex503Slope) #declare MJHTex503Slope = texture { lg_very_light_grey normal { lg_slope_normal } } #end #end
 #ifdef (lg_very_light_grey) #ifndef (MJHMat503) #declare MJHMat503 = material { texture { MJHTex503 } interior { lg_ior } } #end #end
@@ -22993,29 +23436,29 @@
 </v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
         <v>504</v>
       </c>
-      <c r="B162" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C162&amp;") #ifndef (MJHTex"&amp;$A162&amp;") #declare MJHTex"&amp;$A162&amp;" = texture { "&amp;codes!$C162&amp;" } #end #end"</f>
+      <c r="B163" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C163&amp;") #ifndef (MJHTex"&amp;$A163&amp;") #declare MJHTex"&amp;$A163&amp;" = texture { "&amp;codes!$C163&amp;" } #end #end"</f>
         <v>#ifdef (lg_rubber_flat_silver) #ifndef (MJHTex504) #declare MJHTex504 = texture { lg_rubber_flat_silver } #end #end</v>
       </c>
-      <c r="C162" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C162&amp;") #ifndef (MJHTex"&amp;$A162&amp;"Slope) #declare MJHTex"&amp;$A162&amp;"Slope = texture { "&amp;codes!$C162&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C163" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C163&amp;") #ifndef (MJHTex"&amp;$A163&amp;"Slope) #declare MJHTex"&amp;$A163&amp;"Slope = texture { "&amp;codes!$C163&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_rubber_flat_silver) #ifndef (MJHTex504Slope) #declare MJHTex504Slope = texture { lg_rubber_flat_silver normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D162" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C162&amp;") #ifndef (MJHMat"&amp;$A162&amp;") #declare MJHMat"&amp;$A162&amp;" = material { texture { MJHTex"&amp;$A162&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D163" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C163&amp;") #ifndef (MJHMat"&amp;$A163&amp;") #declare MJHMat"&amp;$A163&amp;" = material { texture { MJHTex"&amp;$A163&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_flat_silver) #ifndef (MJHMat504) #declare MJHMat504 = material { texture { MJHTex504 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E162" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C162&amp;") #ifndef (MJHMat"&amp;$A162&amp;"Slope) #declare MJHMat"&amp;$A162&amp;"Slope = material { texture { MJHTex"&amp;$A162&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E163" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C163&amp;") #ifndef (MJHMat"&amp;$A163&amp;"Slope) #declare MJHMat"&amp;$A163&amp;"Slope = material { texture { MJHTex"&amp;$A163&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_flat_silver) #ifndef (MJHMat504Slope) #declare MJHMat504Slope = material { texture { MJHTex504Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F162" s="2" t="str">
-        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 161 - Rubber_Flat_Silver
+      <c r="F163" s="2" t="str">
+        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 162 - Rubber_Flat_Silver
 #ifdef (lg_rubber_flat_silver) #ifndef (MJHTex504) #declare MJHTex504 = texture { lg_rubber_flat_silver } #end #end
 #ifdef (lg_rubber_flat_silver) #ifndef (MJHTex504Slope) #declare MJHTex504Slope = texture { lg_rubber_flat_silver normal { lg_slope_normal } } #end #end
 #ifdef (lg_rubber_flat_silver) #ifndef (MJHMat504) #declare MJHMat504 = material { texture { MJHTex504 } interior { lg_ior } } #end #end
@@ -23023,29 +23466,119 @@
 </v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
+    <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>507</v>
+      </c>
+      <c r="B164" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C164&amp;") #ifndef (MJHTex"&amp;$A164&amp;") #declare MJHTex"&amp;$A164&amp;" = texture { "&amp;codes!$C164&amp;" } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHTex507) #declare MJHTex507 = texture { lg_undefined } #end #end</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C164&amp;") #ifndef (MJHTex"&amp;$A164&amp;"Slope) #declare MJHTex"&amp;$A164&amp;"Slope = texture { "&amp;codes!$C164&amp;" normal { lg_slope_normal } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHTex507Slope) #declare MJHTex507Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C164&amp;") #ifndef (MJHMat"&amp;$A164&amp;") #declare MJHMat"&amp;$A164&amp;" = material { texture { MJHTex"&amp;$A164&amp;" } interior { lg_ior } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHMat507) #declare MJHMat507 = material { texture { MJHTex507 } interior { lg_ior } } #end #end</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C164&amp;") #ifndef (MJHMat"&amp;$A164&amp;"Slope) #declare MJHMat"&amp;$A164&amp;"Slope = material { texture { MJHTex"&amp;$A164&amp;"Slope } interior { lg_ior } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = material { texture { MJHTex507Slope } interior { lg_ior } } #end #end</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f>"// row "&amp;(ROW($A164)-1)&amp;" - "&amp;codes!$B164&amp;CHAR(10)&amp;$B164&amp;CHAR(10)&amp;$C164&amp;CHAR(10)&amp;$D164&amp;CHAR(10)&amp;$E164&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 163 - Light_Orange_Brown
+#ifdef (lg_undefined) #ifndef (MJHTex507) #declare MJHTex507 = texture { lg_undefined } #end #end
+#ifdef (lg_undefined) #ifndef (MJHTex507Slope) #declare MJHTex507Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end
+#ifdef (lg_undefined) #ifndef (MJHMat507) #declare MJHMat507 = material { texture { MJHTex507 } interior { lg_ior } } #end #end
+#ifdef (lg_undefined) #ifndef (MJHMat507Slope) #declare MJHMat507Slope = material { texture { MJHTex507Slope } interior { lg_ior } } #end #end
+</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>508</v>
+      </c>
+      <c r="B165" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C165&amp;") #ifndef (MJHTex"&amp;$A165&amp;") #declare MJHTex"&amp;$A165&amp;" = texture { "&amp;codes!$C165&amp;" } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHTex508) #declare MJHTex508 = texture { lg_undefined } #end #end</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C165&amp;") #ifndef (MJHTex"&amp;$A165&amp;"Slope) #declare MJHTex"&amp;$A165&amp;"Slope = texture { "&amp;codes!$C165&amp;" normal { lg_slope_normal } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHTex508Slope) #declare MJHTex508Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C165&amp;") #ifndef (MJHMat"&amp;$A165&amp;") #declare MJHMat"&amp;$A165&amp;" = material { texture { MJHTex"&amp;$A165&amp;" } interior { lg_ior } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHMat508) #declare MJHMat508 = material { texture { MJHTex508 } interior { lg_ior } } #end #end</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C165&amp;") #ifndef (MJHMat"&amp;$A165&amp;"Slope) #declare MJHMat"&amp;$A165&amp;"Slope = material { texture { MJHTex"&amp;$A165&amp;"Slope } interior { lg_ior } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = material { texture { MJHTex508Slope } interior { lg_ior } } #end #end</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f>"// row "&amp;(ROW($A165)-1)&amp;" - "&amp;codes!$B165&amp;CHAR(10)&amp;$B165&amp;CHAR(10)&amp;$C165&amp;CHAR(10)&amp;$D165&amp;CHAR(10)&amp;$E165&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 164 - Fabuland_Red
+#ifdef (lg_undefined) #ifndef (MJHTex508) #declare MJHTex508 = texture { lg_undefined } #end #end
+#ifdef (lg_undefined) #ifndef (MJHTex508Slope) #declare MJHTex508Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end
+#ifdef (lg_undefined) #ifndef (MJHMat508) #declare MJHMat508 = material { texture { MJHTex508 } interior { lg_ior } } #end #end
+#ifdef (lg_undefined) #ifndef (MJHMat508Slope) #declare MJHMat508Slope = material { texture { MJHTex508Slope } interior { lg_ior } } #end #end
+</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>509</v>
+      </c>
+      <c r="B166" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C166&amp;") #ifndef (MJHTex"&amp;$A166&amp;") #declare MJHTex"&amp;$A166&amp;" = texture { "&amp;codes!$C166&amp;" } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHTex509) #declare MJHTex509 = texture { lg_undefined } #end #end</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C166&amp;") #ifndef (MJHTex"&amp;$A166&amp;"Slope) #declare MJHTex"&amp;$A166&amp;"Slope = texture { "&amp;codes!$C166&amp;" normal { lg_slope_normal } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHTex509Slope) #declare MJHTex509Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C166&amp;") #ifndef (MJHMat"&amp;$A166&amp;") #declare MJHMat"&amp;$A166&amp;" = material { texture { MJHTex"&amp;$A166&amp;" } interior { lg_ior } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHMat509) #declare MJHMat509 = material { texture { MJHTex509 } interior { lg_ior } } #end #end</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C166&amp;") #ifndef (MJHMat"&amp;$A166&amp;"Slope) #declare MJHMat"&amp;$A166&amp;"Slope = material { texture { MJHTex"&amp;$A166&amp;"Slope } interior { lg_ior } } #end #end"</f>
+        <v>#ifdef (lg_undefined) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = material { texture { MJHTex509Slope } interior { lg_ior } } #end #end</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f>"// row "&amp;(ROW($A166)-1)&amp;" - "&amp;codes!$B166&amp;CHAR(10)&amp;$B166&amp;CHAR(10)&amp;$C166&amp;CHAR(10)&amp;$D166&amp;CHAR(10)&amp;$E166&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 165 - Fabuland_Orange
+#ifdef (lg_undefined) #ifndef (MJHTex509) #declare MJHTex509 = texture { lg_undefined } #end #end
+#ifdef (lg_undefined) #ifndef (MJHTex509Slope) #declare MJHTex509Slope = texture { lg_undefined normal { lg_slope_normal } } #end #end
+#ifdef (lg_undefined) #ifndef (MJHMat509) #declare MJHMat509 = material { texture { MJHTex509 } interior { lg_ior } } #end #end
+#ifdef (lg_undefined) #ifndef (MJHMat509Slope) #declare MJHMat509Slope = material { texture { MJHTex509Slope } interior { lg_ior } } #end #end
+</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
         <v>511</v>
       </c>
-      <c r="B163" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C163&amp;") #ifndef (MJHTex"&amp;$A163&amp;") #declare MJHTex"&amp;$A163&amp;" = texture { "&amp;codes!$C163&amp;" } #end #end"</f>
+      <c r="B167" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C167&amp;") #ifndef (MJHTex"&amp;$A167&amp;") #declare MJHTex"&amp;$A167&amp;" = texture { "&amp;codes!$C167&amp;" } #end #end"</f>
         <v>#ifdef (lg_rubber_white) #ifndef (MJHTex511) #declare MJHTex511 = texture { lg_rubber_white } #end #end</v>
       </c>
-      <c r="C163" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C163&amp;") #ifndef (MJHTex"&amp;$A163&amp;"Slope) #declare MJHTex"&amp;$A163&amp;"Slope = texture { "&amp;codes!$C163&amp;" normal { lg_slope_normal } } #end #end"</f>
+      <c r="C167" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C167&amp;") #ifndef (MJHTex"&amp;$A167&amp;"Slope) #declare MJHTex"&amp;$A167&amp;"Slope = texture { "&amp;codes!$C167&amp;" normal { lg_slope_normal } } #end #end"</f>
         <v>#ifdef (lg_rubber_white) #ifndef (MJHTex511Slope) #declare MJHTex511Slope = texture { lg_rubber_white normal { lg_slope_normal } } #end #end</v>
       </c>
-      <c r="D163" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C163&amp;") #ifndef (MJHMat"&amp;$A163&amp;") #declare MJHMat"&amp;$A163&amp;" = material { texture { MJHTex"&amp;$A163&amp;" } interior { lg_ior } } #end #end"</f>
+      <c r="D167" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C167&amp;") #ifndef (MJHMat"&amp;$A167&amp;") #declare MJHMat"&amp;$A167&amp;" = material { texture { MJHTex"&amp;$A167&amp;" } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_white) #ifndef (MJHMat511) #declare MJHMat511 = material { texture { MJHTex511 } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="E163" s="4" t="str">
-        <f>"#ifdef ("&amp;codes!$C163&amp;") #ifndef (MJHMat"&amp;$A163&amp;"Slope) #declare MJHMat"&amp;$A163&amp;"Slope = material { texture { MJHTex"&amp;$A163&amp;"Slope } interior { lg_ior } } #end #end"</f>
+      <c r="E167" s="4" t="str">
+        <f>"#ifdef ("&amp;codes!$C167&amp;") #ifndef (MJHMat"&amp;$A167&amp;"Slope) #declare MJHMat"&amp;$A167&amp;"Slope = material { texture { MJHTex"&amp;$A167&amp;"Slope } interior { lg_ior } } #end #end"</f>
         <v>#ifdef (lg_rubber_white) #ifndef (MJHMat511Slope) #declare MJHMat511Slope = material { texture { MJHTex511Slope } interior { lg_ior } } #end #end</v>
       </c>
-      <c r="F163" s="2" t="str">
-        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 162 - Rubber_White
+      <c r="F167" s="2" t="str">
+        <f>"// row "&amp;(ROW($A167)-1)&amp;" - "&amp;codes!$B167&amp;CHAR(10)&amp;$B167&amp;CHAR(10)&amp;$C167&amp;CHAR(10)&amp;$D167&amp;CHAR(10)&amp;$E167&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 166 - Rubber_White
 #ifdef (lg_rubber_white) #ifndef (MJHTex511) #declare MJHTex511 = texture { lg_rubber_white } #end #end
 #ifdef (lg_rubber_white) #ifndef (MJHTex511Slope) #declare MJHTex511Slope = texture { lg_rubber_white normal { lg_slope_normal } } #end #end
 #ifdef (lg_rubber_white) #ifndef (MJHMat511) #declare MJHMat511 = material { texture { MJHTex511 } interior { lg_ior } } #end #end
@@ -23060,11 +23593,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F167" sqref="F2:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26967,19 +27500,19 @@
         <v>313</v>
       </c>
       <c r="B131" s="4" t="str">
-        <f t="shared" ref="B131:B163" si="8">"#declare MJHTex"&amp;$A131&amp;" = texture {}"</f>
+        <f t="shared" ref="B131:B167" si="8">"#declare MJHTex"&amp;$A131&amp;" = texture {}"</f>
         <v>#declare MJHTex313 = texture {}</v>
       </c>
       <c r="C131" s="4" t="str">
-        <f t="shared" ref="C131:C163" si="9">"#declare MJHTex"&amp;$A131&amp;"Slope = texture {}"</f>
+        <f t="shared" ref="C131:C167" si="9">"#declare MJHTex"&amp;$A131&amp;"Slope = texture {}"</f>
         <v>#declare MJHTex313Slope = texture {}</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D163" si="10">"#declare MJHMat"&amp;$A131&amp;" = material {}"</f>
+        <f t="shared" ref="D131:D167" si="10">"#declare MJHMat"&amp;$A131&amp;" = material {}"</f>
         <v>#declare MJHMat313 = material {}</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E163" si="11">"#declare MJHMat"&amp;$A131&amp;"Slope = material {}"</f>
+        <f t="shared" ref="E131:E167" si="11">"#declare MJHMat"&amp;$A131&amp;"Slope = material {}"</f>
         <v>#declare MJHMat313Slope = material {}</v>
       </c>
       <c r="F131" s="2" t="str">
@@ -27382,29 +27915,59 @@
 </v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B145" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#declare MJHTex366 = texture {}</v>
+        <v>#declare MJHTex353 = texture {}</v>
       </c>
       <c r="C145" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#declare MJHTex366Slope = texture {}</v>
+        <v>#declare MJHTex353Slope = texture {}</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>#declare MJHMat366 = material {}</v>
+        <v>#declare MJHMat353 = material {}</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>#declare MJHMat366Slope = material {}</v>
+        <v>#declare MJHMat353Slope = material {}</v>
       </c>
       <c r="F145" s="2" t="str">
         <f>"// row "&amp;(ROW($A145)-1)&amp;" - "&amp;codes!$B145&amp;CHAR(10)&amp;$B145&amp;CHAR(10)&amp;$C145&amp;CHAR(10)&amp;$D145&amp;CHAR(10)&amp;$E145&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 144 - Earth_Orange
+        <v xml:space="preserve">// row 144 - Coral
+#declare MJHTex353 = texture {}
+#declare MJHTex353Slope = texture {}
+#declare MJHMat353 = material {}
+#declare MJHMat353Slope = material {}
+</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>366</v>
+      </c>
+      <c r="B146" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#declare MJHTex366 = texture {}</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#declare MJHTex366Slope = texture {}</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#declare MJHMat366 = material {}</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#declare MJHMat366Slope = material {}</v>
+      </c>
+      <c r="F146" s="2" t="str">
+        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 145 - Earth_Orange
 #declare MJHTex366 = texture {}
 #declare MJHTex366Slope = texture {}
 #declare MJHMat366 = material {}
@@ -27412,29 +27975,29 @@
 </v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
         <v>373</v>
       </c>
-      <c r="B146" s="4" t="str">
+      <c r="B147" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex373 = texture {}</v>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C147" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex373Slope = texture {}</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D147" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat373 = material {}</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E147" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat373Slope = material {}</v>
       </c>
-      <c r="F146" s="2" t="str">
-        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 145 - Sand_Purple
+      <c r="F147" s="2" t="str">
+        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 146 - Sand_Purple
 #declare MJHTex373 = texture {}
 #declare MJHTex373Slope = texture {}
 #declare MJHMat373 = material {}
@@ -27442,29 +28005,29 @@
 </v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
         <v>375</v>
       </c>
-      <c r="B147" s="4" t="str">
+      <c r="B148" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex375 = texture {}</v>
       </c>
-      <c r="C147" s="4" t="str">
+      <c r="C148" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex375Slope = texture {}</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D148" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat375 = material {}</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E148" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat375Slope = material {}</v>
       </c>
-      <c r="F147" s="2" t="str">
-        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 146 - Rubber_Light_Grey
+      <c r="F148" s="2" t="str">
+        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 147 - Rubber_Light_Grey
 #declare MJHTex375 = texture {}
 #declare MJHTex375Slope = texture {}
 #declare MJHMat375 = material {}
@@ -27472,29 +28035,29 @@
 </v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
         <v>378</v>
       </c>
-      <c r="B148" s="4" t="str">
+      <c r="B149" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex378 = texture {}</v>
       </c>
-      <c r="C148" s="4" t="str">
+      <c r="C149" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex378Slope = texture {}</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D149" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat378 = material {}</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E149" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat378Slope = material {}</v>
       </c>
-      <c r="F148" s="2" t="str">
-        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 147 - Sand_Green
+      <c r="F149" s="2" t="str">
+        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 148 - Sand_Green
 #declare MJHTex378 = texture {}
 #declare MJHTex378Slope = texture {}
 #declare MJHMat378 = material {}
@@ -27502,29 +28065,29 @@
 </v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
         <v>379</v>
       </c>
-      <c r="B149" s="4" t="str">
+      <c r="B150" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex379 = texture {}</v>
       </c>
-      <c r="C149" s="4" t="str">
+      <c r="C150" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex379Slope = texture {}</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D150" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat379 = material {}</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E150" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat379Slope = material {}</v>
       </c>
-      <c r="F149" s="2" t="str">
-        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 148 - Sand_Blue
+      <c r="F150" s="2" t="str">
+        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 149 - Sand_Blue
 #declare MJHTex379 = texture {}
 #declare MJHTex379Slope = texture {}
 #declare MJHMat379 = material {}
@@ -27532,29 +28095,29 @@
 </v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
         <v>383</v>
       </c>
-      <c r="B150" s="4" t="str">
+      <c r="B151" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex383 = texture {}</v>
       </c>
-      <c r="C150" s="4" t="str">
+      <c r="C151" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex383Slope = texture {}</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D151" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat383 = material {}</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E151" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat383Slope = material {}</v>
       </c>
-      <c r="F150" s="2" t="str">
-        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 149 - Chrome_Silver
+      <c r="F151" s="2" t="str">
+        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 150 - Chrome_Silver
 #declare MJHTex383 = texture {}
 #declare MJHTex383Slope = texture {}
 #declare MJHMat383 = material {}
@@ -27562,29 +28125,29 @@
 </v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
         <v>406</v>
       </c>
-      <c r="B151" s="4" t="str">
+      <c r="B152" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex406 = texture {}</v>
       </c>
-      <c r="C151" s="4" t="str">
+      <c r="C152" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex406Slope = texture {}</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D152" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat406 = material {}</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E152" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat406Slope = material {}</v>
       </c>
-      <c r="F151" s="2" t="str">
-        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 150 - Rubber_Dark_Blue
+      <c r="F152" s="2" t="str">
+        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 151 - Rubber_Dark_Blue
 #declare MJHTex406 = texture {}
 #declare MJHTex406Slope = texture {}
 #declare MJHMat406 = material {}
@@ -27592,29 +28155,29 @@
 </v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
         <v>449</v>
       </c>
-      <c r="B152" s="4" t="str">
+      <c r="B153" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex449 = texture {}</v>
       </c>
-      <c r="C152" s="4" t="str">
+      <c r="C153" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex449Slope = texture {}</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D153" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat449 = material {}</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E153" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat449Slope = material {}</v>
       </c>
-      <c r="F152" s="2" t="str">
-        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 151 - Rubber_Purple
+      <c r="F153" s="2" t="str">
+        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 152 - Rubber_Purple
 #declare MJHTex449 = texture {}
 #declare MJHTex449Slope = texture {}
 #declare MJHMat449 = material {}
@@ -27622,29 +28185,29 @@
 </v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
         <v>450</v>
       </c>
-      <c r="B153" s="4" t="str">
+      <c r="B154" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex450 = texture {}</v>
       </c>
-      <c r="C153" s="4" t="str">
+      <c r="C154" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex450Slope = texture {}</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D154" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat450 = material {}</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E154" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat450Slope = material {}</v>
       </c>
-      <c r="F153" s="2" t="str">
-        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 152 - Fabuland_Brown
+      <c r="F154" s="2" t="str">
+        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 153 - Fabuland_Brown
 #declare MJHTex450 = texture {}
 #declare MJHTex450Slope = texture {}
 #declare MJHMat450 = material {}
@@ -27652,29 +28215,29 @@
 </v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
         <v>462</v>
       </c>
-      <c r="B154" s="4" t="str">
+      <c r="B155" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex462 = texture {}</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C155" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex462Slope = texture {}</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D155" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat462 = material {}</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E155" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat462Slope = material {}</v>
       </c>
-      <c r="F154" s="2" t="str">
-        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 153 - Medium_Orange
+      <c r="F155" s="2" t="str">
+        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 154 - Medium_Orange
 #declare MJHTex462 = texture {}
 #declare MJHTex462Slope = texture {}
 #declare MJHMat462 = material {}
@@ -27682,29 +28245,29 @@
 </v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
         <v>484</v>
       </c>
-      <c r="B155" s="4" t="str">
+      <c r="B156" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex484 = texture {}</v>
       </c>
-      <c r="C155" s="4" t="str">
+      <c r="C156" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex484Slope = texture {}</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D156" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat484 = material {}</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E156" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat484Slope = material {}</v>
       </c>
-      <c r="F155" s="2" t="str">
-        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 154 - Dark_Orange
+      <c r="F156" s="2" t="str">
+        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 155 - Dark_Orange
 #declare MJHTex484 = texture {}
 #declare MJHTex484Slope = texture {}
 #declare MJHMat484 = material {}
@@ -27712,29 +28275,29 @@
 </v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
         <v>490</v>
       </c>
-      <c r="B156" s="4" t="str">
+      <c r="B157" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex490 = texture {}</v>
       </c>
-      <c r="C156" s="4" t="str">
+      <c r="C157" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex490Slope = texture {}</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D157" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat490 = material {}</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E157" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat490Slope = material {}</v>
       </c>
-      <c r="F156" s="2" t="str">
-        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 155 - Rubber_Lime
+      <c r="F157" s="2" t="str">
+        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 156 - Rubber_Lime
 #declare MJHTex490 = texture {}
 #declare MJHTex490Slope = texture {}
 #declare MJHMat490 = material {}
@@ -27742,29 +28305,29 @@
 </v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
         <v>493</v>
       </c>
-      <c r="B157" s="4" t="str">
+      <c r="B158" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex493 = texture {}</v>
       </c>
-      <c r="C157" s="4" t="str">
+      <c r="C158" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex493Slope = texture {}</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D158" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat493 = material {}</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E158" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat493Slope = material {}</v>
       </c>
-      <c r="F157" s="2" t="str">
-        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 156 - Magnet
+      <c r="F158" s="2" t="str">
+        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 157 - Magnet
 #declare MJHTex493 = texture {}
 #declare MJHTex493Slope = texture {}
 #declare MJHMat493 = material {}
@@ -27772,29 +28335,29 @@
 </v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
         <v>494</v>
       </c>
-      <c r="B158" s="4" t="str">
+      <c r="B159" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex494 = texture {}</v>
       </c>
-      <c r="C158" s="4" t="str">
+      <c r="C159" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex494Slope = texture {}</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D159" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat494 = material {}</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E159" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat494Slope = material {}</v>
       </c>
-      <c r="F158" s="2" t="str">
-        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 157 - Electric_Contact_Alloy
+      <c r="F159" s="2" t="str">
+        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 158 - Electric_Contact_Alloy
 #declare MJHTex494 = texture {}
 #declare MJHTex494Slope = texture {}
 #declare MJHMat494 = material {}
@@ -27802,29 +28365,29 @@
 </v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
         <v>495</v>
       </c>
-      <c r="B159" s="4" t="str">
+      <c r="B160" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex495 = texture {}</v>
       </c>
-      <c r="C159" s="4" t="str">
+      <c r="C160" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex495Slope = texture {}</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D160" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat495 = material {}</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E160" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat495Slope = material {}</v>
       </c>
-      <c r="F159" s="2" t="str">
-        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 158 - Electric_Contact_Copper
+      <c r="F160" s="2" t="str">
+        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 159 - Electric_Contact_Copper
 #declare MJHTex495 = texture {}
 #declare MJHTex495Slope = texture {}
 #declare MJHMat495 = material {}
@@ -27832,29 +28395,29 @@
 </v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
         <v>496</v>
       </c>
-      <c r="B160" s="4" t="str">
+      <c r="B161" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex496 = texture {}</v>
       </c>
-      <c r="C160" s="4" t="str">
+      <c r="C161" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex496Slope = texture {}</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D161" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat496 = material {}</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E161" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat496Slope = material {}</v>
       </c>
-      <c r="F160" s="2" t="str">
-        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 159 - Rubber_Light_Bluish_Grey
+      <c r="F161" s="2" t="str">
+        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 160 - Rubber_Light_Bluish_Grey
 #declare MJHTex496 = texture {}
 #declare MJHTex496Slope = texture {}
 #declare MJHMat496 = material {}
@@ -27862,29 +28425,29 @@
 </v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
         <v>503</v>
       </c>
-      <c r="B161" s="4" t="str">
+      <c r="B162" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex503 = texture {}</v>
       </c>
-      <c r="C161" s="4" t="str">
+      <c r="C162" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex503Slope = texture {}</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D162" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat503 = material {}</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E162" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat503Slope = material {}</v>
       </c>
-      <c r="F161" s="2" t="str">
-        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 160 - Very_Light_Grey
+      <c r="F162" s="2" t="str">
+        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 161 - Very_Light_Grey
 #declare MJHTex503 = texture {}
 #declare MJHTex503Slope = texture {}
 #declare MJHMat503 = material {}
@@ -27892,29 +28455,29 @@
 </v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
         <v>504</v>
       </c>
-      <c r="B162" s="4" t="str">
+      <c r="B163" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex504 = texture {}</v>
       </c>
-      <c r="C162" s="4" t="str">
+      <c r="C163" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex504Slope = texture {}</v>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D163" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat504 = material {}</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E163" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat504Slope = material {}</v>
       </c>
-      <c r="F162" s="2" t="str">
-        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 161 - Rubber_Flat_Silver
+      <c r="F163" s="2" t="str">
+        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 162 - Rubber_Flat_Silver
 #declare MJHTex504 = texture {}
 #declare MJHTex504Slope = texture {}
 #declare MJHMat504 = material {}
@@ -27922,29 +28485,119 @@
 </v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
+    <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>507</v>
+      </c>
+      <c r="B164" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#declare MJHTex507 = texture {}</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#declare MJHTex507Slope = texture {}</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#declare MJHMat507 = material {}</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#declare MJHMat507Slope = material {}</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f>"// row "&amp;(ROW($A164)-1)&amp;" - "&amp;codes!$B164&amp;CHAR(10)&amp;$B164&amp;CHAR(10)&amp;$C164&amp;CHAR(10)&amp;$D164&amp;CHAR(10)&amp;$E164&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 163 - Light_Orange_Brown
+#declare MJHTex507 = texture {}
+#declare MJHTex507Slope = texture {}
+#declare MJHMat507 = material {}
+#declare MJHMat507Slope = material {}
+</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>508</v>
+      </c>
+      <c r="B165" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#declare MJHTex508 = texture {}</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#declare MJHTex508Slope = texture {}</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#declare MJHMat508 = material {}</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#declare MJHMat508Slope = material {}</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f>"// row "&amp;(ROW($A165)-1)&amp;" - "&amp;codes!$B165&amp;CHAR(10)&amp;$B165&amp;CHAR(10)&amp;$C165&amp;CHAR(10)&amp;$D165&amp;CHAR(10)&amp;$E165&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 164 - Fabuland_Red
+#declare MJHTex508 = texture {}
+#declare MJHTex508Slope = texture {}
+#declare MJHMat508 = material {}
+#declare MJHMat508Slope = material {}
+</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>509</v>
+      </c>
+      <c r="B166" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#declare MJHTex509 = texture {}</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#declare MJHTex509Slope = texture {}</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#declare MJHMat509 = material {}</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#declare MJHMat509Slope = material {}</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f>"// row "&amp;(ROW($A166)-1)&amp;" - "&amp;codes!$B166&amp;CHAR(10)&amp;$B166&amp;CHAR(10)&amp;$C166&amp;CHAR(10)&amp;$D166&amp;CHAR(10)&amp;$E166&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 165 - Fabuland_Orange
+#declare MJHTex509 = texture {}
+#declare MJHTex509Slope = texture {}
+#declare MJHMat509 = material {}
+#declare MJHMat509Slope = material {}
+</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
         <v>511</v>
       </c>
-      <c r="B163" s="4" t="str">
+      <c r="B167" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#declare MJHTex511 = texture {}</v>
       </c>
-      <c r="C163" s="4" t="str">
+      <c r="C167" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#declare MJHTex511Slope = texture {}</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D167" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#declare MJHMat511 = material {}</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E167" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#declare MJHMat511Slope = material {}</v>
       </c>
-      <c r="F163" s="2" t="str">
-        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 162 - Rubber_White
+      <c r="F167" s="2" t="str">
+        <f>"// row "&amp;(ROW($A167)-1)&amp;" - "&amp;codes!$B167&amp;CHAR(10)&amp;$B167&amp;CHAR(10)&amp;$C167&amp;CHAR(10)&amp;$D167&amp;CHAR(10)&amp;$E167&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 166 - Rubber_White
 #declare MJHTex511 = texture {}
 #declare MJHTex511Slope = texture {}
 #declare MJHMat511 = material {}
@@ -27959,11 +28612,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L163"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="A71:XFD71"/>
+      <selection pane="bottomLeft" activeCell="L167" sqref="L2:L167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35110,35 +35763,35 @@
         <v>313</v>
       </c>
       <c r="C131" s="4" t="str">
-        <f t="shared" ref="C131:C163" si="16">"#declare LDXColor"&amp;$B131&amp;" = MJHMat"&amp;$B131&amp;";"</f>
+        <f t="shared" ref="C131:C167" si="16">"#declare LDXColor"&amp;$B131&amp;" = MJHMat"&amp;$B131&amp;";"</f>
         <v>#declare LDXColor313 = MJHMat313;</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D163" si="17">"#declare LDXColor"&amp;$B131&amp;"_slope = MJHMat"&amp;$B131&amp;"Slope;"</f>
+        <f t="shared" ref="D131:D167" si="17">"#declare LDXColor"&amp;$B131&amp;"_slope = MJHMat"&amp;$B131&amp;"Slope;"</f>
         <v>#declare LDXColor313_slope = MJHMat313Slope;</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E163" si="18">"#declare L3Texture"&amp;$B131&amp;" = MJHTex"&amp;$B131&amp;";"</f>
+        <f t="shared" ref="E131:E167" si="18">"#declare L3Texture"&amp;$B131&amp;" = MJHTex"&amp;$B131&amp;";"</f>
         <v>#declare L3Texture313 = MJHTex313;</v>
       </c>
       <c r="F131" s="4" t="str">
-        <f t="shared" ref="F131:F163" si="19">"#declare L3Texture"&amp;$B131&amp;"_slope = MJHTex"&amp;$B131&amp;"Slope;"</f>
+        <f t="shared" ref="F131:F167" si="19">"#declare L3Texture"&amp;$B131&amp;"_slope = MJHTex"&amp;$B131&amp;"Slope;"</f>
         <v>#declare L3Texture313_slope = MJHTex313Slope;</v>
       </c>
       <c r="G131" s="4" t="str">
-        <f t="shared" ref="G131:G163" si="20">"#declare L3Color"&amp;$B131&amp;" = MJHMat"&amp;$B131&amp;";"</f>
+        <f t="shared" ref="G131:G167" si="20">"#declare L3Color"&amp;$B131&amp;" = MJHMat"&amp;$B131&amp;";"</f>
         <v>#declare L3Color313 = MJHMat313;</v>
       </c>
       <c r="H131" s="4" t="str">
-        <f t="shared" ref="H131:H163" si="21">"#declare L3Color"&amp;$B131&amp;"_slope = MJHMat"&amp;$B131&amp;"Slope;"</f>
+        <f t="shared" ref="H131:H167" si="21">"#declare L3Color"&amp;$B131&amp;"_slope = MJHMat"&amp;$B131&amp;"Slope;"</f>
         <v>#declare L3Color313_slope = MJHMat313Slope;</v>
       </c>
       <c r="I131" s="4" t="str">
-        <f t="shared" ref="I131:I163" si="22">"#declare ldMat"&amp;$B131&amp;" = MJHMat"&amp;$B131&amp;";"</f>
+        <f t="shared" ref="I131:I167" si="22">"#declare ldMat"&amp;$B131&amp;" = MJHMat"&amp;$B131&amp;";"</f>
         <v>#declare ldMat313 = MJHMat313;</v>
       </c>
       <c r="J131" s="4" t="str">
-        <f t="shared" ref="J131:J163" si="23">"#declare ldTex"&amp;$B131&amp;" = MJHTex"&amp;$B131&amp;";"</f>
+        <f t="shared" ref="J131:J167" si="23">"#declare ldTex"&amp;$B131&amp;" = MJHTex"&amp;$B131&amp;";"</f>
         <v>#declare ldTex313 = MJHTex313;</v>
       </c>
       <c r="K131" s="4" t="str">
@@ -35875,49 +36528,104 @@
 </v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C145" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>#declare LDXColor366 = MJHMat366;</v>
+        <v>#declare LDXColor353 = MJHMat353;</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>#declare LDXColor366_slope = MJHMat366Slope;</v>
+        <v>#declare LDXColor353_slope = MJHMat353Slope;</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>#declare L3Texture366 = MJHTex366;</v>
+        <v>#declare L3Texture353 = MJHTex353;</v>
       </c>
       <c r="F145" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>#declare L3Texture366_slope = MJHTex366Slope;</v>
+        <v>#declare L3Texture353_slope = MJHTex353Slope;</v>
       </c>
       <c r="G145" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>#declare L3Color366 = MJHMat366;</v>
+        <v>#declare L3Color353 = MJHMat353;</v>
       </c>
       <c r="H145" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>#declare L3Color366_slope = MJHMat366Slope;</v>
+        <v>#declare L3Color353_slope = MJHMat353Slope;</v>
       </c>
       <c r="I145" s="4" t="str">
         <f t="shared" si="22"/>
-        <v>#declare ldMat366 = MJHMat366;</v>
+        <v>#declare ldMat353 = MJHMat353;</v>
       </c>
       <c r="J145" s="4" t="str">
         <f t="shared" si="23"/>
-        <v>#declare ldTex366 = MJHTex366;</v>
+        <v>#declare ldTex353 = MJHTex353;</v>
       </c>
       <c r="K145" s="4" t="str">
         <f>"#declare "&amp;codes!$C145&amp;" = MJHTex"&amp;$B145&amp;";"</f>
-        <v>#declare lg_earth_orange = MJHTex366;</v>
+        <v>#declare lg_undefined = MJHTex353;</v>
       </c>
       <c r="L145" s="2" t="str">
         <f>"// row "&amp;(ROW($B145)-1)&amp;" - "&amp;codes!$B145&amp;CHAR(10)&amp;$C145&amp;CHAR(10)&amp;$D145&amp;CHAR(10)&amp;$E145&amp;CHAR(10)&amp;$F145&amp;CHAR(10)&amp;$G145&amp;CHAR(10)&amp;$H145&amp;CHAR(10)&amp;$I145&amp;CHAR(10)&amp;$J145&amp;CHAR(10)&amp;$K145&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 144 - Earth_Orange
+        <v xml:space="preserve">// row 144 - Coral
+#declare LDXColor353 = MJHMat353;
+#declare LDXColor353_slope = MJHMat353Slope;
+#declare L3Texture353 = MJHTex353;
+#declare L3Texture353_slope = MJHTex353Slope;
+#declare L3Color353 = MJHMat353;
+#declare L3Color353_slope = MJHMat353Slope;
+#declare ldMat353 = MJHMat353;
+#declare ldTex353 = MJHTex353;
+#declare lg_undefined = MJHTex353;
+</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B146" s="4">
+        <v>366</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>#declare LDXColor366 = MJHMat366;</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>#declare LDXColor366_slope = MJHMat366Slope;</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>#declare L3Texture366 = MJHTex366;</v>
+      </c>
+      <c r="F146" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>#declare L3Texture366_slope = MJHTex366Slope;</v>
+      </c>
+      <c r="G146" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>#declare L3Color366 = MJHMat366;</v>
+      </c>
+      <c r="H146" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>#declare L3Color366_slope = MJHMat366Slope;</v>
+      </c>
+      <c r="I146" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>#declare ldMat366 = MJHMat366;</v>
+      </c>
+      <c r="J146" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>#declare ldTex366 = MJHTex366;</v>
+      </c>
+      <c r="K146" s="4" t="str">
+        <f>"#declare "&amp;codes!$C146&amp;" = MJHTex"&amp;$B146&amp;";"</f>
+        <v>#declare lg_earth_orange = MJHTex366;</v>
+      </c>
+      <c r="L146" s="2" t="str">
+        <f>"// row "&amp;(ROW($B146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)&amp;$F146&amp;CHAR(10)&amp;$G146&amp;CHAR(10)&amp;$H146&amp;CHAR(10)&amp;$I146&amp;CHAR(10)&amp;$J146&amp;CHAR(10)&amp;$K146&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 145 - Earth_Orange
 #declare LDXColor366 = MJHMat366;
 #declare LDXColor366_slope = MJHMat366Slope;
 #declare L3Texture366 = MJHTex366;
@@ -35930,49 +36638,49 @@
 </v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B146" s="4">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B147" s="4">
         <v>373</v>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C147" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor373 = MJHMat373;</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D147" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor373_slope = MJHMat373Slope;</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E147" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture373 = MJHTex373;</v>
       </c>
-      <c r="F146" s="4" t="str">
+      <c r="F147" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture373_slope = MJHTex373Slope;</v>
       </c>
-      <c r="G146" s="4" t="str">
+      <c r="G147" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color373 = MJHMat373;</v>
       </c>
-      <c r="H146" s="4" t="str">
+      <c r="H147" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color373_slope = MJHMat373Slope;</v>
       </c>
-      <c r="I146" s="4" t="str">
+      <c r="I147" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat373 = MJHMat373;</v>
       </c>
-      <c r="J146" s="4" t="str">
+      <c r="J147" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex373 = MJHTex373;</v>
       </c>
-      <c r="K146" s="4" t="str">
-        <f>"#declare "&amp;codes!$C146&amp;" = MJHTex"&amp;$B146&amp;";"</f>
+      <c r="K147" s="4" t="str">
+        <f>"#declare "&amp;codes!$C147&amp;" = MJHTex"&amp;$B147&amp;";"</f>
         <v>#declare lg_sand_purple = MJHTex373;</v>
       </c>
-      <c r="L146" s="2" t="str">
-        <f>"// row "&amp;(ROW($B146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)&amp;$F146&amp;CHAR(10)&amp;$G146&amp;CHAR(10)&amp;$H146&amp;CHAR(10)&amp;$I146&amp;CHAR(10)&amp;$J146&amp;CHAR(10)&amp;$K146&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 145 - Sand_Purple
+      <c r="L147" s="2" t="str">
+        <f>"// row "&amp;(ROW($B147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)&amp;$F147&amp;CHAR(10)&amp;$G147&amp;CHAR(10)&amp;$H147&amp;CHAR(10)&amp;$I147&amp;CHAR(10)&amp;$J147&amp;CHAR(10)&amp;$K147&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 146 - Sand_Purple
 #declare LDXColor373 = MJHMat373;
 #declare LDXColor373_slope = MJHMat373Slope;
 #declare L3Texture373 = MJHTex373;
@@ -35985,49 +36693,49 @@
 </v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B147" s="4">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B148" s="4">
         <v>375</v>
       </c>
-      <c r="C147" s="4" t="str">
+      <c r="C148" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor375 = MJHMat375;</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D148" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor375_slope = MJHMat375Slope;</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E148" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture375 = MJHTex375;</v>
       </c>
-      <c r="F147" s="4" t="str">
+      <c r="F148" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture375_slope = MJHTex375Slope;</v>
       </c>
-      <c r="G147" s="4" t="str">
+      <c r="G148" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color375 = MJHMat375;</v>
       </c>
-      <c r="H147" s="4" t="str">
+      <c r="H148" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color375_slope = MJHMat375Slope;</v>
       </c>
-      <c r="I147" s="4" t="str">
+      <c r="I148" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat375 = MJHMat375;</v>
       </c>
-      <c r="J147" s="4" t="str">
+      <c r="J148" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex375 = MJHTex375;</v>
       </c>
-      <c r="K147" s="4" t="str">
-        <f>"#declare "&amp;codes!$C147&amp;" = MJHTex"&amp;$B147&amp;";"</f>
+      <c r="K148" s="4" t="str">
+        <f>"#declare "&amp;codes!$C148&amp;" = MJHTex"&amp;$B148&amp;";"</f>
         <v>#declare lg_rubber_light_gray = MJHTex375;</v>
       </c>
-      <c r="L147" s="2" t="str">
-        <f>"// row "&amp;(ROW($B147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)&amp;$F147&amp;CHAR(10)&amp;$G147&amp;CHAR(10)&amp;$H147&amp;CHAR(10)&amp;$I147&amp;CHAR(10)&amp;$J147&amp;CHAR(10)&amp;$K147&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 146 - Rubber_Light_Grey
+      <c r="L148" s="2" t="str">
+        <f>"// row "&amp;(ROW($B148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)&amp;$F148&amp;CHAR(10)&amp;$G148&amp;CHAR(10)&amp;$H148&amp;CHAR(10)&amp;$I148&amp;CHAR(10)&amp;$J148&amp;CHAR(10)&amp;$K148&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 147 - Rubber_Light_Grey
 #declare LDXColor375 = MJHMat375;
 #declare LDXColor375_slope = MJHMat375Slope;
 #declare L3Texture375 = MJHTex375;
@@ -36040,49 +36748,49 @@
 </v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B148" s="4">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B149" s="4">
         <v>378</v>
       </c>
-      <c r="C148" s="4" t="str">
+      <c r="C149" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor378 = MJHMat378;</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D149" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor378_slope = MJHMat378Slope;</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E149" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture378 = MJHTex378;</v>
       </c>
-      <c r="F148" s="4" t="str">
+      <c r="F149" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture378_slope = MJHTex378Slope;</v>
       </c>
-      <c r="G148" s="4" t="str">
+      <c r="G149" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color378 = MJHMat378;</v>
       </c>
-      <c r="H148" s="4" t="str">
+      <c r="H149" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color378_slope = MJHMat378Slope;</v>
       </c>
-      <c r="I148" s="4" t="str">
+      <c r="I149" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat378 = MJHMat378;</v>
       </c>
-      <c r="J148" s="4" t="str">
+      <c r="J149" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex378 = MJHTex378;</v>
       </c>
-      <c r="K148" s="4" t="str">
-        <f>"#declare "&amp;codes!$C148&amp;" = MJHTex"&amp;$B148&amp;";"</f>
+      <c r="K149" s="4" t="str">
+        <f>"#declare "&amp;codes!$C149&amp;" = MJHTex"&amp;$B149&amp;";"</f>
         <v>#declare lg_sand_green = MJHTex378;</v>
       </c>
-      <c r="L148" s="2" t="str">
-        <f>"// row "&amp;(ROW($B148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)&amp;$F148&amp;CHAR(10)&amp;$G148&amp;CHAR(10)&amp;$H148&amp;CHAR(10)&amp;$I148&amp;CHAR(10)&amp;$J148&amp;CHAR(10)&amp;$K148&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 147 - Sand_Green
+      <c r="L149" s="2" t="str">
+        <f>"// row "&amp;(ROW($B149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)&amp;$F149&amp;CHAR(10)&amp;$G149&amp;CHAR(10)&amp;$H149&amp;CHAR(10)&amp;$I149&amp;CHAR(10)&amp;$J149&amp;CHAR(10)&amp;$K149&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 148 - Sand_Green
 #declare LDXColor378 = MJHMat378;
 #declare LDXColor378_slope = MJHMat378Slope;
 #declare L3Texture378 = MJHTex378;
@@ -36095,49 +36803,49 @@
 </v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B149" s="4">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B150" s="4">
         <v>379</v>
       </c>
-      <c r="C149" s="4" t="str">
+      <c r="C150" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor379 = MJHMat379;</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D150" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor379_slope = MJHMat379Slope;</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E150" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture379 = MJHTex379;</v>
       </c>
-      <c r="F149" s="4" t="str">
+      <c r="F150" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture379_slope = MJHTex379Slope;</v>
       </c>
-      <c r="G149" s="4" t="str">
+      <c r="G150" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color379 = MJHMat379;</v>
       </c>
-      <c r="H149" s="4" t="str">
+      <c r="H150" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color379_slope = MJHMat379Slope;</v>
       </c>
-      <c r="I149" s="4" t="str">
+      <c r="I150" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat379 = MJHMat379;</v>
       </c>
-      <c r="J149" s="4" t="str">
+      <c r="J150" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex379 = MJHTex379;</v>
       </c>
-      <c r="K149" s="4" t="str">
-        <f>"#declare "&amp;codes!$C149&amp;" = MJHTex"&amp;$B149&amp;";"</f>
+      <c r="K150" s="4" t="str">
+        <f>"#declare "&amp;codes!$C150&amp;" = MJHTex"&amp;$B150&amp;";"</f>
         <v>#declare lg_sand_blue = MJHTex379;</v>
       </c>
-      <c r="L149" s="2" t="str">
-        <f>"// row "&amp;(ROW($B149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)&amp;$F149&amp;CHAR(10)&amp;$G149&amp;CHAR(10)&amp;$H149&amp;CHAR(10)&amp;$I149&amp;CHAR(10)&amp;$J149&amp;CHAR(10)&amp;$K149&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 148 - Sand_Blue
+      <c r="L150" s="2" t="str">
+        <f>"// row "&amp;(ROW($B150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)&amp;$F150&amp;CHAR(10)&amp;$G150&amp;CHAR(10)&amp;$H150&amp;CHAR(10)&amp;$I150&amp;CHAR(10)&amp;$J150&amp;CHAR(10)&amp;$K150&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 149 - Sand_Blue
 #declare LDXColor379 = MJHMat379;
 #declare LDXColor379_slope = MJHMat379Slope;
 #declare L3Texture379 = MJHTex379;
@@ -36150,49 +36858,49 @@
 </v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B150" s="4">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B151" s="4">
         <v>383</v>
       </c>
-      <c r="C150" s="4" t="str">
+      <c r="C151" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor383 = MJHMat383;</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D151" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor383_slope = MJHMat383Slope;</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E151" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture383 = MJHTex383;</v>
       </c>
-      <c r="F150" s="4" t="str">
+      <c r="F151" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture383_slope = MJHTex383Slope;</v>
       </c>
-      <c r="G150" s="4" t="str">
+      <c r="G151" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color383 = MJHMat383;</v>
       </c>
-      <c r="H150" s="4" t="str">
+      <c r="H151" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color383_slope = MJHMat383Slope;</v>
       </c>
-      <c r="I150" s="4" t="str">
+      <c r="I151" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat383 = MJHMat383;</v>
       </c>
-      <c r="J150" s="4" t="str">
+      <c r="J151" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex383 = MJHTex383;</v>
       </c>
-      <c r="K150" s="4" t="str">
-        <f>"#declare "&amp;codes!$C150&amp;" = MJHTex"&amp;$B150&amp;";"</f>
+      <c r="K151" s="4" t="str">
+        <f>"#declare "&amp;codes!$C151&amp;" = MJHTex"&amp;$B151&amp;";"</f>
         <v>#declare lg_chrome = MJHTex383;</v>
       </c>
-      <c r="L150" s="2" t="str">
-        <f>"// row "&amp;(ROW($B150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)&amp;$F150&amp;CHAR(10)&amp;$G150&amp;CHAR(10)&amp;$H150&amp;CHAR(10)&amp;$I150&amp;CHAR(10)&amp;$J150&amp;CHAR(10)&amp;$K150&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 149 - Chrome_Silver
+      <c r="L151" s="2" t="str">
+        <f>"// row "&amp;(ROW($B151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)&amp;$F151&amp;CHAR(10)&amp;$G151&amp;CHAR(10)&amp;$H151&amp;CHAR(10)&amp;$I151&amp;CHAR(10)&amp;$J151&amp;CHAR(10)&amp;$K151&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 150 - Chrome_Silver
 #declare LDXColor383 = MJHMat383;
 #declare LDXColor383_slope = MJHMat383Slope;
 #declare L3Texture383 = MJHTex383;
@@ -36205,49 +36913,49 @@
 </v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B151" s="4">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B152" s="4">
         <v>406</v>
       </c>
-      <c r="C151" s="4" t="str">
+      <c r="C152" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor406 = MJHMat406;</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D152" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor406_slope = MJHMat406Slope;</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E152" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture406 = MJHTex406;</v>
       </c>
-      <c r="F151" s="4" t="str">
+      <c r="F152" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture406_slope = MJHTex406Slope;</v>
       </c>
-      <c r="G151" s="4" t="str">
+      <c r="G152" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color406 = MJHMat406;</v>
       </c>
-      <c r="H151" s="4" t="str">
+      <c r="H152" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color406_slope = MJHMat406Slope;</v>
       </c>
-      <c r="I151" s="4" t="str">
+      <c r="I152" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat406 = MJHMat406;</v>
       </c>
-      <c r="J151" s="4" t="str">
+      <c r="J152" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex406 = MJHTex406;</v>
       </c>
-      <c r="K151" s="4" t="str">
-        <f>"#declare "&amp;codes!$C151&amp;" = MJHTex"&amp;$B151&amp;";"</f>
+      <c r="K152" s="4" t="str">
+        <f>"#declare "&amp;codes!$C152&amp;" = MJHTex"&amp;$B152&amp;";"</f>
         <v>#declare lg_rubber_dark_blue = MJHTex406;</v>
       </c>
-      <c r="L151" s="2" t="str">
-        <f>"// row "&amp;(ROW($B151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)&amp;$F151&amp;CHAR(10)&amp;$G151&amp;CHAR(10)&amp;$H151&amp;CHAR(10)&amp;$I151&amp;CHAR(10)&amp;$J151&amp;CHAR(10)&amp;$K151&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 150 - Rubber_Dark_Blue
+      <c r="L152" s="2" t="str">
+        <f>"// row "&amp;(ROW($B152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)&amp;$F152&amp;CHAR(10)&amp;$G152&amp;CHAR(10)&amp;$H152&amp;CHAR(10)&amp;$I152&amp;CHAR(10)&amp;$J152&amp;CHAR(10)&amp;$K152&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 151 - Rubber_Dark_Blue
 #declare LDXColor406 = MJHMat406;
 #declare LDXColor406_slope = MJHMat406Slope;
 #declare L3Texture406 = MJHTex406;
@@ -36260,49 +36968,49 @@
 </v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B152" s="4">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B153" s="4">
         <v>449</v>
       </c>
-      <c r="C152" s="4" t="str">
+      <c r="C153" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor449 = MJHMat449;</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D153" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor449_slope = MJHMat449Slope;</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E153" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture449 = MJHTex449;</v>
       </c>
-      <c r="F152" s="4" t="str">
+      <c r="F153" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture449_slope = MJHTex449Slope;</v>
       </c>
-      <c r="G152" s="4" t="str">
+      <c r="G153" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color449 = MJHMat449;</v>
       </c>
-      <c r="H152" s="4" t="str">
+      <c r="H153" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color449_slope = MJHMat449Slope;</v>
       </c>
-      <c r="I152" s="4" t="str">
+      <c r="I153" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat449 = MJHMat449;</v>
       </c>
-      <c r="J152" s="4" t="str">
+      <c r="J153" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex449 = MJHTex449;</v>
       </c>
-      <c r="K152" s="4" t="str">
-        <f>"#declare "&amp;codes!$C152&amp;" = MJHTex"&amp;$B152&amp;";"</f>
+      <c r="K153" s="4" t="str">
+        <f>"#declare "&amp;codes!$C153&amp;" = MJHTex"&amp;$B153&amp;";"</f>
         <v>#declare lg_rubber_purple = MJHTex449;</v>
       </c>
-      <c r="L152" s="2" t="str">
-        <f>"// row "&amp;(ROW($B152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)&amp;$F152&amp;CHAR(10)&amp;$G152&amp;CHAR(10)&amp;$H152&amp;CHAR(10)&amp;$I152&amp;CHAR(10)&amp;$J152&amp;CHAR(10)&amp;$K152&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 151 - Rubber_Purple
+      <c r="L153" s="2" t="str">
+        <f>"// row "&amp;(ROW($B153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)&amp;$F153&amp;CHAR(10)&amp;$G153&amp;CHAR(10)&amp;$H153&amp;CHAR(10)&amp;$I153&amp;CHAR(10)&amp;$J153&amp;CHAR(10)&amp;$K153&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 152 - Rubber_Purple
 #declare LDXColor449 = MJHMat449;
 #declare LDXColor449_slope = MJHMat449Slope;
 #declare L3Texture449 = MJHTex449;
@@ -36315,49 +37023,49 @@
 </v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B153" s="4">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B154" s="4">
         <v>450</v>
       </c>
-      <c r="C153" s="4" t="str">
+      <c r="C154" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor450 = MJHMat450;</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D154" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor450_slope = MJHMat450Slope;</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E154" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture450 = MJHTex450;</v>
       </c>
-      <c r="F153" s="4" t="str">
+      <c r="F154" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture450_slope = MJHTex450Slope;</v>
       </c>
-      <c r="G153" s="4" t="str">
+      <c r="G154" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color450 = MJHMat450;</v>
       </c>
-      <c r="H153" s="4" t="str">
+      <c r="H154" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color450_slope = MJHMat450Slope;</v>
       </c>
-      <c r="I153" s="4" t="str">
+      <c r="I154" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat450 = MJHMat450;</v>
       </c>
-      <c r="J153" s="4" t="str">
+      <c r="J154" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex450 = MJHTex450;</v>
       </c>
-      <c r="K153" s="4" t="str">
-        <f>"#declare "&amp;codes!$C153&amp;" = MJHTex"&amp;$B153&amp;";"</f>
+      <c r="K154" s="4" t="str">
+        <f>"#declare "&amp;codes!$C154&amp;" = MJHTex"&amp;$B154&amp;";"</f>
         <v>#declare lg_fabuland_brown = MJHTex450;</v>
       </c>
-      <c r="L153" s="2" t="str">
-        <f>"// row "&amp;(ROW($B153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)&amp;$F153&amp;CHAR(10)&amp;$G153&amp;CHAR(10)&amp;$H153&amp;CHAR(10)&amp;$I153&amp;CHAR(10)&amp;$J153&amp;CHAR(10)&amp;$K153&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 152 - Fabuland_Brown
+      <c r="L154" s="2" t="str">
+        <f>"// row "&amp;(ROW($B154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)&amp;$F154&amp;CHAR(10)&amp;$G154&amp;CHAR(10)&amp;$H154&amp;CHAR(10)&amp;$I154&amp;CHAR(10)&amp;$J154&amp;CHAR(10)&amp;$K154&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 153 - Fabuland_Brown
 #declare LDXColor450 = MJHMat450;
 #declare LDXColor450_slope = MJHMat450Slope;
 #declare L3Texture450 = MJHTex450;
@@ -36370,49 +37078,49 @@
 </v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B154" s="4">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B155" s="4">
         <v>462</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C155" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor462 = MJHMat462;</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D155" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor462_slope = MJHMat462Slope;</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E155" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture462 = MJHTex462;</v>
       </c>
-      <c r="F154" s="4" t="str">
+      <c r="F155" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture462_slope = MJHTex462Slope;</v>
       </c>
-      <c r="G154" s="4" t="str">
+      <c r="G155" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color462 = MJHMat462;</v>
       </c>
-      <c r="H154" s="4" t="str">
+      <c r="H155" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color462_slope = MJHMat462Slope;</v>
       </c>
-      <c r="I154" s="4" t="str">
+      <c r="I155" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat462 = MJHMat462;</v>
       </c>
-      <c r="J154" s="4" t="str">
+      <c r="J155" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex462 = MJHTex462;</v>
       </c>
-      <c r="K154" s="4" t="str">
-        <f>"#declare "&amp;codes!$C154&amp;" = MJHTex"&amp;$B154&amp;";"</f>
+      <c r="K155" s="4" t="str">
+        <f>"#declare "&amp;codes!$C155&amp;" = MJHTex"&amp;$B155&amp;";"</f>
         <v>#declare lg_light_orange = MJHTex462;</v>
       </c>
-      <c r="L154" s="2" t="str">
-        <f>"// row "&amp;(ROW($B154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)&amp;$F154&amp;CHAR(10)&amp;$G154&amp;CHAR(10)&amp;$H154&amp;CHAR(10)&amp;$I154&amp;CHAR(10)&amp;$J154&amp;CHAR(10)&amp;$K154&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 153 - Medium_Orange
+      <c r="L155" s="2" t="str">
+        <f>"// row "&amp;(ROW($B155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)&amp;$F155&amp;CHAR(10)&amp;$G155&amp;CHAR(10)&amp;$H155&amp;CHAR(10)&amp;$I155&amp;CHAR(10)&amp;$J155&amp;CHAR(10)&amp;$K155&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 154 - Medium_Orange
 #declare LDXColor462 = MJHMat462;
 #declare LDXColor462_slope = MJHMat462Slope;
 #declare L3Texture462 = MJHTex462;
@@ -36425,49 +37133,49 @@
 </v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B155" s="4">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B156" s="4">
         <v>484</v>
       </c>
-      <c r="C155" s="4" t="str">
+      <c r="C156" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor484 = MJHMat484;</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D156" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor484_slope = MJHMat484Slope;</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E156" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture484 = MJHTex484;</v>
       </c>
-      <c r="F155" s="4" t="str">
+      <c r="F156" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture484_slope = MJHTex484Slope;</v>
       </c>
-      <c r="G155" s="4" t="str">
+      <c r="G156" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color484 = MJHMat484;</v>
       </c>
-      <c r="H155" s="4" t="str">
+      <c r="H156" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color484_slope = MJHMat484Slope;</v>
       </c>
-      <c r="I155" s="4" t="str">
+      <c r="I156" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat484 = MJHMat484;</v>
       </c>
-      <c r="J155" s="4" t="str">
+      <c r="J156" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex484 = MJHTex484;</v>
       </c>
-      <c r="K155" s="4" t="str">
-        <f>"#declare "&amp;codes!$C155&amp;" = MJHTex"&amp;$B155&amp;";"</f>
+      <c r="K156" s="4" t="str">
+        <f>"#declare "&amp;codes!$C156&amp;" = MJHTex"&amp;$B156&amp;";"</f>
         <v>#declare lg_dark_orange = MJHTex484;</v>
       </c>
-      <c r="L155" s="2" t="str">
-        <f>"// row "&amp;(ROW($B155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)&amp;$F155&amp;CHAR(10)&amp;$G155&amp;CHAR(10)&amp;$H155&amp;CHAR(10)&amp;$I155&amp;CHAR(10)&amp;$J155&amp;CHAR(10)&amp;$K155&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 154 - Dark_Orange
+      <c r="L156" s="2" t="str">
+        <f>"// row "&amp;(ROW($B156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)&amp;$F156&amp;CHAR(10)&amp;$G156&amp;CHAR(10)&amp;$H156&amp;CHAR(10)&amp;$I156&amp;CHAR(10)&amp;$J156&amp;CHAR(10)&amp;$K156&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 155 - Dark_Orange
 #declare LDXColor484 = MJHMat484;
 #declare LDXColor484_slope = MJHMat484Slope;
 #declare L3Texture484 = MJHTex484;
@@ -36480,49 +37188,49 @@
 </v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B156" s="4">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B157" s="4">
         <v>490</v>
       </c>
-      <c r="C156" s="4" t="str">
+      <c r="C157" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor490 = MJHMat490;</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D157" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor490_slope = MJHMat490Slope;</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E157" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture490 = MJHTex490;</v>
       </c>
-      <c r="F156" s="4" t="str">
+      <c r="F157" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture490_slope = MJHTex490Slope;</v>
       </c>
-      <c r="G156" s="4" t="str">
+      <c r="G157" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color490 = MJHMat490;</v>
       </c>
-      <c r="H156" s="4" t="str">
+      <c r="H157" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color490_slope = MJHMat490Slope;</v>
       </c>
-      <c r="I156" s="4" t="str">
+      <c r="I157" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat490 = MJHMat490;</v>
       </c>
-      <c r="J156" s="4" t="str">
+      <c r="J157" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex490 = MJHTex490;</v>
       </c>
-      <c r="K156" s="4" t="str">
-        <f>"#declare "&amp;codes!$C156&amp;" = MJHTex"&amp;$B156&amp;";"</f>
+      <c r="K157" s="4" t="str">
+        <f>"#declare "&amp;codes!$C157&amp;" = MJHTex"&amp;$B157&amp;";"</f>
         <v>#declare lg_rubber_lime = MJHTex490;</v>
       </c>
-      <c r="L156" s="2" t="str">
-        <f>"// row "&amp;(ROW($B156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)&amp;$F156&amp;CHAR(10)&amp;$G156&amp;CHAR(10)&amp;$H156&amp;CHAR(10)&amp;$I156&amp;CHAR(10)&amp;$J156&amp;CHAR(10)&amp;$K156&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 155 - Rubber_Lime
+      <c r="L157" s="2" t="str">
+        <f>"// row "&amp;(ROW($B157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)&amp;$F157&amp;CHAR(10)&amp;$G157&amp;CHAR(10)&amp;$H157&amp;CHAR(10)&amp;$I157&amp;CHAR(10)&amp;$J157&amp;CHAR(10)&amp;$K157&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 156 - Rubber_Lime
 #declare LDXColor490 = MJHMat490;
 #declare LDXColor490_slope = MJHMat490Slope;
 #declare L3Texture490 = MJHTex490;
@@ -36535,49 +37243,49 @@
 </v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B157" s="4">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B158" s="4">
         <v>493</v>
       </c>
-      <c r="C157" s="4" t="str">
+      <c r="C158" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor493 = MJHMat493;</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D158" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor493_slope = MJHMat493Slope;</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E158" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture493 = MJHTex493;</v>
       </c>
-      <c r="F157" s="4" t="str">
+      <c r="F158" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture493_slope = MJHTex493Slope;</v>
       </c>
-      <c r="G157" s="4" t="str">
+      <c r="G158" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color493 = MJHMat493;</v>
       </c>
-      <c r="H157" s="4" t="str">
+      <c r="H158" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color493_slope = MJHMat493Slope;</v>
       </c>
-      <c r="I157" s="4" t="str">
+      <c r="I158" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat493 = MJHMat493;</v>
       </c>
-      <c r="J157" s="4" t="str">
+      <c r="J158" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex493 = MJHTex493;</v>
       </c>
-      <c r="K157" s="4" t="str">
-        <f>"#declare "&amp;codes!$C157&amp;" = MJHTex"&amp;$B157&amp;";"</f>
+      <c r="K158" s="4" t="str">
+        <f>"#declare "&amp;codes!$C158&amp;" = MJHTex"&amp;$B158&amp;";"</f>
         <v>#declare lg_magnet = MJHTex493;</v>
       </c>
-      <c r="L157" s="2" t="str">
-        <f>"// row "&amp;(ROW($B157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)&amp;$F157&amp;CHAR(10)&amp;$G157&amp;CHAR(10)&amp;$H157&amp;CHAR(10)&amp;$I157&amp;CHAR(10)&amp;$J157&amp;CHAR(10)&amp;$K157&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 156 - Magnet
+      <c r="L158" s="2" t="str">
+        <f>"// row "&amp;(ROW($B158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)&amp;$F158&amp;CHAR(10)&amp;$G158&amp;CHAR(10)&amp;$H158&amp;CHAR(10)&amp;$I158&amp;CHAR(10)&amp;$J158&amp;CHAR(10)&amp;$K158&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 157 - Magnet
 #declare LDXColor493 = MJHMat493;
 #declare LDXColor493_slope = MJHMat493Slope;
 #declare L3Texture493 = MJHTex493;
@@ -36590,49 +37298,49 @@
 </v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B158" s="4">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B159" s="4">
         <v>494</v>
       </c>
-      <c r="C158" s="4" t="str">
+      <c r="C159" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor494 = MJHMat494;</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D159" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor494_slope = MJHMat494Slope;</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E159" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture494 = MJHTex494;</v>
       </c>
-      <c r="F158" s="4" t="str">
+      <c r="F159" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture494_slope = MJHTex494Slope;</v>
       </c>
-      <c r="G158" s="4" t="str">
+      <c r="G159" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color494 = MJHMat494;</v>
       </c>
-      <c r="H158" s="4" t="str">
+      <c r="H159" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color494_slope = MJHMat494Slope;</v>
       </c>
-      <c r="I158" s="4" t="str">
+      <c r="I159" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat494 = MJHMat494;</v>
       </c>
-      <c r="J158" s="4" t="str">
+      <c r="J159" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex494 = MJHTex494;</v>
       </c>
-      <c r="K158" s="4" t="str">
-        <f>"#declare "&amp;codes!$C158&amp;" = MJHTex"&amp;$B158&amp;";"</f>
+      <c r="K159" s="4" t="str">
+        <f>"#declare "&amp;codes!$C159&amp;" = MJHTex"&amp;$B159&amp;";"</f>
         <v>#declare lg_electric_contact_alloy = MJHTex494;</v>
       </c>
-      <c r="L158" s="2" t="str">
-        <f>"// row "&amp;(ROW($B158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)&amp;$F158&amp;CHAR(10)&amp;$G158&amp;CHAR(10)&amp;$H158&amp;CHAR(10)&amp;$I158&amp;CHAR(10)&amp;$J158&amp;CHAR(10)&amp;$K158&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 157 - Electric_Contact_Alloy
+      <c r="L159" s="2" t="str">
+        <f>"// row "&amp;(ROW($B159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)&amp;$F159&amp;CHAR(10)&amp;$G159&amp;CHAR(10)&amp;$H159&amp;CHAR(10)&amp;$I159&amp;CHAR(10)&amp;$J159&amp;CHAR(10)&amp;$K159&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 158 - Electric_Contact_Alloy
 #declare LDXColor494 = MJHMat494;
 #declare LDXColor494_slope = MJHMat494Slope;
 #declare L3Texture494 = MJHTex494;
@@ -36645,49 +37353,49 @@
 </v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B159" s="4">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B160" s="4">
         <v>495</v>
       </c>
-      <c r="C159" s="4" t="str">
+      <c r="C160" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor495 = MJHMat495;</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D160" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor495_slope = MJHMat495Slope;</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E160" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture495 = MJHTex495;</v>
       </c>
-      <c r="F159" s="4" t="str">
+      <c r="F160" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture495_slope = MJHTex495Slope;</v>
       </c>
-      <c r="G159" s="4" t="str">
+      <c r="G160" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color495 = MJHMat495;</v>
       </c>
-      <c r="H159" s="4" t="str">
+      <c r="H160" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color495_slope = MJHMat495Slope;</v>
       </c>
-      <c r="I159" s="4" t="str">
+      <c r="I160" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat495 = MJHMat495;</v>
       </c>
-      <c r="J159" s="4" t="str">
+      <c r="J160" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex495 = MJHTex495;</v>
       </c>
-      <c r="K159" s="4" t="str">
-        <f>"#declare "&amp;codes!$C159&amp;" = MJHTex"&amp;$B159&amp;";"</f>
+      <c r="K160" s="4" t="str">
+        <f>"#declare "&amp;codes!$C160&amp;" = MJHTex"&amp;$B160&amp;";"</f>
         <v>#declare lg_undefined = MJHTex495;</v>
       </c>
-      <c r="L159" s="2" t="str">
-        <f>"// row "&amp;(ROW($B159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)&amp;$F159&amp;CHAR(10)&amp;$G159&amp;CHAR(10)&amp;$H159&amp;CHAR(10)&amp;$I159&amp;CHAR(10)&amp;$J159&amp;CHAR(10)&amp;$K159&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 158 - Electric_Contact_Copper
+      <c r="L160" s="2" t="str">
+        <f>"// row "&amp;(ROW($B160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)&amp;$F160&amp;CHAR(10)&amp;$G160&amp;CHAR(10)&amp;$H160&amp;CHAR(10)&amp;$I160&amp;CHAR(10)&amp;$J160&amp;CHAR(10)&amp;$K160&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 159 - Electric_Contact_Copper
 #declare LDXColor495 = MJHMat495;
 #declare LDXColor495_slope = MJHMat495Slope;
 #declare L3Texture495 = MJHTex495;
@@ -36700,49 +37408,49 @@
 </v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B160" s="4">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B161" s="4">
         <v>496</v>
       </c>
-      <c r="C160" s="4" t="str">
+      <c r="C161" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor496 = MJHMat496;</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D161" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor496_slope = MJHMat496Slope;</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E161" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture496 = MJHTex496;</v>
       </c>
-      <c r="F160" s="4" t="str">
+      <c r="F161" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture496_slope = MJHTex496Slope;</v>
       </c>
-      <c r="G160" s="4" t="str">
+      <c r="G161" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color496 = MJHMat496;</v>
       </c>
-      <c r="H160" s="4" t="str">
+      <c r="H161" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color496_slope = MJHMat496Slope;</v>
       </c>
-      <c r="I160" s="4" t="str">
+      <c r="I161" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat496 = MJHMat496;</v>
       </c>
-      <c r="J160" s="4" t="str">
+      <c r="J161" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex496 = MJHTex496;</v>
       </c>
-      <c r="K160" s="4" t="str">
-        <f>"#declare "&amp;codes!$C160&amp;" = MJHTex"&amp;$B160&amp;";"</f>
+      <c r="K161" s="4" t="str">
+        <f>"#declare "&amp;codes!$C161&amp;" = MJHTex"&amp;$B161&amp;";"</f>
         <v>#declare lg_rubber_light_bluish_gray = MJHTex496;</v>
       </c>
-      <c r="L160" s="2" t="str">
-        <f>"// row "&amp;(ROW($B160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)&amp;$F160&amp;CHAR(10)&amp;$G160&amp;CHAR(10)&amp;$H160&amp;CHAR(10)&amp;$I160&amp;CHAR(10)&amp;$J160&amp;CHAR(10)&amp;$K160&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 159 - Rubber_Light_Bluish_Grey
+      <c r="L161" s="2" t="str">
+        <f>"// row "&amp;(ROW($B161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)&amp;$F161&amp;CHAR(10)&amp;$G161&amp;CHAR(10)&amp;$H161&amp;CHAR(10)&amp;$I161&amp;CHAR(10)&amp;$J161&amp;CHAR(10)&amp;$K161&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 160 - Rubber_Light_Bluish_Grey
 #declare LDXColor496 = MJHMat496;
 #declare LDXColor496_slope = MJHMat496Slope;
 #declare L3Texture496 = MJHTex496;
@@ -36755,49 +37463,49 @@
 </v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B161" s="4">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B162" s="4">
         <v>503</v>
       </c>
-      <c r="C161" s="4" t="str">
+      <c r="C162" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor503 = MJHMat503;</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D162" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor503_slope = MJHMat503Slope;</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E162" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture503 = MJHTex503;</v>
       </c>
-      <c r="F161" s="4" t="str">
+      <c r="F162" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture503_slope = MJHTex503Slope;</v>
       </c>
-      <c r="G161" s="4" t="str">
+      <c r="G162" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color503 = MJHMat503;</v>
       </c>
-      <c r="H161" s="4" t="str">
+      <c r="H162" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color503_slope = MJHMat503Slope;</v>
       </c>
-      <c r="I161" s="4" t="str">
+      <c r="I162" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat503 = MJHMat503;</v>
       </c>
-      <c r="J161" s="4" t="str">
+      <c r="J162" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex503 = MJHTex503;</v>
       </c>
-      <c r="K161" s="4" t="str">
-        <f>"#declare "&amp;codes!$C161&amp;" = MJHTex"&amp;$B161&amp;";"</f>
+      <c r="K162" s="4" t="str">
+        <f>"#declare "&amp;codes!$C162&amp;" = MJHTex"&amp;$B162&amp;";"</f>
         <v>#declare lg_very_light_grey = MJHTex503;</v>
       </c>
-      <c r="L161" s="2" t="str">
-        <f>"// row "&amp;(ROW($B161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)&amp;$F161&amp;CHAR(10)&amp;$G161&amp;CHAR(10)&amp;$H161&amp;CHAR(10)&amp;$I161&amp;CHAR(10)&amp;$J161&amp;CHAR(10)&amp;$K161&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 160 - Very_Light_Grey
+      <c r="L162" s="2" t="str">
+        <f>"// row "&amp;(ROW($B162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)&amp;$F162&amp;CHAR(10)&amp;$G162&amp;CHAR(10)&amp;$H162&amp;CHAR(10)&amp;$I162&amp;CHAR(10)&amp;$J162&amp;CHAR(10)&amp;$K162&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 161 - Very_Light_Grey
 #declare LDXColor503 = MJHMat503;
 #declare LDXColor503_slope = MJHMat503Slope;
 #declare L3Texture503 = MJHTex503;
@@ -36810,49 +37518,49 @@
 </v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B162" s="4">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B163" s="4">
         <v>504</v>
       </c>
-      <c r="C162" s="4" t="str">
+      <c r="C163" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor504 = MJHMat504;</v>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D163" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor504_slope = MJHMat504Slope;</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E163" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture504 = MJHTex504;</v>
       </c>
-      <c r="F162" s="4" t="str">
+      <c r="F163" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture504_slope = MJHTex504Slope;</v>
       </c>
-      <c r="G162" s="4" t="str">
+      <c r="G163" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color504 = MJHMat504;</v>
       </c>
-      <c r="H162" s="4" t="str">
+      <c r="H163" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color504_slope = MJHMat504Slope;</v>
       </c>
-      <c r="I162" s="4" t="str">
+      <c r="I163" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat504 = MJHMat504;</v>
       </c>
-      <c r="J162" s="4" t="str">
+      <c r="J163" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex504 = MJHTex504;</v>
       </c>
-      <c r="K162" s="4" t="str">
-        <f>"#declare "&amp;codes!$C162&amp;" = MJHTex"&amp;$B162&amp;";"</f>
+      <c r="K163" s="4" t="str">
+        <f>"#declare "&amp;codes!$C163&amp;" = MJHTex"&amp;$B163&amp;";"</f>
         <v>#declare lg_rubber_flat_silver = MJHTex504;</v>
       </c>
-      <c r="L162" s="2" t="str">
-        <f>"// row "&amp;(ROW($B162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)&amp;$F162&amp;CHAR(10)&amp;$G162&amp;CHAR(10)&amp;$H162&amp;CHAR(10)&amp;$I162&amp;CHAR(10)&amp;$J162&amp;CHAR(10)&amp;$K162&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 161 - Rubber_Flat_Silver
+      <c r="L163" s="2" t="str">
+        <f>"// row "&amp;(ROW($B163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)&amp;$F163&amp;CHAR(10)&amp;$G163&amp;CHAR(10)&amp;$H163&amp;CHAR(10)&amp;$I163&amp;CHAR(10)&amp;$J163&amp;CHAR(10)&amp;$K163&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 162 - Rubber_Flat_Silver
 #declare LDXColor504 = MJHMat504;
 #declare LDXColor504_slope = MJHMat504Slope;
 #declare L3Texture504 = MJHTex504;
@@ -36865,49 +37573,224 @@
 </v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B163" s="4">
+    <row r="164" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="4">
+        <v>507</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>#declare LDXColor507 = MJHMat507;</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>#declare LDXColor507_slope = MJHMat507Slope;</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>#declare L3Texture507 = MJHTex507;</v>
+      </c>
+      <c r="F164" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>#declare L3Texture507_slope = MJHTex507Slope;</v>
+      </c>
+      <c r="G164" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>#declare L3Color507 = MJHMat507;</v>
+      </c>
+      <c r="H164" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>#declare L3Color507_slope = MJHMat507Slope;</v>
+      </c>
+      <c r="I164" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>#declare ldMat507 = MJHMat507;</v>
+      </c>
+      <c r="J164" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>#declare ldTex507 = MJHTex507;</v>
+      </c>
+      <c r="K164" s="4" t="str">
+        <f>"#declare "&amp;codes!$C164&amp;" = MJHTex"&amp;$B164&amp;";"</f>
+        <v>#declare lg_undefined = MJHTex507;</v>
+      </c>
+      <c r="L164" s="2" t="str">
+        <f>"// row "&amp;(ROW($B164)-1)&amp;" - "&amp;codes!$B164&amp;CHAR(10)&amp;$C164&amp;CHAR(10)&amp;$D164&amp;CHAR(10)&amp;$E164&amp;CHAR(10)&amp;$F164&amp;CHAR(10)&amp;$G164&amp;CHAR(10)&amp;$H164&amp;CHAR(10)&amp;$I164&amp;CHAR(10)&amp;$J164&amp;CHAR(10)&amp;$K164&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 163 - Light_Orange_Brown
+#declare LDXColor507 = MJHMat507;
+#declare LDXColor507_slope = MJHMat507Slope;
+#declare L3Texture507 = MJHTex507;
+#declare L3Texture507_slope = MJHTex507Slope;
+#declare L3Color507 = MJHMat507;
+#declare L3Color507_slope = MJHMat507Slope;
+#declare ldMat507 = MJHMat507;
+#declare ldTex507 = MJHTex507;
+#declare lg_undefined = MJHTex507;
+</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="4">
+        <v>508</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>#declare LDXColor508 = MJHMat508;</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>#declare LDXColor508_slope = MJHMat508Slope;</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>#declare L3Texture508 = MJHTex508;</v>
+      </c>
+      <c r="F165" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>#declare L3Texture508_slope = MJHTex508Slope;</v>
+      </c>
+      <c r="G165" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>#declare L3Color508 = MJHMat508;</v>
+      </c>
+      <c r="H165" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>#declare L3Color508_slope = MJHMat508Slope;</v>
+      </c>
+      <c r="I165" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>#declare ldMat508 = MJHMat508;</v>
+      </c>
+      <c r="J165" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>#declare ldTex508 = MJHTex508;</v>
+      </c>
+      <c r="K165" s="4" t="str">
+        <f>"#declare "&amp;codes!$C165&amp;" = MJHTex"&amp;$B165&amp;";"</f>
+        <v>#declare lg_undefined = MJHTex508;</v>
+      </c>
+      <c r="L165" s="2" t="str">
+        <f>"// row "&amp;(ROW($B165)-1)&amp;" - "&amp;codes!$B165&amp;CHAR(10)&amp;$C165&amp;CHAR(10)&amp;$D165&amp;CHAR(10)&amp;$E165&amp;CHAR(10)&amp;$F165&amp;CHAR(10)&amp;$G165&amp;CHAR(10)&amp;$H165&amp;CHAR(10)&amp;$I165&amp;CHAR(10)&amp;$J165&amp;CHAR(10)&amp;$K165&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 164 - Fabuland_Red
+#declare LDXColor508 = MJHMat508;
+#declare LDXColor508_slope = MJHMat508Slope;
+#declare L3Texture508 = MJHTex508;
+#declare L3Texture508_slope = MJHTex508Slope;
+#declare L3Color508 = MJHMat508;
+#declare L3Color508_slope = MJHMat508Slope;
+#declare ldMat508 = MJHMat508;
+#declare ldTex508 = MJHTex508;
+#declare lg_undefined = MJHTex508;
+</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="4">
+        <v>509</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>#declare LDXColor509 = MJHMat509;</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>#declare LDXColor509_slope = MJHMat509Slope;</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v>#declare L3Texture509 = MJHTex509;</v>
+      </c>
+      <c r="F166" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>#declare L3Texture509_slope = MJHTex509Slope;</v>
+      </c>
+      <c r="G166" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v>#declare L3Color509 = MJHMat509;</v>
+      </c>
+      <c r="H166" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>#declare L3Color509_slope = MJHMat509Slope;</v>
+      </c>
+      <c r="I166" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v>#declare ldMat509 = MJHMat509;</v>
+      </c>
+      <c r="J166" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>#declare ldTex509 = MJHTex509;</v>
+      </c>
+      <c r="K166" s="4" t="str">
+        <f>"#declare "&amp;codes!$C166&amp;" = MJHTex"&amp;$B166&amp;";"</f>
+        <v>#declare lg_undefined = MJHTex509;</v>
+      </c>
+      <c r="L166" s="2" t="str">
+        <f>"// row "&amp;(ROW($B166)-1)&amp;" - "&amp;codes!$B166&amp;CHAR(10)&amp;$C166&amp;CHAR(10)&amp;$D166&amp;CHAR(10)&amp;$E166&amp;CHAR(10)&amp;$F166&amp;CHAR(10)&amp;$G166&amp;CHAR(10)&amp;$H166&amp;CHAR(10)&amp;$I166&amp;CHAR(10)&amp;$J166&amp;CHAR(10)&amp;$K166&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 165 - Fabuland_Orange
+#declare LDXColor509 = MJHMat509;
+#declare LDXColor509_slope = MJHMat509Slope;
+#declare L3Texture509 = MJHTex509;
+#declare L3Texture509_slope = MJHTex509Slope;
+#declare L3Color509 = MJHMat509;
+#declare L3Color509_slope = MJHMat509Slope;
+#declare ldMat509 = MJHMat509;
+#declare ldTex509 = MJHTex509;
+#declare lg_undefined = MJHTex509;
+</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B167" s="4">
         <v>511</v>
       </c>
-      <c r="C163" s="4" t="str">
+      <c r="C167" s="4" t="str">
         <f t="shared" si="16"/>
         <v>#declare LDXColor511 = MJHMat511;</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D167" s="4" t="str">
         <f t="shared" si="17"/>
         <v>#declare LDXColor511_slope = MJHMat511Slope;</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E167" s="4" t="str">
         <f t="shared" si="18"/>
         <v>#declare L3Texture511 = MJHTex511;</v>
       </c>
-      <c r="F163" s="4" t="str">
+      <c r="F167" s="4" t="str">
         <f t="shared" si="19"/>
         <v>#declare L3Texture511_slope = MJHTex511Slope;</v>
       </c>
-      <c r="G163" s="4" t="str">
+      <c r="G167" s="4" t="str">
         <f t="shared" si="20"/>
         <v>#declare L3Color511 = MJHMat511;</v>
       </c>
-      <c r="H163" s="4" t="str">
+      <c r="H167" s="4" t="str">
         <f t="shared" si="21"/>
         <v>#declare L3Color511_slope = MJHMat511Slope;</v>
       </c>
-      <c r="I163" s="4" t="str">
+      <c r="I167" s="4" t="str">
         <f t="shared" si="22"/>
         <v>#declare ldMat511 = MJHMat511;</v>
       </c>
-      <c r="J163" s="4" t="str">
+      <c r="J167" s="4" t="str">
         <f t="shared" si="23"/>
         <v>#declare ldTex511 = MJHTex511;</v>
       </c>
-      <c r="K163" s="4" t="str">
-        <f>"#declare "&amp;codes!$C163&amp;" = MJHTex"&amp;$B163&amp;";"</f>
+      <c r="K167" s="4" t="str">
+        <f>"#declare "&amp;codes!$C167&amp;" = MJHTex"&amp;$B167&amp;";"</f>
         <v>#declare lg_rubber_white = MJHTex511;</v>
       </c>
-      <c r="L163" s="2" t="str">
-        <f>CLEAN("// row "&amp;(ROW($B163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)&amp;$F163&amp;CHAR(10)&amp;$G163&amp;CHAR(10)&amp;$H163&amp;CHAR(10)&amp;$I163&amp;CHAR(10)&amp;$J163&amp;CHAR(10)&amp;$K163&amp;CHAR(10))</f>
-        <v>// row 162 - Rubber_White#declare LDXColor511 = MJHMat511;#declare LDXColor511_slope = MJHMat511Slope;#declare L3Texture511 = MJHTex511;#declare L3Texture511_slope = MJHTex511Slope;#declare L3Color511 = MJHMat511;#declare L3Color511_slope = MJHMat511Slope;#declare ldMat511 = MJHMat511;#declare ldTex511 = MJHTex511;#declare lg_rubber_white = MJHTex511;</v>
+      <c r="L167" s="2" t="str">
+        <f>"// row "&amp;(ROW($B167)-1)&amp;" - "&amp;codes!$B167&amp;CHAR(10)&amp;$C167&amp;CHAR(10)&amp;$D167&amp;CHAR(10)&amp;$E167&amp;CHAR(10)&amp;$F167&amp;CHAR(10)&amp;$G167&amp;CHAR(10)&amp;$H167&amp;CHAR(10)&amp;$I167&amp;CHAR(10)&amp;$J167&amp;CHAR(10)&amp;$K167&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 166 - Rubber_White
+#declare LDXColor511 = MJHMat511;
+#declare LDXColor511_slope = MJHMat511Slope;
+#declare L3Texture511 = MJHTex511;
+#declare L3Texture511_slope = MJHTex511Slope;
+#declare L3Color511 = MJHMat511;
+#declare L3Color511_slope = MJHMat511Slope;
+#declare ldMat511 = MJHMat511;
+#declare ldTex511 = MJHTex511;
+#declare lg_rubber_white = MJHTex511;
+</v>
       </c>
     </row>
   </sheetData>
@@ -36918,11 +37801,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F167" sqref="F2:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40825,19 +41708,19 @@
         <v>313</v>
       </c>
       <c r="B131" s="4" t="str">
-        <f t="shared" ref="B131:B163" si="8">"#ifndef (MJHTex"&amp;$A131&amp;") #declare MJHTex"&amp;$A131&amp;" = texture {MJHMissingTex} #end"</f>
+        <f t="shared" ref="B131:B167" si="8">"#ifndef (MJHTex"&amp;$A131&amp;") #declare MJHTex"&amp;$A131&amp;" = texture {MJHMissingTex} #end"</f>
         <v>#ifndef (MJHTex313) #declare MJHTex313 = texture {MJHMissingTex} #end</v>
       </c>
       <c r="C131" s="4" t="str">
-        <f t="shared" ref="C131:C163" si="9">"#ifndef (MJHTex"&amp;$A131&amp;"Slope) #declare MJHTex"&amp;$A131&amp;"Slope = texture {MJHMissingTex} #end"</f>
+        <f t="shared" ref="C131:C167" si="9">"#ifndef (MJHTex"&amp;$A131&amp;"Slope) #declare MJHTex"&amp;$A131&amp;"Slope = texture {MJHMissingTex} #end"</f>
         <v>#ifndef (MJHTex313Slope) #declare MJHTex313Slope = texture {MJHMissingTex} #end</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f t="shared" ref="D131:D163" si="10">"#ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = material {MJHMissingMat} #end"</f>
+        <f t="shared" ref="D131:D167" si="10">"#ifndef (MJHMat"&amp;$A131&amp;") #declare MJHMat"&amp;$A131&amp;" = material {MJHMissingMat} #end"</f>
         <v>#ifndef (MJHMat313) #declare MJHMat313 = material {MJHMissingMat} #end</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f t="shared" ref="E131:E163" si="11">"#ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = material {MJHMissingMat} #end"</f>
+        <f t="shared" ref="E131:E167" si="11">"#ifndef (MJHMat"&amp;$A131&amp;"Slope) #declare MJHMat"&amp;$A131&amp;"Slope = material {MJHMissingMat} #end"</f>
         <v>#ifndef (MJHMat313Slope) #declare MJHMat313Slope = material {MJHMissingMat} #end</v>
       </c>
       <c r="F131" s="2" t="str">
@@ -41240,29 +42123,59 @@
 </v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B145" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>#ifndef (MJHTex366) #declare MJHTex366 = texture {MJHMissingTex} #end</v>
+        <v>#ifndef (MJHTex353) #declare MJHTex353 = texture {MJHMissingTex} #end</v>
       </c>
       <c r="C145" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#ifndef (MJHTex366Slope) #declare MJHTex366Slope = texture {MJHMissingTex} #end</v>
+        <v>#ifndef (MJHTex353Slope) #declare MJHTex353Slope = texture {MJHMissingTex} #end</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>#ifndef (MJHMat366) #declare MJHMat366 = material {MJHMissingMat} #end</v>
+        <v>#ifndef (MJHMat353) #declare MJHMat353 = material {MJHMissingMat} #end</v>
       </c>
       <c r="E145" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>#ifndef (MJHMat366Slope) #declare MJHMat366Slope = material {MJHMissingMat} #end</v>
+        <v>#ifndef (MJHMat353Slope) #declare MJHMat353Slope = material {MJHMissingMat} #end</v>
       </c>
       <c r="F145" s="2" t="str">
         <f>"// row "&amp;(ROW($A145)-1)&amp;" - "&amp;codes!$B145&amp;CHAR(10)&amp;$B145&amp;CHAR(10)&amp;$C145&amp;CHAR(10)&amp;$D145&amp;CHAR(10)&amp;$E145&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 144 - Earth_Orange
+        <v xml:space="preserve">// row 144 - Coral
+#ifndef (MJHTex353) #declare MJHTex353 = texture {MJHMissingTex} #end
+#ifndef (MJHTex353Slope) #declare MJHTex353Slope = texture {MJHMissingTex} #end
+#ifndef (MJHMat353) #declare MJHMat353 = material {MJHMissingMat} #end
+#ifndef (MJHMat353Slope) #declare MJHMat353Slope = material {MJHMissingMat} #end
+</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>366</v>
+      </c>
+      <c r="B146" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifndef (MJHTex366) #declare MJHTex366 = texture {MJHMissingTex} #end</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifndef (MJHTex366Slope) #declare MJHTex366Slope = texture {MJHMissingTex} #end</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifndef (MJHMat366) #declare MJHMat366 = material {MJHMissingMat} #end</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifndef (MJHMat366Slope) #declare MJHMat366Slope = material {MJHMissingMat} #end</v>
+      </c>
+      <c r="F146" s="2" t="str">
+        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 145 - Earth_Orange
 #ifndef (MJHTex366) #declare MJHTex366 = texture {MJHMissingTex} #end
 #ifndef (MJHTex366Slope) #declare MJHTex366Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat366) #declare MJHMat366 = material {MJHMissingMat} #end
@@ -41270,29 +42183,29 @@
 </v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
         <v>373</v>
       </c>
-      <c r="B146" s="4" t="str">
+      <c r="B147" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex373) #declare MJHTex373 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C146" s="4" t="str">
+      <c r="C147" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex373Slope) #declare MJHTex373Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D147" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat373) #declare MJHMat373 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E146" s="4" t="str">
+      <c r="E147" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat373Slope) #declare MJHMat373Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F146" s="2" t="str">
-        <f>"// row "&amp;(ROW($A146)-1)&amp;" - "&amp;codes!$B146&amp;CHAR(10)&amp;$B146&amp;CHAR(10)&amp;$C146&amp;CHAR(10)&amp;$D146&amp;CHAR(10)&amp;$E146&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 145 - Sand_Purple
+      <c r="F147" s="2" t="str">
+        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 146 - Sand_Purple
 #ifndef (MJHTex373) #declare MJHTex373 = texture {MJHMissingTex} #end
 #ifndef (MJHTex373Slope) #declare MJHTex373Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat373) #declare MJHMat373 = material {MJHMissingMat} #end
@@ -41300,29 +42213,29 @@
 </v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
         <v>375</v>
       </c>
-      <c r="B147" s="4" t="str">
+      <c r="B148" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex375) #declare MJHTex375 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C147" s="4" t="str">
+      <c r="C148" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex375Slope) #declare MJHTex375Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D148" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat375) #declare MJHMat375 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E147" s="4" t="str">
+      <c r="E148" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat375Slope) #declare MJHMat375Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F147" s="2" t="str">
-        <f>"// row "&amp;(ROW($A147)-1)&amp;" - "&amp;codes!$B147&amp;CHAR(10)&amp;$B147&amp;CHAR(10)&amp;$C147&amp;CHAR(10)&amp;$D147&amp;CHAR(10)&amp;$E147&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 146 - Rubber_Light_Grey
+      <c r="F148" s="2" t="str">
+        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 147 - Rubber_Light_Grey
 #ifndef (MJHTex375) #declare MJHTex375 = texture {MJHMissingTex} #end
 #ifndef (MJHTex375Slope) #declare MJHTex375Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat375) #declare MJHMat375 = material {MJHMissingMat} #end
@@ -41330,29 +42243,29 @@
 </v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
         <v>378</v>
       </c>
-      <c r="B148" s="4" t="str">
+      <c r="B149" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex378) #declare MJHTex378 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C148" s="4" t="str">
+      <c r="C149" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex378Slope) #declare MJHTex378Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D149" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat378) #declare MJHMat378 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E148" s="4" t="str">
+      <c r="E149" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat378Slope) #declare MJHMat378Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F148" s="2" t="str">
-        <f>"// row "&amp;(ROW($A148)-1)&amp;" - "&amp;codes!$B148&amp;CHAR(10)&amp;$B148&amp;CHAR(10)&amp;$C148&amp;CHAR(10)&amp;$D148&amp;CHAR(10)&amp;$E148&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 147 - Sand_Green
+      <c r="F149" s="2" t="str">
+        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 148 - Sand_Green
 #ifndef (MJHTex378) #declare MJHTex378 = texture {MJHMissingTex} #end
 #ifndef (MJHTex378Slope) #declare MJHTex378Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat378) #declare MJHMat378 = material {MJHMissingMat} #end
@@ -41360,29 +42273,29 @@
 </v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
         <v>379</v>
       </c>
-      <c r="B149" s="4" t="str">
+      <c r="B150" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex379) #declare MJHTex379 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C149" s="4" t="str">
+      <c r="C150" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex379Slope) #declare MJHTex379Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D150" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat379) #declare MJHMat379 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E149" s="4" t="str">
+      <c r="E150" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat379Slope) #declare MJHMat379Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F149" s="2" t="str">
-        <f>"// row "&amp;(ROW($A149)-1)&amp;" - "&amp;codes!$B149&amp;CHAR(10)&amp;$B149&amp;CHAR(10)&amp;$C149&amp;CHAR(10)&amp;$D149&amp;CHAR(10)&amp;$E149&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 148 - Sand_Blue
+      <c r="F150" s="2" t="str">
+        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 149 - Sand_Blue
 #ifndef (MJHTex379) #declare MJHTex379 = texture {MJHMissingTex} #end
 #ifndef (MJHTex379Slope) #declare MJHTex379Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat379) #declare MJHMat379 = material {MJHMissingMat} #end
@@ -41390,29 +42303,29 @@
 </v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
         <v>383</v>
       </c>
-      <c r="B150" s="4" t="str">
+      <c r="B151" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex383) #declare MJHTex383 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C150" s="4" t="str">
+      <c r="C151" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex383Slope) #declare MJHTex383Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D151" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat383) #declare MJHMat383 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E150" s="4" t="str">
+      <c r="E151" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat383Slope) #declare MJHMat383Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F150" s="2" t="str">
-        <f>"// row "&amp;(ROW($A150)-1)&amp;" - "&amp;codes!$B150&amp;CHAR(10)&amp;$B150&amp;CHAR(10)&amp;$C150&amp;CHAR(10)&amp;$D150&amp;CHAR(10)&amp;$E150&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 149 - Chrome_Silver
+      <c r="F151" s="2" t="str">
+        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 150 - Chrome_Silver
 #ifndef (MJHTex383) #declare MJHTex383 = texture {MJHMissingTex} #end
 #ifndef (MJHTex383Slope) #declare MJHTex383Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat383) #declare MJHMat383 = material {MJHMissingMat} #end
@@ -41420,29 +42333,29 @@
 </v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
         <v>406</v>
       </c>
-      <c r="B151" s="4" t="str">
+      <c r="B152" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex406) #declare MJHTex406 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C151" s="4" t="str">
+      <c r="C152" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex406Slope) #declare MJHTex406Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D152" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat406) #declare MJHMat406 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E151" s="4" t="str">
+      <c r="E152" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat406Slope) #declare MJHMat406Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F151" s="2" t="str">
-        <f>"// row "&amp;(ROW($A151)-1)&amp;" - "&amp;codes!$B151&amp;CHAR(10)&amp;$B151&amp;CHAR(10)&amp;$C151&amp;CHAR(10)&amp;$D151&amp;CHAR(10)&amp;$E151&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 150 - Rubber_Dark_Blue
+      <c r="F152" s="2" t="str">
+        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 151 - Rubber_Dark_Blue
 #ifndef (MJHTex406) #declare MJHTex406 = texture {MJHMissingTex} #end
 #ifndef (MJHTex406Slope) #declare MJHTex406Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat406) #declare MJHMat406 = material {MJHMissingMat} #end
@@ -41450,29 +42363,29 @@
 </v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
         <v>449</v>
       </c>
-      <c r="B152" s="4" t="str">
+      <c r="B153" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex449) #declare MJHTex449 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C152" s="4" t="str">
+      <c r="C153" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex449Slope) #declare MJHTex449Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D153" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat449) #declare MJHMat449 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E152" s="4" t="str">
+      <c r="E153" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat449Slope) #declare MJHMat449Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F152" s="2" t="str">
-        <f>"// row "&amp;(ROW($A152)-1)&amp;" - "&amp;codes!$B152&amp;CHAR(10)&amp;$B152&amp;CHAR(10)&amp;$C152&amp;CHAR(10)&amp;$D152&amp;CHAR(10)&amp;$E152&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 151 - Rubber_Purple
+      <c r="F153" s="2" t="str">
+        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 152 - Rubber_Purple
 #ifndef (MJHTex449) #declare MJHTex449 = texture {MJHMissingTex} #end
 #ifndef (MJHTex449Slope) #declare MJHTex449Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat449) #declare MJHMat449 = material {MJHMissingMat} #end
@@ -41480,29 +42393,29 @@
 </v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
         <v>450</v>
       </c>
-      <c r="B153" s="4" t="str">
+      <c r="B154" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex450) #declare MJHTex450 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C153" s="4" t="str">
+      <c r="C154" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex450Slope) #declare MJHTex450Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D154" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat450) #declare MJHMat450 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E153" s="4" t="str">
+      <c r="E154" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat450Slope) #declare MJHMat450Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F153" s="2" t="str">
-        <f>"// row "&amp;(ROW($A153)-1)&amp;" - "&amp;codes!$B153&amp;CHAR(10)&amp;$B153&amp;CHAR(10)&amp;$C153&amp;CHAR(10)&amp;$D153&amp;CHAR(10)&amp;$E153&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 152 - Fabuland_Brown
+      <c r="F154" s="2" t="str">
+        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 153 - Fabuland_Brown
 #ifndef (MJHTex450) #declare MJHTex450 = texture {MJHMissingTex} #end
 #ifndef (MJHTex450Slope) #declare MJHTex450Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat450) #declare MJHMat450 = material {MJHMissingMat} #end
@@ -41510,29 +42423,29 @@
 </v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
         <v>462</v>
       </c>
-      <c r="B154" s="4" t="str">
+      <c r="B155" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex462) #declare MJHTex462 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C154" s="4" t="str">
+      <c r="C155" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex462Slope) #declare MJHTex462Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D155" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat462) #declare MJHMat462 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E154" s="4" t="str">
+      <c r="E155" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat462Slope) #declare MJHMat462Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F154" s="2" t="str">
-        <f>"// row "&amp;(ROW($A154)-1)&amp;" - "&amp;codes!$B154&amp;CHAR(10)&amp;$B154&amp;CHAR(10)&amp;$C154&amp;CHAR(10)&amp;$D154&amp;CHAR(10)&amp;$E154&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 153 - Medium_Orange
+      <c r="F155" s="2" t="str">
+        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 154 - Medium_Orange
 #ifndef (MJHTex462) #declare MJHTex462 = texture {MJHMissingTex} #end
 #ifndef (MJHTex462Slope) #declare MJHTex462Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat462) #declare MJHMat462 = material {MJHMissingMat} #end
@@ -41540,29 +42453,29 @@
 </v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
         <v>484</v>
       </c>
-      <c r="B155" s="4" t="str">
+      <c r="B156" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex484) #declare MJHTex484 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C155" s="4" t="str">
+      <c r="C156" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex484Slope) #declare MJHTex484Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D156" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat484) #declare MJHMat484 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E155" s="4" t="str">
+      <c r="E156" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat484Slope) #declare MJHMat484Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F155" s="2" t="str">
-        <f>"// row "&amp;(ROW($A155)-1)&amp;" - "&amp;codes!$B155&amp;CHAR(10)&amp;$B155&amp;CHAR(10)&amp;$C155&amp;CHAR(10)&amp;$D155&amp;CHAR(10)&amp;$E155&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 154 - Dark_Orange
+      <c r="F156" s="2" t="str">
+        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 155 - Dark_Orange
 #ifndef (MJHTex484) #declare MJHTex484 = texture {MJHMissingTex} #end
 #ifndef (MJHTex484Slope) #declare MJHTex484Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat484) #declare MJHMat484 = material {MJHMissingMat} #end
@@ -41570,29 +42483,29 @@
 </v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
         <v>490</v>
       </c>
-      <c r="B156" s="4" t="str">
+      <c r="B157" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex490) #declare MJHTex490 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C156" s="4" t="str">
+      <c r="C157" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex490Slope) #declare MJHTex490Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D157" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat490) #declare MJHMat490 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E156" s="4" t="str">
+      <c r="E157" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat490Slope) #declare MJHMat490Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F156" s="2" t="str">
-        <f>"// row "&amp;(ROW($A156)-1)&amp;" - "&amp;codes!$B156&amp;CHAR(10)&amp;$B156&amp;CHAR(10)&amp;$C156&amp;CHAR(10)&amp;$D156&amp;CHAR(10)&amp;$E156&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 155 - Rubber_Lime
+      <c r="F157" s="2" t="str">
+        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 156 - Rubber_Lime
 #ifndef (MJHTex490) #declare MJHTex490 = texture {MJHMissingTex} #end
 #ifndef (MJHTex490Slope) #declare MJHTex490Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat490) #declare MJHMat490 = material {MJHMissingMat} #end
@@ -41600,29 +42513,29 @@
 </v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
         <v>493</v>
       </c>
-      <c r="B157" s="4" t="str">
+      <c r="B158" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex493) #declare MJHTex493 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C157" s="4" t="str">
+      <c r="C158" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex493Slope) #declare MJHTex493Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D158" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat493) #declare MJHMat493 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E157" s="4" t="str">
+      <c r="E158" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat493Slope) #declare MJHMat493Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F157" s="2" t="str">
-        <f>"// row "&amp;(ROW($A157)-1)&amp;" - "&amp;codes!$B157&amp;CHAR(10)&amp;$B157&amp;CHAR(10)&amp;$C157&amp;CHAR(10)&amp;$D157&amp;CHAR(10)&amp;$E157&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 156 - Magnet
+      <c r="F158" s="2" t="str">
+        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 157 - Magnet
 #ifndef (MJHTex493) #declare MJHTex493 = texture {MJHMissingTex} #end
 #ifndef (MJHTex493Slope) #declare MJHTex493Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat493) #declare MJHMat493 = material {MJHMissingMat} #end
@@ -41630,29 +42543,29 @@
 </v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
         <v>494</v>
       </c>
-      <c r="B158" s="4" t="str">
+      <c r="B159" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex494) #declare MJHTex494 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C158" s="4" t="str">
+      <c r="C159" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex494Slope) #declare MJHTex494Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D159" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat494) #declare MJHMat494 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E158" s="4" t="str">
+      <c r="E159" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat494Slope) #declare MJHMat494Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F158" s="2" t="str">
-        <f>"// row "&amp;(ROW($A158)-1)&amp;" - "&amp;codes!$B158&amp;CHAR(10)&amp;$B158&amp;CHAR(10)&amp;$C158&amp;CHAR(10)&amp;$D158&amp;CHAR(10)&amp;$E158&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 157 - Electric_Contact_Alloy
+      <c r="F159" s="2" t="str">
+        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 158 - Electric_Contact_Alloy
 #ifndef (MJHTex494) #declare MJHTex494 = texture {MJHMissingTex} #end
 #ifndef (MJHTex494Slope) #declare MJHTex494Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat494) #declare MJHMat494 = material {MJHMissingMat} #end
@@ -41660,29 +42573,29 @@
 </v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
         <v>495</v>
       </c>
-      <c r="B159" s="4" t="str">
+      <c r="B160" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex495) #declare MJHTex495 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C159" s="4" t="str">
+      <c r="C160" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex495Slope) #declare MJHTex495Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D160" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat495) #declare MJHMat495 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E159" s="4" t="str">
+      <c r="E160" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat495Slope) #declare MJHMat495Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F159" s="2" t="str">
-        <f>"// row "&amp;(ROW($A159)-1)&amp;" - "&amp;codes!$B159&amp;CHAR(10)&amp;$B159&amp;CHAR(10)&amp;$C159&amp;CHAR(10)&amp;$D159&amp;CHAR(10)&amp;$E159&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 158 - Electric_Contact_Copper
+      <c r="F160" s="2" t="str">
+        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 159 - Electric_Contact_Copper
 #ifndef (MJHTex495) #declare MJHTex495 = texture {MJHMissingTex} #end
 #ifndef (MJHTex495Slope) #declare MJHTex495Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat495) #declare MJHMat495 = material {MJHMissingMat} #end
@@ -41690,29 +42603,29 @@
 </v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
         <v>496</v>
       </c>
-      <c r="B160" s="4" t="str">
+      <c r="B161" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex496) #declare MJHTex496 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C160" s="4" t="str">
+      <c r="C161" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex496Slope) #declare MJHTex496Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D161" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat496) #declare MJHMat496 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E160" s="4" t="str">
+      <c r="E161" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat496Slope) #declare MJHMat496Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F160" s="2" t="str">
-        <f>"// row "&amp;(ROW($A160)-1)&amp;" - "&amp;codes!$B160&amp;CHAR(10)&amp;$B160&amp;CHAR(10)&amp;$C160&amp;CHAR(10)&amp;$D160&amp;CHAR(10)&amp;$E160&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 159 - Rubber_Light_Bluish_Grey
+      <c r="F161" s="2" t="str">
+        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 160 - Rubber_Light_Bluish_Grey
 #ifndef (MJHTex496) #declare MJHTex496 = texture {MJHMissingTex} #end
 #ifndef (MJHTex496Slope) #declare MJHTex496Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat496) #declare MJHMat496 = material {MJHMissingMat} #end
@@ -41720,29 +42633,29 @@
 </v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
         <v>503</v>
       </c>
-      <c r="B161" s="4" t="str">
+      <c r="B162" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex503) #declare MJHTex503 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C161" s="4" t="str">
+      <c r="C162" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex503Slope) #declare MJHTex503Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D162" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat503) #declare MJHMat503 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E161" s="4" t="str">
+      <c r="E162" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat503Slope) #declare MJHMat503Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F161" s="2" t="str">
-        <f>"// row "&amp;(ROW($A161)-1)&amp;" - "&amp;codes!$B161&amp;CHAR(10)&amp;$B161&amp;CHAR(10)&amp;$C161&amp;CHAR(10)&amp;$D161&amp;CHAR(10)&amp;$E161&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 160 - Very_Light_Grey
+      <c r="F162" s="2" t="str">
+        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 161 - Very_Light_Grey
 #ifndef (MJHTex503) #declare MJHTex503 = texture {MJHMissingTex} #end
 #ifndef (MJHTex503Slope) #declare MJHTex503Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat503) #declare MJHMat503 = material {MJHMissingMat} #end
@@ -41750,29 +42663,29 @@
 </v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
         <v>504</v>
       </c>
-      <c r="B162" s="4" t="str">
+      <c r="B163" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex504) #declare MJHTex504 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C162" s="4" t="str">
+      <c r="C163" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex504Slope) #declare MJHTex504Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D163" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat504) #declare MJHMat504 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E162" s="4" t="str">
+      <c r="E163" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat504Slope) #declare MJHMat504Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F162" s="2" t="str">
-        <f>"// row "&amp;(ROW($A162)-1)&amp;" - "&amp;codes!$B162&amp;CHAR(10)&amp;$B162&amp;CHAR(10)&amp;$C162&amp;CHAR(10)&amp;$D162&amp;CHAR(10)&amp;$E162&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 161 - Rubber_Flat_Silver
+      <c r="F163" s="2" t="str">
+        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 162 - Rubber_Flat_Silver
 #ifndef (MJHTex504) #declare MJHTex504 = texture {MJHMissingTex} #end
 #ifndef (MJHTex504Slope) #declare MJHTex504Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat504) #declare MJHMat504 = material {MJHMissingMat} #end
@@ -41780,29 +42693,119 @@
 </v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
+    <row r="164" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>507</v>
+      </c>
+      <c r="B164" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifndef (MJHTex507) #declare MJHTex507 = texture {MJHMissingTex} #end</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifndef (MJHTex507Slope) #declare MJHTex507Slope = texture {MJHMissingTex} #end</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifndef (MJHMat507) #declare MJHMat507 = material {MJHMissingMat} #end</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifndef (MJHMat507Slope) #declare MJHMat507Slope = material {MJHMissingMat} #end</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f>"// row "&amp;(ROW($A164)-1)&amp;" - "&amp;codes!$B164&amp;CHAR(10)&amp;$B164&amp;CHAR(10)&amp;$C164&amp;CHAR(10)&amp;$D164&amp;CHAR(10)&amp;$E164&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 163 - Light_Orange_Brown
+#ifndef (MJHTex507) #declare MJHTex507 = texture {MJHMissingTex} #end
+#ifndef (MJHTex507Slope) #declare MJHTex507Slope = texture {MJHMissingTex} #end
+#ifndef (MJHMat507) #declare MJHMat507 = material {MJHMissingMat} #end
+#ifndef (MJHMat507Slope) #declare MJHMat507Slope = material {MJHMissingMat} #end
+</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>508</v>
+      </c>
+      <c r="B165" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifndef (MJHTex508) #declare MJHTex508 = texture {MJHMissingTex} #end</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifndef (MJHTex508Slope) #declare MJHTex508Slope = texture {MJHMissingTex} #end</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifndef (MJHMat508) #declare MJHMat508 = material {MJHMissingMat} #end</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifndef (MJHMat508Slope) #declare MJHMat508Slope = material {MJHMissingMat} #end</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f>"// row "&amp;(ROW($A165)-1)&amp;" - "&amp;codes!$B165&amp;CHAR(10)&amp;$B165&amp;CHAR(10)&amp;$C165&amp;CHAR(10)&amp;$D165&amp;CHAR(10)&amp;$E165&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 164 - Fabuland_Red
+#ifndef (MJHTex508) #declare MJHTex508 = texture {MJHMissingTex} #end
+#ifndef (MJHTex508Slope) #declare MJHTex508Slope = texture {MJHMissingTex} #end
+#ifndef (MJHMat508) #declare MJHMat508 = material {MJHMissingMat} #end
+#ifndef (MJHMat508Slope) #declare MJHMat508Slope = material {MJHMissingMat} #end
+</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>509</v>
+      </c>
+      <c r="B166" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifndef (MJHTex509) #declare MJHTex509 = texture {MJHMissingTex} #end</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>#ifndef (MJHTex509Slope) #declare MJHTex509Slope = texture {MJHMissingTex} #end</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>#ifndef (MJHMat509) #declare MJHMat509 = material {MJHMissingMat} #end</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifndef (MJHMat509Slope) #declare MJHMat509Slope = material {MJHMissingMat} #end</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f>"// row "&amp;(ROW($A166)-1)&amp;" - "&amp;codes!$B166&amp;CHAR(10)&amp;$B166&amp;CHAR(10)&amp;$C166&amp;CHAR(10)&amp;$D166&amp;CHAR(10)&amp;$E166&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 165 - Fabuland_Orange
+#ifndef (MJHTex509) #declare MJHTex509 = texture {MJHMissingTex} #end
+#ifndef (MJHTex509Slope) #declare MJHTex509Slope = texture {MJHMissingTex} #end
+#ifndef (MJHMat509) #declare MJHMat509 = material {MJHMissingMat} #end
+#ifndef (MJHMat509Slope) #declare MJHMat509Slope = material {MJHMissingMat} #end
+</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
         <v>511</v>
       </c>
-      <c r="B163" s="4" t="str">
+      <c r="B167" s="4" t="str">
         <f t="shared" si="8"/>
         <v>#ifndef (MJHTex511) #declare MJHTex511 = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="C163" s="4" t="str">
+      <c r="C167" s="4" t="str">
         <f t="shared" si="9"/>
         <v>#ifndef (MJHTex511Slope) #declare MJHTex511Slope = texture {MJHMissingTex} #end</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D167" s="4" t="str">
         <f t="shared" si="10"/>
         <v>#ifndef (MJHMat511) #declare MJHMat511 = material {MJHMissingMat} #end</v>
       </c>
-      <c r="E163" s="4" t="str">
+      <c r="E167" s="4" t="str">
         <f t="shared" si="11"/>
         <v>#ifndef (MJHMat511Slope) #declare MJHMat511Slope = material {MJHMissingMat} #end</v>
       </c>
-      <c r="F163" s="2" t="str">
-        <f>"// row "&amp;(ROW($A163)-1)&amp;" - "&amp;codes!$B163&amp;CHAR(10)&amp;$B163&amp;CHAR(10)&amp;$C163&amp;CHAR(10)&amp;$D163&amp;CHAR(10)&amp;$E163&amp;CHAR(10)</f>
-        <v xml:space="preserve">// row 162 - Rubber_White
+      <c r="F167" s="2" t="str">
+        <f>"// row "&amp;(ROW($A167)-1)&amp;" - "&amp;codes!$B167&amp;CHAR(10)&amp;$B167&amp;CHAR(10)&amp;$C167&amp;CHAR(10)&amp;$D167&amp;CHAR(10)&amp;$E167&amp;CHAR(10)</f>
+        <v xml:space="preserve">// row 166 - Rubber_White
 #ifndef (MJHTex511) #declare MJHTex511 = texture {MJHMissingTex} #end
 #ifndef (MJHTex511Slope) #declare MJHTex511Slope = texture {MJHMissingTex} #end
 #ifndef (MJHMat511) #declare MJHMat511 = material {MJHMissingMat} #end
@@ -41817,11 +42820,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43813,29 +44816,26 @@
       </c>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
-        <v>366</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C145" t="s">
-        <v>104</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1</v>
+    <row r="145" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>353</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -43843,41 +44843,41 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D147" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D148" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C149" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D149" t="s">
         <v>1</v>
@@ -43885,41 +44885,41 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D150" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D151" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D152" t="s">
         <v>49</v>
@@ -43927,27 +44927,27 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D153" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C154" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -43955,13 +44955,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C155" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -43969,111 +44969,158 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D156" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C157" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D157" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C158" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D158" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D159" s="4"/>
+        <v>297</v>
+      </c>
+      <c r="C159" t="s">
+        <v>120</v>
+      </c>
+      <c r="D159" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C160" t="s">
-        <v>121</v>
-      </c>
-      <c r="D160" t="s">
-        <v>49</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D160" s="4"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D161" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C162" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D162" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
+        <v>504</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C163" t="s">
+        <v>123</v>
+      </c>
+      <c r="D163" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>507</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>508</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>509</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
         <v>511</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B167" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C167" t="s">
         <v>124</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D167" t="s">
         <v>49</v>
       </c>
     </row>
